--- a/reports/2024-05-30 - RADx Data Hub Content Report.xlsx
+++ b/reports/2024-05-30 - RADx Data Hub Content Report.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="714">
   <si>
     <t>This workbook collects statistics on studies stored in the RADx Data Hub and provides information on the number of studies corresponding to labels on the studies.</t>
   </si>
@@ -700,7 +700,7 @@
     <t>Case-Control</t>
   </si>
   <si>
-    <t>Clinical Trial; Interventional/Clinical Trial</t>
+    <t>Interventional/Clinical Trial</t>
   </si>
   <si>
     <t>Cross-Sectional</t>
@@ -712,10 +712,10 @@
     <t>Open Cohort</t>
   </si>
   <si>
-    <t>Behavioral; Clinical; Questionnaires/Surveys; Social; Other</t>
-  </si>
-  <si>
-    <t>Behavioral; Clinical; Psychological; Questionnaires/Surveys; Social; Other</t>
+    <t>Behavioral; Clinical; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Behavioral; Clinical; Psychological; Questionnaires/Surveys; Social</t>
   </si>
   <si>
     <t>Behavioral; Clinical; Questionnaires/Surveys</t>
@@ -724,43 +724,37 @@
     <t>Behavioral; Questionnaires/Surveys</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Physical Activity; Questionnaires/Surveys; Other</t>
-  </si>
-  <si>
-    <t>Clinical; Imaging; Other</t>
-  </si>
-  <si>
-    <t>Clinical; Electronic Medical Records; Genomic; Genotyping; Questionnaires/Surveys; Supporting Documents; Other</t>
+    <t>Physical Activity; Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Clinical; Imaging</t>
+  </si>
+  <si>
+    <t>Clinical; Electronic Medical Records; Genomic; Genotyping; Questionnaires/Surveys; Supporting Documents</t>
   </si>
   <si>
     <t>Questionnaires/Surveys; Social</t>
   </si>
   <si>
-    <t>Enviornmental (Physical); Other</t>
-  </si>
-  <si>
-    <t>Clinical; Electronic Medical Records; Questionnaires/Surveys; Other</t>
-  </si>
-  <si>
-    <t>Behavioral; Individual Phenotype; Physical Activity; Questionnaires/Surveys; Other</t>
-  </si>
-  <si>
-    <t>Clinical; Electronic Medical Records; Questionnaires/Surveys; Supporting Documents; Other</t>
-  </si>
-  <si>
-    <t>Questionnaires/Surveys; Other</t>
+    <t>Enviornmental (Physical)</t>
+  </si>
+  <si>
+    <t>Clinical; Electronic Medical Records; Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Behavioral; Individual Phenotype; Physical Activity; Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Clinical; Electronic Medical Records; Questionnaires/Surveys; Supporting Documents</t>
+  </si>
+  <si>
+    <t>Questionnaires/Surveys</t>
   </si>
   <si>
     <t>Clinical</t>
   </si>
   <si>
-    <t>Clinical; Electronic Medical Records; Family History; Imaging; Individual Phenotype; Questionnaires/Surveys; Social; Other</t>
-  </si>
-  <si>
-    <t>Questionnaires/Surveys</t>
+    <t>Clinical; Electronic Medical Records; Family History; Imaging; Individual Phenotype; Questionnaires/Surveys; Social</t>
   </si>
   <si>
     <t>Clinical; Electronic Medical Records; Family History; Genomic; Individual Genotype; Individual Phenotype; Individual Sequencing; Questionnaires/Surveys</t>
@@ -775,13 +769,10 @@
     <t>Behavioral; Psychological; Questionnaires/Surveys; Social</t>
   </si>
   <si>
-    <t>Behavioral; Questionnaires/Surveys; Other</t>
-  </si>
-  <si>
     <t>Electronic Medical Records</t>
   </si>
   <si>
-    <t>Electronic Medical Records; Individual Phenotype; Other</t>
+    <t>Electronic Medical Records; Individual Phenotype</t>
   </si>
   <si>
     <t>Clinical; Electronic Medical Records; Metabolomic; Questionnaires/Surveys</t>
@@ -790,7 +781,7 @@
     <t>Behavioral; Clinical; Electronic Medical Records; Questionnaires/Surveys; Social; Supporting Documents</t>
   </si>
   <si>
-    <t>Clinical; Electronic Medical Records; Metabolomic; Other</t>
+    <t>Clinical; Electronic Medical Records; Metabolomic</t>
   </si>
   <si>
     <t>Genomic</t>
@@ -799,7 +790,7 @@
     <t>Clinical; Electronic Medical Records; Genomic; Questionnaires/Surveys</t>
   </si>
   <si>
-    <t>Behavioral; Clinical; Electronic Medical Records; Psychological; Questionnaires/Surveys; Social; Other</t>
+    <t>Behavioral; Clinical; Electronic Medical Records; Psychological; Questionnaires/Surveys; Social</t>
   </si>
   <si>
     <t>Behavioral; Questionnaires/Surveys; Social</t>
@@ -811,19 +802,10 @@
     <t>Behavioral; Clinical; Cognitive; Family History; Psychological; Questionnaires/Surveys; Social; Supporting Documents</t>
   </si>
   <si>
-    <t>Electronic Medical Records; Questionnaires/Surveys; Other</t>
-  </si>
-  <si>
     <t>Clinical; Questionnaires/Surveys</t>
   </si>
   <si>
-    <t>Clinical; Electronic Medical Records; Metabolomic; Physical Activity; Other</t>
-  </si>
-  <si>
-    <t>Behavioral; Clinical; Questionnaires/Surveys; Social</t>
-  </si>
-  <si>
-    <t>Behavioral; Clinical; Questionnaires/Surveys; Other</t>
+    <t>Clinical; Electronic Medical Records; Metabolomic; Physical Activity</t>
   </si>
   <si>
     <t>Clinical; Genomic</t>
@@ -832,15 +814,12 @@
     <t>Behavioral; Electronic Medical Records; Questionnaires/Surveys</t>
   </si>
   <si>
-    <t>Imaging; Other</t>
+    <t>Imaging</t>
   </si>
   <si>
     <t>Behavioral; Psychological; Questionnaires/Surveys; Social; Supporting Documents</t>
   </si>
   <si>
-    <t>Genomic; Other</t>
-  </si>
-  <si>
     <t>Behavioral; Clinical; Cognitive; Family History; Psychological; Questionnaires/Surveys; Social</t>
   </si>
   <si>
@@ -850,18 +829,12 @@
     <t>Psychological; Questionnaires/Surveys; Social</t>
   </si>
   <si>
-    <t>Behavioral; Clinical; Family History; Immulogical; Psychological; Questionnaires/Surveys; Social; Other</t>
-  </si>
-  <si>
-    <t>Behavioral; Clinical; Psychological; Questionnaires/Surveys; Social</t>
+    <t>Behavioral; Clinical; Family History; Immulogical; Psychological; Questionnaires/Surveys; Social</t>
   </si>
   <si>
     <t>Clinical; Electronic Medical Records; Family History; Genomic; Questionnaires/Surveys; Social</t>
   </si>
   <si>
-    <t>Behavioral; Electronic Medical Records; Questionnaires/Surveys; Social; Other</t>
-  </si>
-  <si>
     <t>Behavioral; Family History; Physical Activity; Psychological; Questionnaires/Surveys; Social</t>
   </si>
   <si>
@@ -871,7 +844,7 @@
     <t>Clinical; Electronic Medical Records; Genomic; Imaging; Individual Sequencing; Questionnaires/Surveys</t>
   </si>
   <si>
-    <t>Clinical; Individual Sequencing; Other</t>
+    <t>Clinical; Individual Sequencing</t>
   </si>
   <si>
     <t>Clinical; Individual Phenotype; Questionnaires/Surveys</t>
@@ -880,40 +853,22 @@
     <t>Clinical; Psychological; Questionnaires/Surveys</t>
   </si>
   <si>
-    <t>Behavioral; Questionnaires/Surveys; Social; Other</t>
-  </si>
-  <si>
     <t>Behavioral; Clinical; Electronic Medical Records; Questionnaires/Surveys; Social</t>
   </si>
   <si>
     <t>Behavioral; Family History; Questionnaires/Surveys; Social</t>
   </si>
   <si>
-    <t>Clinical; Questionnaires/Surveys; Other</t>
-  </si>
-  <si>
-    <t>Behavioral; Clinical; Electronic Medical Records; Imaging; Psychological; Questionnaires/Surveys; Social; Other</t>
+    <t>Behavioral; Clinical; Electronic Medical Records; Imaging; Psychological; Questionnaires/Surveys; Social</t>
   </si>
   <si>
     <t>Behavioral; Cognitive; Psychological; Questionnaires/Surveys; Social</t>
   </si>
   <si>
-    <t>Behavioral; Electronic Medical Records; Questionnaires/Surveys; Other</t>
-  </si>
-  <si>
     <t>Clinical; Electronic Medical Records; Family History; Individual Phenotype; Questionnaires/Surveys</t>
   </si>
   <si>
-    <t>Behavioral; Cognitive; Family History; Physical Activity; Psychological; Questionnaires/Surveys; Social; Other</t>
-  </si>
-  <si>
-    <t>Clinical; Other</t>
-  </si>
-  <si>
-    <t>Questionnaires/Surveys; Social; Other</t>
-  </si>
-  <si>
-    <t>Behavioral; Clinical; Family History; Questionnaires/Surveys; Social; Other</t>
+    <t>Behavioral; Cognitive; Family History; Physical Activity; Psychological; Questionnaires/Surveys; Social</t>
   </si>
   <si>
     <t>Behavioral; Clinical; Family History; Questionnaires/Surveys; Social</t>
@@ -925,9 +880,6 @@
     <t>Behavioral; Clinical; Individual Sequencing; Questionnaires/Surveys</t>
   </si>
   <si>
-    <t>Behavioral; Cognitive; Family History; Psychological; Questionnaires/Surveys; Social; Other</t>
-  </si>
-  <si>
     <t>Behavioral; Cognitive; Family History; Psychological; Questionnaires/Surveys; Social</t>
   </si>
   <si>
@@ -940,9 +892,6 @@
     <t>Survey; Interview or Focus Group</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>Wearable</t>
   </si>
   <si>
@@ -970,7 +919,7 @@
     <t>Molecular (Nucleic Acid/PCR) Testing Device</t>
   </si>
   <si>
-    <t>Antibody Testing / Other Adaptive Immune Response Test; Electrochemical Testing Device; Other</t>
+    <t>Antibody Testing / Other Adaptive Immune Response Test; Electrochemical Testing Device</t>
   </si>
   <si>
     <t>Antigen Testing Device</t>
@@ -1036,7 +985,7 @@
     <t>Smartphone; Antigen Testing Device</t>
   </si>
   <si>
-    <t>Survey; Interview or Focus Group; Molecular (Nucleic Acid/PCR) Testing Device; Antibody Testing / Other Adaptive Immune Response Test; Other</t>
+    <t>Survey; Interview or Focus Group; Molecular (Nucleic Acid/PCR) Testing Device; Antibody Testing / Other Adaptive Immune Response Test</t>
   </si>
   <si>
     <t>Disease Registry</t>
@@ -1054,7 +1003,7 @@
     <t>Survey; Interview or Focus Group; Contact Tracing</t>
   </si>
   <si>
-    <t>Survey; Molecular (Nucleic Acid/PCR) Testing Device; Antibody Testing / Other Adaptive Immune Response Test; Other</t>
+    <t>Survey; Molecular (Nucleic Acid/PCR) Testing Device; Antibody Testing / Other Adaptive Immune Response Test</t>
   </si>
   <si>
     <t>NCI</t>
@@ -1093,13 +1042,7 @@
     <t>NICHD</t>
   </si>
   <si>
-    <t>NIH OD; NIH</t>
-  </si>
-  <si>
-    <t>NCATS; NIH</t>
-  </si>
-  <si>
-    <t>NIDDK; NIH</t>
+    <t>NIDDK</t>
   </si>
   <si>
     <t>NIA; NIAID</t>
@@ -1114,12 +1057,6 @@
     <t>NIGMS</t>
   </si>
   <si>
-    <t>NIH</t>
-  </si>
-  <si>
-    <t>NIDDK</t>
-  </si>
-  <si>
     <t>NIA; NIAID; NICHD; NIMH</t>
   </si>
   <si>
@@ -1909,9 +1846,6 @@
     <t>Physical Activity</t>
   </si>
   <si>
-    <t>Imaging</t>
-  </si>
-  <si>
     <t>Supporting Documents</t>
   </si>
   <si>
@@ -1921,9 +1855,6 @@
     <t>Metabolomic</t>
   </si>
   <si>
-    <t>Enviornmental (Physical)</t>
-  </si>
-  <si>
     <t>Individual Genotype</t>
   </si>
   <si>
@@ -1936,9 +1867,6 @@
     <t>phs002516; phs002519; phs002520; phs002521; phs002537; phs002538; phs002539; phs002581; phs002582; phs002584; phs002601; phs002608; phs002616; phs002619; phs002631; phs002633; phs002634; phs002643; phs002645; phs002647; phs002649; phs002658; phs002660; phs002661; phs002699; phs002707; phs002713; phs002720; phs002739; phs002740; phs002741; phs002742; phs002745; phs002760; phs002761; phs002775; phs002776; phs002777; phs002786; phs002799; phs002821; phs002825; phs002869; phs002871; phs002872; phs002874; phs002875; phs002905; phs002906; phs002917; phs002920; phs002946; phs002947; phs002948; phs003026; phs003027; phs003029; phs003032; phs003050; phs003051; phs003082; phs003083; phs003123; phs003128; phs003234; phs003237; phs003238; phs003239; phs003362; phs003373; phs003374; phs003375; phs003376; phs003484; phs003504; phs003507; phs003514; phs003544</t>
   </si>
   <si>
-    <t>phs002516; phs002519; phs002522; phs002523; phs002524; phs002525; phs002527; phs002533; phs002535; phs002537; phs002538; phs002539; phs002540; phs002542; phs002543; phs002546; phs002549; phs002550; phs002551; phs002561; phs002563; phs002565; phs002570; phs002572; phs002573; phs002583; phs002584; phs002588; phs002602; phs002603; phs002616; phs002633; phs002642; phs002644; phs002651; phs002657; phs002661; phs002662; phs002685; phs002689; phs002700; phs002702; phs002709; phs002729; phs002744; phs002745; phs002747; phs002775; phs002782; phs002825; phs002904; phs002905; phs002920; phs002924; phs002948; phs002964; phs003029; phs003030; phs003031; phs003037; phs003057; phs003081; phs003082; phs003124; phs003125; phs003126; phs003127; phs003128; phs003360; phs003484; phs003504; phs003507</t>
-  </si>
-  <si>
     <t>phs002516; phs002519; phs002520; phs002524; phs002525; phs002535; phs002540; phs002544; phs002549; phs002553; phs002569; phs002600; phs002601; phs002603; phs002608; phs002609; phs002616; phs002634; phs002648; phs002657; phs002658; phs002660; phs002661; phs002679; phs002682; phs002707; phs002736; phs002737; phs002738; phs002740; phs002741; phs002745; phs002760; phs002761; phs002763; phs002781; phs002782; phs002791; phs002800; phs002821; phs002869; phs002871; phs002872; phs002904; phs002905; phs002945; phs003032; phs003050; phs003051; phs003124; phs003125; phs003127; phs003128; phs003234; phs003360; phs003373; phs003374; phs003375; phs003376</t>
   </si>
   <si>
@@ -2056,9 +1984,6 @@
     <t>phs002543; phs002546; phs002565; phs002573; phs002647; phs002700; phs002744</t>
   </si>
   <si>
-    <t>phs002561; phs002567; phs002578; phs002634; phs002662; phs002685; phs003366</t>
-  </si>
-  <si>
     <t>phs002524; phs002550; phs002570; phs002572; phs002642; phs002702</t>
   </si>
   <si>
@@ -2069,9 +1994,6 @@
   </si>
   <si>
     <t>phs002708; phs002763; phs002782; phs002791; phs003371</t>
-  </si>
-  <si>
-    <t>phs002561; phs002662; phs002685; phs003366</t>
   </si>
   <si>
     <t>phs002523; phs002568; phs002645</t>
@@ -2515,28 +2437,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>19</c:v>
@@ -2628,28 +2550,28 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Cognitive</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Genomic</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Individual Phenotype</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Family History</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Psychological</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Electronic Medical Records</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Social</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Clinical</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Other</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Behavioral</c:v>
@@ -2670,25 +2592,25 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>78</c:v>
@@ -4158,7 +4080,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4175,13 +4097,13 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4196,7 +4118,7 @@
         <v>0.6853932584269663</v>
       </c>
       <c r="D2" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4211,7 +4133,7 @@
         <v>0.2808988764044944</v>
       </c>
       <c r="D3" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4226,7 +4148,7 @@
         <v>0.2078651685393259</v>
       </c>
       <c r="D4" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4241,7 +4163,7 @@
         <v>0.1910112359550562</v>
       </c>
       <c r="D5" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4256,7 +4178,7 @@
         <v>0.0898876404494382</v>
       </c>
       <c r="D6" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4271,7 +4193,7 @@
         <v>0.05056179775280899</v>
       </c>
       <c r="D7" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4286,7 +4208,7 @@
         <v>0.03932584269662921</v>
       </c>
       <c r="D8" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4301,7 +4223,7 @@
         <v>0.03370786516853932</v>
       </c>
       <c r="D9" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4316,7 +4238,7 @@
         <v>0.03370786516853932</v>
       </c>
       <c r="D10" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4331,7 +4253,7 @@
         <v>0.02247191011235955</v>
       </c>
       <c r="D11" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4346,27 +4268,27 @@
         <v>0.01685393258426966</v>
       </c>
       <c r="D12" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22source_array%22,%22facets%22:%5B%22Other%22%5D%7D%5D", "Other")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22source_array%22,%22facets%22:%5B%22Unspecified COVID Testing Device%22%5D%7D%5D", "Unspecified COVID Testing Device")</f>
         <v>0</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>0.01685393258426966</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="D13" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22source_array%22,%22facets%22:%5B%22Unspecified COVID Testing Device%22%5D%7D%5D", "Unspecified COVID Testing Device")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22source_array%22,%22facets%22:%5B%22Electrochemical Testing Device%22%5D%7D%5D", "Electrochemical Testing Device")</f>
         <v>0</v>
       </c>
       <c r="B14">
@@ -4376,12 +4298,12 @@
         <v>0.01123595505617977</v>
       </c>
       <c r="D14" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22source_array%22,%22facets%22:%5B%22Electrochemical Testing Device%22%5D%7D%5D", "Electrochemical Testing Device")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22source_array%22,%22facets%22:%5B%22Real-World Data%22%5D%7D%5D", "Real-World Data")</f>
         <v>0</v>
       </c>
       <c r="B15">
@@ -4391,27 +4313,27 @@
         <v>0.01123595505617977</v>
       </c>
       <c r="D15" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22source_array%22,%22facets%22:%5B%22Real-World Data%22%5D%7D%5D", "Real-World Data")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22source_array%22,%22facets%22:%5B%22Biobank Samples%22%5D%7D%5D", "Biobank Samples")</f>
         <v>0</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>0.01123595505617977</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="D16" t="s">
-        <v>662</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22source_array%22,%22facets%22:%5B%22Biobank Samples%22%5D%7D%5D", "Biobank Samples")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22source_array%22,%22facets%22:%5B%22Disease Registry%22%5D%7D%5D", "Disease Registry")</f>
         <v>0</v>
       </c>
       <c r="B17">
@@ -4421,21 +4343,6 @@
         <v>0.005617977528089887</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22source_array%22,%22facets%22:%5B%22Disease Registry%22%5D%7D%5D", "Disease Registry")</f>
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.005617977528089887</v>
-      </c>
-      <c r="D18" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4457,13 +4364,13 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4478,7 +4385,7 @@
         <v>0.02247191011235955</v>
       </c>
       <c r="D2" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4493,7 +4400,7 @@
         <v>0.03370786516853932</v>
       </c>
       <c r="D3" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4508,7 +4415,7 @@
         <v>0.03370786516853932</v>
       </c>
       <c r="D4" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4523,7 +4430,7 @@
         <v>0.03932584269662921</v>
       </c>
       <c r="D5" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4538,7 +4445,7 @@
         <v>0.05056179775280899</v>
       </c>
       <c r="D6" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4553,7 +4460,7 @@
         <v>0.0898876404494382</v>
       </c>
       <c r="D7" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4568,7 +4475,7 @@
         <v>0.1910112359550562</v>
       </c>
       <c r="D8" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4583,7 +4490,7 @@
         <v>0.2078651685393259</v>
       </c>
       <c r="D9" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4598,7 +4505,7 @@
         <v>0.2808988764044944</v>
       </c>
       <c r="D10" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4613,7 +4520,7 @@
         <v>0.6853932584269663</v>
       </c>
       <c r="D11" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -4623,7 +4530,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4640,13 +4547,13 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4661,7 +4568,7 @@
         <v>0.1685393258426966</v>
       </c>
       <c r="D2" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4676,7 +4583,7 @@
         <v>0.151685393258427</v>
       </c>
       <c r="D3" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4691,7 +4598,7 @@
         <v>0.151685393258427</v>
       </c>
       <c r="D4" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4706,7 +4613,7 @@
         <v>0.1179775280898876</v>
       </c>
       <c r="D5" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4721,7 +4628,7 @@
         <v>0.09550561797752809</v>
       </c>
       <c r="D6" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4736,7 +4643,7 @@
         <v>0.09550561797752809</v>
       </c>
       <c r="D7" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4751,7 +4658,7 @@
         <v>0.0898876404494382</v>
       </c>
       <c r="D8" t="s">
-        <v>669</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4766,7 +4673,7 @@
         <v>0.08426966292134831</v>
       </c>
       <c r="D9" t="s">
-        <v>670</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4781,7 +4688,7 @@
         <v>0.07865168539325842</v>
       </c>
       <c r="D10" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4796,7 +4703,7 @@
         <v>0.0449438202247191</v>
       </c>
       <c r="D11" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4811,27 +4718,27 @@
         <v>0.03932584269662921</v>
       </c>
       <c r="D12" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIH%22%5D%7D%5D", "NIH")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIDCR%22%5D%7D%5D", "NIDCR")</f>
         <v>0</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3">
-        <v>0.03932584269662921</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="D13" t="s">
-        <v>674</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIDCR%22%5D%7D%5D", "NIDCR")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIAID%22%5D%7D%5D", "NIAID")</f>
         <v>0</v>
       </c>
       <c r="B14">
@@ -4841,27 +4748,27 @@
         <v>0.03370786516853932</v>
       </c>
       <c r="D14" t="s">
-        <v>675</v>
+        <v>651</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIAID%22%5D%7D%5D", "NIAID")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIDDK%22%5D%7D%5D", "NIDDK")</f>
         <v>0</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3">
-        <v>0.03370786516853932</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="D15" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIDDK%22%5D%7D%5D", "NIDDK")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIEHS%22%5D%7D%5D", "NIEHS")</f>
         <v>0</v>
       </c>
       <c r="B16">
@@ -4871,87 +4778,87 @@
         <v>0.02808988764044944</v>
       </c>
       <c r="D16" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIEHS%22%5D%7D%5D", "NIEHS")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NINR%22%5D%7D%5D", "NINR")</f>
         <v>0</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>0.02808988764044944</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="D17" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIH OD%22%5D%7D%5D", "NIH OD")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIDCD%22%5D%7D%5D", "NIDCD")</f>
         <v>0</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>0.02247191011235955</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="D18" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NINR%22%5D%7D%5D", "NINR")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NLM%22%5D%7D%5D", "NLM")</f>
         <v>0</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
-        <v>0.01685393258426966</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="D19" t="s">
-        <v>680</v>
+        <v>656</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIDCD%22%5D%7D%5D", "NIDCD")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NCCIH%22%5D%7D%5D", "NCCIH")</f>
         <v>0</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3">
-        <v>0.01685393258426966</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="D20" t="s">
-        <v>681</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NLM%22%5D%7D%5D", "NLM")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIAMS%22%5D%7D%5D", "NIAMS")</f>
         <v>0</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>0.01123595505617977</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="D21" t="s">
-        <v>682</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NCCIH%22%5D%7D%5D", "NCCIH")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NDA%22%5D%7D%5D", "NDA")</f>
         <v>0</v>
       </c>
       <c r="B22">
@@ -4961,36 +4868,6 @@
         <v>0.005617977528089887</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIAMS%22%5D%7D%5D", "NIAMS")</f>
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.005617977528089887</v>
-      </c>
-      <c r="D23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NDA%22%5D%7D%5D", "NDA")</f>
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.005617977528089887</v>
-      </c>
-      <c r="D24" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5012,13 +4889,13 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5033,7 +4910,7 @@
         <v>0.0449438202247191</v>
       </c>
       <c r="D2" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5048,7 +4925,7 @@
         <v>0.07865168539325842</v>
       </c>
       <c r="D3" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5063,7 +4940,7 @@
         <v>0.08426966292134831</v>
       </c>
       <c r="D4" t="s">
-        <v>670</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5078,7 +4955,7 @@
         <v>0.0898876404494382</v>
       </c>
       <c r="D5" t="s">
-        <v>669</v>
+        <v>645</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5093,7 +4970,7 @@
         <v>0.09550561797752809</v>
       </c>
       <c r="D6" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5108,7 +4985,7 @@
         <v>0.09550561797752809</v>
       </c>
       <c r="D7" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5123,7 +5000,7 @@
         <v>0.1179775280898876</v>
       </c>
       <c r="D8" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5138,7 +5015,7 @@
         <v>0.151685393258427</v>
       </c>
       <c r="D9" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5153,7 +5030,7 @@
         <v>0.151685393258427</v>
       </c>
       <c r="D10" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5168,7 +5045,7 @@
         <v>0.1685393258426966</v>
       </c>
       <c r="D11" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -5195,13 +5072,13 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5216,7 +5093,7 @@
         <v>0.4550561797752809</v>
       </c>
       <c r="D2" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5231,7 +5108,7 @@
         <v>0.3651685393258427</v>
       </c>
       <c r="D3" t="s">
-        <v>684</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5246,7 +5123,7 @@
         <v>0.3370786516853932</v>
       </c>
       <c r="D4" t="s">
-        <v>685</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5261,7 +5138,7 @@
         <v>0.3202247191011236</v>
       </c>
       <c r="D5" t="s">
-        <v>686</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5276,7 +5153,7 @@
         <v>0.2022471910112359</v>
       </c>
       <c r="D6" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5291,7 +5168,7 @@
         <v>0.1910112359550562</v>
       </c>
       <c r="D7" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5306,7 +5183,7 @@
         <v>0.1067415730337079</v>
       </c>
       <c r="D8" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5321,7 +5198,7 @@
         <v>0.09550561797752809</v>
       </c>
       <c r="D9" t="s">
-        <v>690</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5336,7 +5213,7 @@
         <v>0.09550561797752809</v>
       </c>
       <c r="D10" t="s">
-        <v>691</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5351,7 +5228,7 @@
         <v>0.0898876404494382</v>
       </c>
       <c r="D11" t="s">
-        <v>692</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5366,7 +5243,7 @@
         <v>0.06741573033707865</v>
       </c>
       <c r="D12" t="s">
-        <v>693</v>
+        <v>667</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5381,7 +5258,7 @@
         <v>0.06741573033707865</v>
       </c>
       <c r="D13" t="s">
-        <v>694</v>
+        <v>668</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5396,7 +5273,7 @@
         <v>0.06741573033707865</v>
       </c>
       <c r="D14" t="s">
-        <v>695</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5411,7 +5288,7 @@
         <v>0.06179775280898876</v>
       </c>
       <c r="D15" t="s">
-        <v>696</v>
+        <v>670</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5426,7 +5303,7 @@
         <v>0.06179775280898876</v>
       </c>
       <c r="D16" t="s">
-        <v>697</v>
+        <v>671</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5441,7 +5318,7 @@
         <v>0.05056179775280899</v>
       </c>
       <c r="D17" t="s">
-        <v>698</v>
+        <v>672</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5456,7 +5333,7 @@
         <v>0.05056179775280899</v>
       </c>
       <c r="D18" t="s">
-        <v>699</v>
+        <v>673</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5471,7 +5348,7 @@
         <v>0.0449438202247191</v>
       </c>
       <c r="D19" t="s">
-        <v>700</v>
+        <v>674</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5486,7 +5363,7 @@
         <v>0.03932584269662921</v>
       </c>
       <c r="D20" t="s">
-        <v>701</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5501,7 +5378,7 @@
         <v>0.03370786516853932</v>
       </c>
       <c r="D21" t="s">
-        <v>702</v>
+        <v>676</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5516,7 +5393,7 @@
         <v>0.03370786516853932</v>
       </c>
       <c r="D22" t="s">
-        <v>703</v>
+        <v>677</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5531,7 +5408,7 @@
         <v>0.03370786516853932</v>
       </c>
       <c r="D23" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5546,7 +5423,7 @@
         <v>0.03370786516853932</v>
       </c>
       <c r="D24" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5561,7 +5438,7 @@
         <v>0.03370786516853932</v>
       </c>
       <c r="D25" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5576,7 +5453,7 @@
         <v>0.02808988764044944</v>
       </c>
       <c r="D26" t="s">
-        <v>705</v>
+        <v>679</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5591,7 +5468,7 @@
         <v>0.02808988764044944</v>
       </c>
       <c r="D27" t="s">
-        <v>706</v>
+        <v>680</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5606,7 +5483,7 @@
         <v>0.02247191011235955</v>
       </c>
       <c r="D28" t="s">
-        <v>707</v>
+        <v>681</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5621,7 +5498,7 @@
         <v>0.02247191011235955</v>
       </c>
       <c r="D29" t="s">
-        <v>708</v>
+        <v>682</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5636,7 +5513,7 @@
         <v>0.01685393258426966</v>
       </c>
       <c r="D30" t="s">
-        <v>709</v>
+        <v>683</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5651,7 +5528,7 @@
         <v>0.01123595505617977</v>
       </c>
       <c r="D31" t="s">
-        <v>710</v>
+        <v>684</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5666,7 +5543,7 @@
         <v>0.01123595505617977</v>
       </c>
       <c r="D32" t="s">
-        <v>711</v>
+        <v>685</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5702,13 +5579,13 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5723,7 +5600,7 @@
         <v>0.0898876404494382</v>
       </c>
       <c r="D2" t="s">
-        <v>692</v>
+        <v>666</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5738,7 +5615,7 @@
         <v>0.09550561797752809</v>
       </c>
       <c r="D3" t="s">
-        <v>691</v>
+        <v>665</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5753,7 +5630,7 @@
         <v>0.09550561797752809</v>
       </c>
       <c r="D4" t="s">
-        <v>690</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5768,7 +5645,7 @@
         <v>0.1067415730337079</v>
       </c>
       <c r="D5" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5783,7 +5660,7 @@
         <v>0.1910112359550562</v>
       </c>
       <c r="D6" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5798,7 +5675,7 @@
         <v>0.2022471910112359</v>
       </c>
       <c r="D7" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5813,7 +5690,7 @@
         <v>0.3202247191011236</v>
       </c>
       <c r="D8" t="s">
-        <v>686</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5828,7 +5705,7 @@
         <v>0.3370786516853932</v>
       </c>
       <c r="D9" t="s">
-        <v>685</v>
+        <v>659</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5843,7 +5720,7 @@
         <v>0.3651685393258427</v>
       </c>
       <c r="D10" t="s">
-        <v>684</v>
+        <v>658</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5858,7 +5735,7 @@
         <v>0.4550561797752809</v>
       </c>
       <c r="D11" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -5885,13 +5762,13 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5906,7 +5783,7 @@
         <v>0.2191011235955056</v>
       </c>
       <c r="D2" t="s">
-        <v>712</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5921,7 +5798,7 @@
         <v>0.1573033707865168</v>
       </c>
       <c r="D3" t="s">
-        <v>713</v>
+        <v>687</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5936,7 +5813,7 @@
         <v>0.1573033707865168</v>
       </c>
       <c r="D4" t="s">
-        <v>714</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5951,7 +5828,7 @@
         <v>0.151685393258427</v>
       </c>
       <c r="D5" t="s">
-        <v>715</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5966,7 +5843,7 @@
         <v>0.1235955056179775</v>
       </c>
       <c r="D6" t="s">
-        <v>716</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5981,7 +5858,7 @@
         <v>0.1179775280898876</v>
       </c>
       <c r="D7" t="s">
-        <v>717</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5996,7 +5873,7 @@
         <v>0.06741573033707865</v>
       </c>
       <c r="D8" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -6017,13 +5894,13 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6038,7 +5915,7 @@
         <v>0.06741573033707865</v>
       </c>
       <c r="D2" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6053,7 +5930,7 @@
         <v>0.1179775280898876</v>
       </c>
       <c r="D3" t="s">
-        <v>717</v>
+        <v>691</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6068,7 +5945,7 @@
         <v>0.1235955056179775</v>
       </c>
       <c r="D4" t="s">
-        <v>716</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6083,7 +5960,7 @@
         <v>0.151685393258427</v>
       </c>
       <c r="D5" t="s">
-        <v>715</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6098,7 +5975,7 @@
         <v>0.1573033707865168</v>
       </c>
       <c r="D6" t="s">
-        <v>714</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6113,7 +5990,7 @@
         <v>0.1573033707865168</v>
       </c>
       <c r="D7" t="s">
-        <v>713</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6128,7 +6005,7 @@
         <v>0.2191011235955056</v>
       </c>
       <c r="D8" t="s">
-        <v>712</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -6155,13 +6032,13 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6176,7 +6053,7 @@
         <v>0.3651685393258427</v>
       </c>
       <c r="D2" t="s">
-        <v>719</v>
+        <v>693</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6191,7 +6068,7 @@
         <v>0.2359550561797753</v>
       </c>
       <c r="D3" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6206,7 +6083,7 @@
         <v>0.2191011235955056</v>
       </c>
       <c r="D4" t="s">
-        <v>721</v>
+        <v>695</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6221,7 +6098,7 @@
         <v>0.1966292134831461</v>
       </c>
       <c r="D5" t="s">
-        <v>722</v>
+        <v>696</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6236,7 +6113,7 @@
         <v>0.1910112359550562</v>
       </c>
       <c r="D6" t="s">
-        <v>723</v>
+        <v>697</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6251,7 +6128,7 @@
         <v>0.1629213483146068</v>
       </c>
       <c r="D7" t="s">
-        <v>724</v>
+        <v>698</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6266,7 +6143,7 @@
         <v>0.1123595505617977</v>
       </c>
       <c r="D8" t="s">
-        <v>725</v>
+        <v>699</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6281,7 +6158,7 @@
         <v>0.101123595505618</v>
       </c>
       <c r="D9" t="s">
-        <v>726</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6296,7 +6173,7 @@
         <v>0.101123595505618</v>
       </c>
       <c r="D10" t="s">
-        <v>727</v>
+        <v>701</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6311,7 +6188,7 @@
         <v>0.06179775280898876</v>
       </c>
       <c r="D11" t="s">
-        <v>728</v>
+        <v>702</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6326,7 +6203,7 @@
         <v>0.05617977528089887</v>
       </c>
       <c r="D12" t="s">
-        <v>729</v>
+        <v>703</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6341,7 +6218,7 @@
         <v>0.03932584269662921</v>
       </c>
       <c r="D13" t="s">
-        <v>730</v>
+        <v>704</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6356,7 +6233,7 @@
         <v>0.03370786516853932</v>
       </c>
       <c r="D14" t="s">
-        <v>731</v>
+        <v>705</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6371,7 +6248,7 @@
         <v>0.02808988764044944</v>
       </c>
       <c r="D15" t="s">
-        <v>732</v>
+        <v>706</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6386,7 +6263,7 @@
         <v>0.02808988764044944</v>
       </c>
       <c r="D16" t="s">
-        <v>733</v>
+        <v>707</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6401,7 +6278,7 @@
         <v>0.02808988764044944</v>
       </c>
       <c r="D17" t="s">
-        <v>734</v>
+        <v>708</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6416,7 +6293,7 @@
         <v>0.02808988764044944</v>
       </c>
       <c r="D18" t="s">
-        <v>735</v>
+        <v>709</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6431,7 +6308,7 @@
         <v>0.02808988764044944</v>
       </c>
       <c r="D19" t="s">
-        <v>736</v>
+        <v>710</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6446,7 +6323,7 @@
         <v>0.01685393258426966</v>
       </c>
       <c r="D20" t="s">
-        <v>737</v>
+        <v>711</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6461,7 +6338,7 @@
         <v>0.01685393258426966</v>
       </c>
       <c r="D21" t="s">
-        <v>738</v>
+        <v>712</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6476,7 +6353,7 @@
         <v>0.01123595505617977</v>
       </c>
       <c r="D22" t="s">
-        <v>739</v>
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -6497,13 +6374,13 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6518,7 +6395,7 @@
         <v>0.06179775280898876</v>
       </c>
       <c r="D2" t="s">
-        <v>728</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6533,7 +6410,7 @@
         <v>0.101123595505618</v>
       </c>
       <c r="D3" t="s">
-        <v>727</v>
+        <v>701</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6548,7 +6425,7 @@
         <v>0.101123595505618</v>
       </c>
       <c r="D4" t="s">
-        <v>726</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6563,7 +6440,7 @@
         <v>0.1123595505617977</v>
       </c>
       <c r="D5" t="s">
-        <v>725</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6578,7 +6455,7 @@
         <v>0.1629213483146068</v>
       </c>
       <c r="D6" t="s">
-        <v>724</v>
+        <v>698</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6593,7 +6470,7 @@
         <v>0.1910112359550562</v>
       </c>
       <c r="D7" t="s">
-        <v>723</v>
+        <v>697</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6608,7 +6485,7 @@
         <v>0.1966292134831461</v>
       </c>
       <c r="D8" t="s">
-        <v>722</v>
+        <v>696</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6623,7 +6500,7 @@
         <v>0.2191011235955056</v>
       </c>
       <c r="D9" t="s">
-        <v>721</v>
+        <v>695</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6638,7 +6515,7 @@
         <v>0.2359550561797753</v>
       </c>
       <c r="D10" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6653,7 +6530,7 @@
         <v>0.3651685393258427</v>
       </c>
       <c r="D11" t="s">
-        <v>719</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -6736,19 +6613,16 @@
         <v>226</v>
       </c>
       <c r="E2" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="F2" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="G2" t="s">
-        <v>371</v>
-      </c>
-      <c r="H2" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="I2" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J2">
         <v>300</v>
@@ -6768,19 +6642,16 @@
         <v>227</v>
       </c>
       <c r="E3" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="F3" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="G3" t="s">
-        <v>372</v>
-      </c>
-      <c r="H3" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="I3" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J3">
         <v>40</v>
@@ -6800,19 +6671,19 @@
         <v>228</v>
       </c>
       <c r="E4" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F4" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G4" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="H4" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="I4" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J4">
         <v>132</v>
@@ -6832,19 +6703,19 @@
         <v>229</v>
       </c>
       <c r="E5" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F5" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G5" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="H5" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="I5" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="J5">
         <v>4000</v>
@@ -6860,23 +6731,14 @@
       <c r="C6" t="s">
         <v>217</v>
       </c>
-      <c r="D6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E6" t="s">
-        <v>302</v>
-      </c>
       <c r="F6" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="G6" t="s">
-        <v>375</v>
-      </c>
-      <c r="H6" t="s">
-        <v>302</v>
+        <v>354</v>
       </c>
       <c r="I6" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J6">
         <v>20</v>
@@ -6893,22 +6755,22 @@
         <v>215</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E7" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="F7" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="G7" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="H7" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="I7" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="J7">
         <v>3700</v>
@@ -6925,22 +6787,22 @@
         <v>215</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E8" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="F8" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="G8" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="H8" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="I8" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J8">
         <v>800</v>
@@ -6957,22 +6819,22 @@
         <v>215</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E9" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="F9" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G9" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="H9" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="I9" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J9">
         <v>30000</v>
@@ -6989,22 +6851,22 @@
         <v>215</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E10" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F10" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G10" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="H10" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="I10" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J10">
         <v>7000</v>
@@ -7021,22 +6883,19 @@
         <v>218</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E11" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="F11" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="G11" t="s">
-        <v>380</v>
-      </c>
-      <c r="H11" t="s">
-        <v>302</v>
+        <v>359</v>
       </c>
       <c r="I11" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7052,23 +6911,17 @@
       <c r="C12" t="s">
         <v>215</v>
       </c>
-      <c r="D12" t="s">
-        <v>230</v>
-      </c>
       <c r="E12" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="F12" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="G12" t="s">
-        <v>381</v>
-      </c>
-      <c r="H12" t="s">
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="I12" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -7085,22 +6938,22 @@
         <v>215</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E13" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="F13" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="G13" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="H13" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="I13" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -7117,22 +6970,22 @@
         <v>215</v>
       </c>
       <c r="D14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E14" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="F14" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="G14" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="H14" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="I14" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J14">
         <v>23</v>
@@ -7149,22 +7002,19 @@
         <v>215</v>
       </c>
       <c r="D15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E15" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F15" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="G15" t="s">
-        <v>383</v>
-      </c>
-      <c r="H15" t="s">
-        <v>302</v>
+        <v>362</v>
       </c>
       <c r="I15" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J15">
         <v>95</v>
@@ -7181,22 +7031,19 @@
         <v>215</v>
       </c>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E16" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="F16" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="G16" t="s">
-        <v>383</v>
-      </c>
-      <c r="H16" t="s">
-        <v>302</v>
+        <v>362</v>
       </c>
       <c r="I16" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="J16">
         <v>3034</v>
@@ -7213,22 +7060,19 @@
         <v>215</v>
       </c>
       <c r="D17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E17" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F17" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="G17" t="s">
-        <v>384</v>
-      </c>
-      <c r="H17" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
       <c r="I17" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="J17">
         <v>4312</v>
@@ -7245,22 +7089,19 @@
         <v>215</v>
       </c>
       <c r="D18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E18" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="F18" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="G18" t="s">
-        <v>371</v>
-      </c>
-      <c r="H18" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="I18" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J18">
         <v>627</v>
@@ -7277,22 +7118,22 @@
         <v>217</v>
       </c>
       <c r="D19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E19" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="F19" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G19" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="H19" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="I19" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J19">
         <v>24</v>
@@ -7308,23 +7149,17 @@
       <c r="C20" t="s">
         <v>217</v>
       </c>
-      <c r="D20" t="s">
-        <v>230</v>
-      </c>
       <c r="E20" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="F20" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="G20" t="s">
-        <v>383</v>
-      </c>
-      <c r="H20" t="s">
-        <v>302</v>
+        <v>362</v>
       </c>
       <c r="I20" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -7341,22 +7176,19 @@
         <v>217</v>
       </c>
       <c r="D21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E21" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="F21" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="G21" t="s">
-        <v>386</v>
-      </c>
-      <c r="H21" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="I21" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -7373,22 +7205,19 @@
         <v>217</v>
       </c>
       <c r="D22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E22" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="F22" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="G22" t="s">
-        <v>387</v>
-      </c>
-      <c r="H22" t="s">
-        <v>302</v>
+        <v>366</v>
       </c>
       <c r="I22" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -7405,22 +7234,22 @@
         <v>215</v>
       </c>
       <c r="D23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E23" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="F23" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G23" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="H23" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="I23" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="J23">
         <v>1004</v>
@@ -7436,23 +7265,17 @@
       <c r="C24" t="s">
         <v>219</v>
       </c>
-      <c r="D24" t="s">
-        <v>230</v>
-      </c>
       <c r="E24" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="F24" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="G24" t="s">
-        <v>389</v>
-      </c>
-      <c r="H24" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
       <c r="I24" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -7469,22 +7292,22 @@
         <v>215</v>
       </c>
       <c r="D25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E25" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="F25" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G25" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="H25" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="I25" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="J25">
         <v>3864</v>
@@ -7501,22 +7324,22 @@
         <v>217</v>
       </c>
       <c r="D26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E26" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="F26" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G26" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="H26" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="I26" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J26">
         <v>16445</v>
@@ -7532,20 +7355,11 @@
       <c r="C27" t="s">
         <v>217</v>
       </c>
-      <c r="D27" t="s">
-        <v>230</v>
-      </c>
       <c r="E27" t="s">
-        <v>313</v>
-      </c>
-      <c r="F27" t="s">
-        <v>353</v>
-      </c>
-      <c r="H27" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I27" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J27">
         <v>800</v>
@@ -7561,23 +7375,17 @@
       <c r="C28" t="s">
         <v>215</v>
       </c>
-      <c r="D28" t="s">
-        <v>230</v>
-      </c>
       <c r="E28" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="F28" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="G28" t="s">
-        <v>392</v>
-      </c>
-      <c r="H28" t="s">
-        <v>302</v>
+        <v>371</v>
       </c>
       <c r="I28" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J28">
         <v>900</v>
@@ -7593,23 +7401,17 @@
       <c r="C29" t="s">
         <v>217</v>
       </c>
-      <c r="D29" t="s">
-        <v>230</v>
-      </c>
       <c r="E29" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="F29" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="G29" t="s">
-        <v>386</v>
-      </c>
-      <c r="H29" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="I29" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="J29">
         <v>1200</v>
@@ -7626,22 +7428,22 @@
         <v>215</v>
       </c>
       <c r="D30" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E30" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="F30" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="G30" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="H30" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="I30" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J30">
         <v>400</v>
@@ -7658,22 +7460,22 @@
         <v>220</v>
       </c>
       <c r="D31" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E31" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="F31" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="G31" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="H31" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="I31" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J31">
         <v>30</v>
@@ -7690,19 +7492,19 @@
         <v>221</v>
       </c>
       <c r="D32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E32" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F32" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="H32" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="I32" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -7718,23 +7520,17 @@
       <c r="C33" t="s">
         <v>219</v>
       </c>
-      <c r="D33" t="s">
-        <v>230</v>
-      </c>
       <c r="E33" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="F33" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="G33" t="s">
-        <v>395</v>
-      </c>
-      <c r="H33" t="s">
-        <v>302</v>
+        <v>374</v>
       </c>
       <c r="I33" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J33">
         <v>23</v>
@@ -7750,23 +7546,14 @@
       <c r="C34" t="s">
         <v>217</v>
       </c>
-      <c r="D34" t="s">
-        <v>230</v>
-      </c>
-      <c r="E34" t="s">
-        <v>302</v>
-      </c>
       <c r="F34" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="G34" t="s">
-        <v>396</v>
-      </c>
-      <c r="H34" t="s">
-        <v>302</v>
+        <v>375</v>
       </c>
       <c r="I34" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -7782,23 +7569,17 @@
       <c r="C35" t="s">
         <v>221</v>
       </c>
-      <c r="D35" t="s">
-        <v>230</v>
-      </c>
       <c r="E35" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="F35" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="G35" t="s">
-        <v>386</v>
-      </c>
-      <c r="H35" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="I35" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J35">
         <v>95</v>
@@ -7815,22 +7596,22 @@
         <v>222</v>
       </c>
       <c r="D36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E36" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F36" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="G36" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="H36" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="I36" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J36">
         <v>83000</v>
@@ -7847,22 +7628,22 @@
         <v>222</v>
       </c>
       <c r="D37" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E37" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="F37" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="G37" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="H37" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="I37" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J37">
         <v>960</v>
@@ -7879,22 +7660,22 @@
         <v>215</v>
       </c>
       <c r="D38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E38" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F38" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="G38" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="H38" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="I38" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="J38">
         <v>1050</v>
@@ -7911,22 +7692,22 @@
         <v>220</v>
       </c>
       <c r="D39" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E39" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F39" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="G39" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="H39" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="I39" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J39">
         <v>500</v>
@@ -7942,23 +7723,17 @@
       <c r="C40" t="s">
         <v>219</v>
       </c>
-      <c r="D40" t="s">
-        <v>230</v>
-      </c>
       <c r="E40" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="F40" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="G40" t="s">
-        <v>386</v>
-      </c>
-      <c r="H40" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="I40" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J40">
         <v>500</v>
@@ -7975,22 +7750,22 @@
         <v>215</v>
       </c>
       <c r="D41" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="E41" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F41" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G41" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="H41" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="I41" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J41">
         <v>11200</v>
@@ -8007,22 +7782,22 @@
         <v>215</v>
       </c>
       <c r="D42" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E42" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="F42" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G42" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="H42" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="I42" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J42">
         <v>7200</v>
@@ -8039,22 +7814,19 @@
         <v>215</v>
       </c>
       <c r="D43" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E43" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="F43" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="G43" t="s">
-        <v>392</v>
-      </c>
-      <c r="H43" t="s">
-        <v>302</v>
+        <v>371</v>
       </c>
       <c r="I43" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J43">
         <v>400</v>
@@ -8071,22 +7843,19 @@
         <v>217</v>
       </c>
       <c r="D44" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E44" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="F44" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="G44" t="s">
-        <v>392</v>
-      </c>
-      <c r="H44" t="s">
-        <v>302</v>
+        <v>371</v>
       </c>
       <c r="I44" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J44">
         <v>700</v>
@@ -8103,22 +7872,22 @@
         <v>215</v>
       </c>
       <c r="D45" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E45" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F45" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G45" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="H45" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="I45" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="J45">
         <v>2400</v>
@@ -8134,23 +7903,14 @@
       <c r="C46" t="s">
         <v>219</v>
       </c>
-      <c r="D46" t="s">
-        <v>230</v>
-      </c>
-      <c r="E46" t="s">
-        <v>302</v>
-      </c>
       <c r="F46" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="G46" t="s">
-        <v>389</v>
-      </c>
-      <c r="H46" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
       <c r="I46" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J46">
         <v>50</v>
@@ -8167,22 +7927,22 @@
         <v>215</v>
       </c>
       <c r="D47" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E47" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="F47" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G47" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="H47" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="I47" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J47">
         <v>150</v>
@@ -8199,22 +7959,19 @@
         <v>215</v>
       </c>
       <c r="D48" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E48" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="F48" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G48" t="s">
-        <v>405</v>
-      </c>
-      <c r="H48" t="s">
-        <v>302</v>
+        <v>384</v>
       </c>
       <c r="I48" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J48">
         <v>100</v>
@@ -8234,19 +7991,19 @@
         <v>228</v>
       </c>
       <c r="E49" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F49" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G49" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="H49" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="I49" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="J49">
         <v>2050</v>
@@ -8263,22 +8020,22 @@
         <v>221</v>
       </c>
       <c r="D50" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E50" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="F50" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G50" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="H50" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="I50" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J50">
         <v>660</v>
@@ -8295,22 +8052,22 @@
         <v>223</v>
       </c>
       <c r="D51" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E51" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="F51" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G51" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="H51" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="I51" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J51">
         <v>500</v>
@@ -8327,22 +8084,22 @@
         <v>222</v>
       </c>
       <c r="D52" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E52" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F52" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="G52" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="H52" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="I52" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J52">
         <v>800</v>
@@ -8359,22 +8116,22 @@
         <v>215</v>
       </c>
       <c r="D53" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E53" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F53" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="G53" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="H53" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="I53" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="J53">
         <v>3000</v>
@@ -8391,22 +8148,19 @@
         <v>222</v>
       </c>
       <c r="D54" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E54" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="F54" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="G54" t="s">
-        <v>371</v>
-      </c>
-      <c r="H54" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="I54" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J54">
         <v>1000</v>
@@ -8423,22 +8177,22 @@
         <v>223</v>
       </c>
       <c r="D55" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E55" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="F55" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="G55" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="H55" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="I55" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="J55">
         <v>2000</v>
@@ -8455,22 +8209,22 @@
         <v>215</v>
       </c>
       <c r="D56" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="E56" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="F56" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="G56" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="H56" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="I56" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="J56">
         <v>2000</v>
@@ -8487,22 +8241,19 @@
         <v>222</v>
       </c>
       <c r="D57" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E57" t="s">
-        <v>301</v>
-      </c>
-      <c r="F57" t="s">
-        <v>360</v>
+        <v>285</v>
       </c>
       <c r="G57" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="H57" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="I57" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J57">
         <v>670</v>
@@ -8519,19 +8270,16 @@
         <v>215</v>
       </c>
       <c r="D58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E58" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="F58" t="s">
-        <v>346</v>
-      </c>
-      <c r="H58" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="I58" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="J58">
         <v>2750</v>
@@ -8551,19 +8299,19 @@
         <v>229</v>
       </c>
       <c r="E59" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="F59" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="G59" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="H59" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="I59" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="J59">
         <v>2000</v>
@@ -8580,22 +8328,22 @@
         <v>222</v>
       </c>
       <c r="D60" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="E60" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F60" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="G60" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="H60" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="I60" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J60">
         <v>6000</v>
@@ -8612,22 +8360,22 @@
         <v>216</v>
       </c>
       <c r="D61" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E61" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="F61" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="G61" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="H61" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="I61" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="J61">
         <v>5000</v>
@@ -8644,22 +8392,22 @@
         <v>220</v>
       </c>
       <c r="D62" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E62" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F62" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="G62" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="H62" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="I62" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="J62">
         <v>1250</v>
@@ -8676,22 +8424,22 @@
         <v>215</v>
       </c>
       <c r="D63" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E63" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F63" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="G63" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="H63" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="I63" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J63">
         <v>227</v>
@@ -8711,19 +8459,19 @@
         <v>229</v>
       </c>
       <c r="E64" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="F64" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="G64" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="H64" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="I64" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J64">
         <v>15000</v>
@@ -8740,22 +8488,22 @@
         <v>224</v>
       </c>
       <c r="D65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E65" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F65" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G65" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="H65" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="I65" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="J65">
         <v>3034</v>
@@ -8772,22 +8520,22 @@
         <v>215</v>
       </c>
       <c r="D66" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E66" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="F66" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="G66" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="H66" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="I66" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J66">
         <v>120</v>
@@ -8804,22 +8552,22 @@
         <v>215</v>
       </c>
       <c r="D67" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="E67" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F67" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="G67" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="H67" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="I67" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="J67">
         <v>2000</v>
@@ -8836,22 +8584,22 @@
         <v>215</v>
       </c>
       <c r="D68" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="E68" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F68" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G68" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="H68" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="I68" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="J68">
         <v>4312</v>
@@ -8868,22 +8616,22 @@
         <v>215</v>
       </c>
       <c r="D69" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="E69" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F69" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G69" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="H69" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="I69" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J69">
         <v>627</v>
@@ -8900,22 +8648,19 @@
         <v>223</v>
       </c>
       <c r="D70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E70" t="s">
-        <v>327</v>
-      </c>
-      <c r="F70" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="G70" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="H70" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="I70" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J70">
         <v>300</v>
@@ -8932,22 +8677,19 @@
         <v>215</v>
       </c>
       <c r="D71" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E71" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="F71" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G71" t="s">
-        <v>405</v>
-      </c>
-      <c r="H71" t="s">
-        <v>302</v>
+        <v>384</v>
       </c>
       <c r="I71" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J71">
         <v>108</v>
@@ -8964,22 +8706,19 @@
         <v>217</v>
       </c>
       <c r="D72" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E72" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="F72" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="G72" t="s">
-        <v>418</v>
-      </c>
-      <c r="H72" t="s">
-        <v>302</v>
+        <v>397</v>
       </c>
       <c r="I72" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J72">
         <v>488</v>
@@ -8995,23 +8734,14 @@
       <c r="C73" t="s">
         <v>215</v>
       </c>
-      <c r="D73" t="s">
-        <v>230</v>
-      </c>
       <c r="E73" t="s">
-        <v>313</v>
-      </c>
-      <c r="F73" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="G73" t="s">
-        <v>425</v>
-      </c>
-      <c r="H73" t="s">
-        <v>302</v>
+        <v>404</v>
       </c>
       <c r="I73" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J73">
         <v>10</v>
@@ -9027,20 +8757,14 @@
       <c r="C74" t="s">
         <v>215</v>
       </c>
-      <c r="D74" t="s">
-        <v>230</v>
-      </c>
       <c r="E74" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="F74" t="s">
-        <v>364</v>
-      </c>
-      <c r="H74" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="I74" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J74">
         <v>60</v>
@@ -9057,19 +8781,16 @@
         <v>221</v>
       </c>
       <c r="D75" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E75" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="F75" t="s">
-        <v>358</v>
-      </c>
-      <c r="H75" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="I75" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J75">
         <v>16360</v>
@@ -9085,23 +8806,17 @@
       <c r="C76" t="s">
         <v>219</v>
       </c>
-      <c r="D76" t="s">
-        <v>230</v>
-      </c>
       <c r="E76" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="F76" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="G76" t="s">
-        <v>426</v>
-      </c>
-      <c r="H76" t="s">
-        <v>302</v>
+        <v>405</v>
       </c>
       <c r="I76" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J76">
         <v>24</v>
@@ -9117,23 +8832,14 @@
       <c r="C77" t="s">
         <v>219</v>
       </c>
-      <c r="D77" t="s">
-        <v>230</v>
-      </c>
-      <c r="E77" t="s">
-        <v>302</v>
-      </c>
       <c r="F77" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="G77" t="s">
-        <v>386</v>
-      </c>
-      <c r="H77" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="I77" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -9150,22 +8856,22 @@
         <v>215</v>
       </c>
       <c r="D78" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E78" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F78" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="G78" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="H78" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="I78" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="J78">
         <v>2000</v>
@@ -9185,19 +8891,19 @@
         <v>228</v>
       </c>
       <c r="E79" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F79" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="G79" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="H79" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="I79" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="J79">
         <v>2025</v>
@@ -9214,22 +8920,22 @@
         <v>215</v>
       </c>
       <c r="D80" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E80" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F80" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="G80" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="H80" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="I80" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J80">
         <v>10000</v>
@@ -9246,19 +8952,16 @@
         <v>217</v>
       </c>
       <c r="D81" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E81" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="F81" t="s">
-        <v>351</v>
-      </c>
-      <c r="H81" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="I81" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J81">
         <v>100</v>
@@ -9275,22 +8978,22 @@
         <v>215</v>
       </c>
       <c r="D82" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E82" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F82" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="G82" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="H82" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="I82" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J82">
         <v>150</v>
@@ -9307,22 +9010,22 @@
         <v>215</v>
       </c>
       <c r="D83" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E83" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F83" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G83" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="H83" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="I83" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J83">
         <v>250</v>
@@ -9339,22 +9042,19 @@
         <v>215</v>
       </c>
       <c r="D84" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="E84" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="F84" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G84" t="s">
-        <v>431</v>
-      </c>
-      <c r="H84" t="s">
-        <v>302</v>
+        <v>410</v>
       </c>
       <c r="I84" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J84">
         <v>20</v>
@@ -9371,22 +9071,19 @@
         <v>217</v>
       </c>
       <c r="D85" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E85" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="F85" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="G85" t="s">
-        <v>418</v>
-      </c>
-      <c r="H85" t="s">
-        <v>302</v>
+        <v>397</v>
       </c>
       <c r="I85" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J85">
         <v>341</v>
@@ -9403,22 +9100,19 @@
         <v>217</v>
       </c>
       <c r="D86" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E86" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="F86" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="G86" t="s">
-        <v>418</v>
-      </c>
-      <c r="H86" t="s">
-        <v>302</v>
+        <v>397</v>
       </c>
       <c r="I86" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J86">
         <v>285</v>
@@ -9435,22 +9129,19 @@
         <v>219</v>
       </c>
       <c r="D87" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E87" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="F87" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="G87" t="s">
-        <v>432</v>
-      </c>
-      <c r="H87" t="s">
-        <v>302</v>
+        <v>411</v>
       </c>
       <c r="I87" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J87">
         <v>187</v>
@@ -9470,19 +9161,16 @@
         <v>229</v>
       </c>
       <c r="E88" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="F88" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="G88" t="s">
-        <v>433</v>
-      </c>
-      <c r="H88" t="s">
-        <v>302</v>
+        <v>412</v>
       </c>
       <c r="I88" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J88">
         <v>206</v>
@@ -9499,22 +9187,22 @@
         <v>215</v>
       </c>
       <c r="D89" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E89" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F89" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G89" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="H89" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="I89" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J89">
         <v>750</v>
@@ -9531,22 +9219,22 @@
         <v>222</v>
       </c>
       <c r="D90" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E90" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="F90" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G90" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="H90" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="I90" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J90">
         <v>650</v>
@@ -9566,19 +9254,19 @@
         <v>229</v>
       </c>
       <c r="E91" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="F91" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="G91" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="H91" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="I91" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="J91">
         <v>4800</v>
@@ -9595,22 +9283,22 @@
         <v>215</v>
       </c>
       <c r="D92" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E92" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F92" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="G92" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="H92" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="I92" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J92">
         <v>200</v>
@@ -9627,22 +9315,19 @@
         <v>217</v>
       </c>
       <c r="D93" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E93" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="F93" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="G93" t="s">
-        <v>433</v>
-      </c>
-      <c r="H93" t="s">
-        <v>302</v>
+        <v>412</v>
       </c>
       <c r="I93" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -9659,22 +9344,22 @@
         <v>215</v>
       </c>
       <c r="D94" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E94" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="F94" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G94" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="H94" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="I94" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="J94">
         <v>1800</v>
@@ -9691,22 +9376,19 @@
         <v>221</v>
       </c>
       <c r="D95" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E95" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="F95" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="G95" t="s">
-        <v>392</v>
-      </c>
-      <c r="H95" t="s">
-        <v>302</v>
+        <v>371</v>
       </c>
       <c r="I95" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J95">
         <v>760</v>
@@ -9723,22 +9405,22 @@
         <v>221</v>
       </c>
       <c r="D96" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E96" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F96" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G96" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="H96" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="I96" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="J96">
         <v>5000</v>
@@ -9755,22 +9437,22 @@
         <v>222</v>
       </c>
       <c r="D97" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="E97" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F97" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="G97" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="H97" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="I97" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J97">
         <v>1000</v>
@@ -9787,22 +9469,22 @@
         <v>223</v>
       </c>
       <c r="D98" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="E98" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F98" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="G98" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="H98" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="I98" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J98">
         <v>980</v>
@@ -9819,22 +9501,22 @@
         <v>215</v>
       </c>
       <c r="D99" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E99" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F99" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="G99" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="H99" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="I99" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J99">
         <v>7000</v>
@@ -9851,22 +9533,22 @@
         <v>215</v>
       </c>
       <c r="D100" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="E100" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F100" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="G100" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="H100" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="I100" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J100">
         <v>100000</v>
@@ -9886,19 +9568,19 @@
         <v>229</v>
       </c>
       <c r="E101" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F101" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G101" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="H101" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="I101" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J101">
         <v>240</v>
@@ -9915,22 +9597,22 @@
         <v>223</v>
       </c>
       <c r="D102" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E102" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F102" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="G102" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="H102" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="I102" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J102">
         <v>500</v>
@@ -9947,22 +9629,19 @@
         <v>221</v>
       </c>
       <c r="D103" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E103" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="F103" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="G103" t="s">
-        <v>386</v>
-      </c>
-      <c r="H103" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="I103" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J103">
         <v>200</v>
@@ -9979,22 +9658,22 @@
         <v>215</v>
       </c>
       <c r="D104" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E104" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="F104" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G104" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="H104" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="I104" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J104">
         <v>800</v>
@@ -10011,22 +9690,16 @@
         <v>215</v>
       </c>
       <c r="D105" t="s">
-        <v>279</v>
-      </c>
-      <c r="E105" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="F105" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="G105" t="s">
-        <v>446</v>
-      </c>
-      <c r="H105" t="s">
-        <v>302</v>
+        <v>425</v>
       </c>
       <c r="I105" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J105">
         <v>200</v>
@@ -10043,22 +9716,22 @@
         <v>221</v>
       </c>
       <c r="D106" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E106" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F106" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="G106" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="H106" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="I106" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="J106">
         <v>1235</v>
@@ -10075,22 +9748,22 @@
         <v>215</v>
       </c>
       <c r="D107" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E107" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F107" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="G107" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="H107" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="I107" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J107">
         <v>22000</v>
@@ -10107,22 +9780,22 @@
         <v>215</v>
       </c>
       <c r="D108" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E108" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F108" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G108" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="H108" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="I108" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J108">
         <v>500</v>
@@ -10139,22 +9812,22 @@
         <v>215</v>
       </c>
       <c r="D109" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E109" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="F109" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G109" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="H109" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="I109" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J109">
         <v>450</v>
@@ -10171,22 +9844,22 @@
         <v>215</v>
       </c>
       <c r="D110" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="E110" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F110" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G110" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="H110" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="I110" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J110">
         <v>400</v>
@@ -10203,22 +9876,22 @@
         <v>222</v>
       </c>
       <c r="D111" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="E111" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="F111" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G111" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="H111" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="I111" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J111">
         <v>5600</v>
@@ -10235,22 +9908,22 @@
         <v>215</v>
       </c>
       <c r="D112" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E112" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F112" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G112" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="H112" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="I112" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="J112">
         <v>1400</v>
@@ -10267,22 +9940,22 @@
         <v>222</v>
       </c>
       <c r="D113" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E113" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F113" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="G113" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="H113" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="I113" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J113">
         <v>6000</v>
@@ -10299,22 +9972,22 @@
         <v>215</v>
       </c>
       <c r="D114" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E114" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F114" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G114" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="H114" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="I114" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J114">
         <v>1000</v>
@@ -10334,19 +10007,19 @@
         <v>228</v>
       </c>
       <c r="E115" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="F115" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="G115" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="H115" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="I115" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J115">
         <v>35000</v>
@@ -10363,22 +10036,22 @@
         <v>215</v>
       </c>
       <c r="D116" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E116" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="F116" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="G116" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="H116" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="I116" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J116">
         <v>125000</v>
@@ -10395,22 +10068,22 @@
         <v>223</v>
       </c>
       <c r="D117" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E117" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F117" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="G117" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="H117" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="I117" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -10427,22 +10100,22 @@
         <v>223</v>
       </c>
       <c r="D118" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E118" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F118" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G118" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="H118" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="I118" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="J118">
         <v>2930</v>
@@ -10459,22 +10132,22 @@
         <v>215</v>
       </c>
       <c r="D119" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E119" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F119" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G119" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="H119" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="I119" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J119">
         <v>487</v>
@@ -10491,22 +10164,22 @@
         <v>222</v>
       </c>
       <c r="D120" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E120" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="F120" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G120" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="H120" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="I120" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J120">
         <v>9000</v>
@@ -10523,22 +10196,22 @@
         <v>215</v>
       </c>
       <c r="D121" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="E121" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="F121" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G121" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="H121" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="I121" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="J121">
         <v>3000</v>
@@ -10555,22 +10228,22 @@
         <v>215</v>
       </c>
       <c r="D122" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E122" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F122" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G122" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="H122" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="I122" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J122">
         <v>420</v>
@@ -10587,22 +10260,22 @@
         <v>221</v>
       </c>
       <c r="D123" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E123" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F123" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G123" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="H123" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="I123" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J123">
         <v>810</v>
@@ -10619,22 +10292,22 @@
         <v>215</v>
       </c>
       <c r="D124" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E124" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F124" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G124" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="H124" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="I124" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J124">
         <v>300</v>
@@ -10651,22 +10324,22 @@
         <v>215</v>
       </c>
       <c r="D125" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="E125" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F125" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="G125" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="H125" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="I125" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J125">
         <v>128</v>
@@ -10682,23 +10355,14 @@
       <c r="C126" t="s">
         <v>215</v>
       </c>
-      <c r="D126" t="s">
-        <v>230</v>
-      </c>
-      <c r="E126" t="s">
-        <v>302</v>
-      </c>
       <c r="F126" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="G126" t="s">
-        <v>466</v>
-      </c>
-      <c r="H126" t="s">
-        <v>302</v>
+        <v>445</v>
       </c>
       <c r="I126" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J126">
         <v>50</v>
@@ -10715,22 +10379,22 @@
         <v>223</v>
       </c>
       <c r="D127" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="E127" t="s">
+        <v>318</v>
+      </c>
+      <c r="F127" t="s">
         <v>335</v>
       </c>
-      <c r="F127" t="s">
-        <v>352</v>
-      </c>
       <c r="G127" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="H127" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="I127" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J127">
         <v>900</v>
@@ -10747,22 +10411,22 @@
         <v>222</v>
       </c>
       <c r="D128" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E128" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F128" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G128" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="H128" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="I128" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J128">
         <v>290</v>
@@ -10779,22 +10443,22 @@
         <v>222</v>
       </c>
       <c r="D129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E129" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="F129" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G129" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="H129" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="I129" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J129">
         <v>350</v>
@@ -10811,22 +10475,22 @@
         <v>221</v>
       </c>
       <c r="D130" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="E130" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F130" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G130" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="H130" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="I130" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J130">
         <v>7000</v>
@@ -10843,22 +10507,22 @@
         <v>215</v>
       </c>
       <c r="D131" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="E131" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="F131" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="G131" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="H131" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="I131" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J131">
         <v>6000</v>
@@ -10875,22 +10539,22 @@
         <v>215</v>
       </c>
       <c r="D132" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E132" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F132" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G132" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="H132" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="I132" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="J132">
         <v>1400</v>
@@ -10910,16 +10574,13 @@
         <v>229</v>
       </c>
       <c r="E133" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="F133" t="s">
-        <v>363</v>
-      </c>
-      <c r="H133" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="I133" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J133">
         <v>200</v>
@@ -10939,19 +10600,16 @@
         <v>229</v>
       </c>
       <c r="E134" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="F134" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="G134" t="s">
-        <v>386</v>
-      </c>
-      <c r="H134" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="I134" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="J134">
         <v>1721</v>
@@ -10968,22 +10626,22 @@
         <v>215</v>
       </c>
       <c r="D135" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E135" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F135" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G135" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="H135" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="I135" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="J135">
         <v>1090</v>
@@ -11000,22 +10658,22 @@
         <v>215</v>
       </c>
       <c r="D136" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E136" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F136" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G136" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="H136" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="I136" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="J136">
         <v>1200</v>
@@ -11032,22 +10690,22 @@
         <v>215</v>
       </c>
       <c r="D137" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E137" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F137" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G137" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="H137" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="I137" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="J137">
         <v>1800</v>
@@ -11064,22 +10722,22 @@
         <v>215</v>
       </c>
       <c r="D138" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="E138" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F138" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="G138" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="H138" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="I138" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J138">
         <v>105</v>
@@ -11096,22 +10754,22 @@
         <v>215</v>
       </c>
       <c r="D139" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E139" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F139" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="G139" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="H139" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="I139" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="J139">
         <v>1200</v>
@@ -11128,22 +10786,22 @@
         <v>215</v>
       </c>
       <c r="D140" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="E140" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F140" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G140" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="H140" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="I140" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="J140">
         <v>1004</v>
@@ -11160,22 +10818,22 @@
         <v>215</v>
       </c>
       <c r="D141" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E141" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="F141" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G141" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="H141" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="I141" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J141">
         <v>300</v>
@@ -11195,19 +10853,19 @@
         <v>228</v>
       </c>
       <c r="E142" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F142" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="G142" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="H142" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="I142" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="J142">
         <v>4900</v>
@@ -11227,19 +10885,19 @@
         <v>228</v>
       </c>
       <c r="E143" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F143" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G143" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="H143" t="s">
+        <v>553</v>
+      </c>
+      <c r="I143" t="s">
         <v>574</v>
-      </c>
-      <c r="I143" t="s">
-        <v>595</v>
       </c>
       <c r="J143">
         <v>448</v>
@@ -11256,22 +10914,22 @@
         <v>215</v>
       </c>
       <c r="D144" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E144" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F144" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G144" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="H144" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="I144" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="J144">
         <v>2400</v>
@@ -11288,22 +10946,22 @@
         <v>222</v>
       </c>
       <c r="D145" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E145" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F145" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="G145" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="H145" t="s">
+        <v>554</v>
+      </c>
+      <c r="I145" t="s">
         <v>575</v>
-      </c>
-      <c r="I145" t="s">
-        <v>596</v>
       </c>
       <c r="J145">
         <v>200</v>
@@ -11320,22 +10978,22 @@
         <v>215</v>
       </c>
       <c r="D146" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E146" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G146" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="H146" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="I146" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J146">
         <v>30</v>
@@ -11352,22 +11010,22 @@
         <v>215</v>
       </c>
       <c r="D147" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="E147" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G147" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="H147" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="I147" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J147">
         <v>508</v>
@@ -11384,22 +11042,22 @@
         <v>215</v>
       </c>
       <c r="D148" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E148" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="F148" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="G148" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="H148" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="I148" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="J148">
         <v>2480</v>
@@ -11416,22 +11074,22 @@
         <v>215</v>
       </c>
       <c r="D149" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E149" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F149" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G149" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="H149" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="I149" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J149">
         <v>500</v>
@@ -11448,22 +11106,16 @@
         <v>215</v>
       </c>
       <c r="D150" t="s">
-        <v>291</v>
-      </c>
-      <c r="E150" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="F150" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="G150" t="s">
-        <v>371</v>
-      </c>
-      <c r="H150" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="I150" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -11480,22 +11132,22 @@
         <v>215</v>
       </c>
       <c r="D151" t="s">
+        <v>256</v>
+      </c>
+      <c r="E151" t="s">
         <v>285</v>
       </c>
-      <c r="E151" t="s">
-        <v>301</v>
-      </c>
       <c r="F151" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="G151" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="H151" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="I151" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J151">
         <v>98</v>
@@ -11512,22 +11164,22 @@
         <v>215</v>
       </c>
       <c r="D152" t="s">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F152" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G152" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="H152" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="I152" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J152">
         <v>40</v>
@@ -11544,22 +11196,22 @@
         <v>215</v>
       </c>
       <c r="D153" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="E153" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F153" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G153" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="H153" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="I153" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J153">
         <v>900</v>
@@ -11576,22 +11228,22 @@
         <v>215</v>
       </c>
       <c r="D154" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="E154" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F154" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G154" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="H154" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="I154" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J154">
         <v>800</v>
@@ -11611,19 +11263,19 @@
         <v>228</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F155" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G155" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="H155" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="I155" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J155">
         <v>800</v>
@@ -11643,16 +11295,13 @@
         <v>229</v>
       </c>
       <c r="E156" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="F156" t="s">
-        <v>363</v>
-      </c>
-      <c r="H156" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="I156" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J156">
         <v>7361</v>
@@ -11672,19 +11321,16 @@
         <v>229</v>
       </c>
       <c r="E157" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="F157" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="G157" t="s">
-        <v>491</v>
-      </c>
-      <c r="H157" t="s">
-        <v>302</v>
+        <v>470</v>
       </c>
       <c r="I157" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="J157">
         <v>3864</v>
@@ -11704,16 +11350,13 @@
         <v>229</v>
       </c>
       <c r="E158" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="F158" t="s">
-        <v>363</v>
-      </c>
-      <c r="H158" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="I158" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J158">
         <v>619</v>
@@ -11730,22 +11373,22 @@
         <v>215</v>
       </c>
       <c r="D159" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F159" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G159" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="H159" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="I159" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J159">
         <v>6200</v>
@@ -11762,19 +11405,19 @@
         <v>215</v>
       </c>
       <c r="D160" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="E160" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="F160" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="H160" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="I160" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J160">
         <v>300</v>
@@ -11791,22 +11434,22 @@
         <v>220</v>
       </c>
       <c r="D161" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E161" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="F161" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G161" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="H161" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="I161" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J161">
         <v>16445</v>
@@ -11823,22 +11466,22 @@
         <v>223</v>
       </c>
       <c r="D162" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="F162" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G162" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="H162" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="I162" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J162">
         <v>390</v>
@@ -11855,22 +11498,22 @@
         <v>215</v>
       </c>
       <c r="D163" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E163" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="F163" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G163" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="H163" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="I163" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="J163">
         <v>1500</v>
@@ -11887,22 +11530,22 @@
         <v>221</v>
       </c>
       <c r="D164" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E164" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F164" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G164" t="s">
+        <v>473</v>
+      </c>
+      <c r="H164" t="s">
         <v>494</v>
       </c>
-      <c r="H164" t="s">
-        <v>515</v>
-      </c>
       <c r="I164" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J164">
         <v>500</v>
@@ -11919,22 +11562,19 @@
         <v>215</v>
       </c>
       <c r="D165" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E165" t="s">
-        <v>330</v>
-      </c>
-      <c r="F165" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="G165" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="H165" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="I165" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J165">
         <v>20000</v>
@@ -11951,22 +11591,22 @@
         <v>218</v>
       </c>
       <c r="D166" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E166" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F166" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G166" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="H166" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="I166" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J166">
         <v>40000</v>
@@ -11983,22 +11623,22 @@
         <v>222</v>
       </c>
       <c r="D167" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E167" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F167" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="G167" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="H167" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="I167" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J167">
         <v>300</v>
@@ -12015,22 +11655,22 @@
         <v>215</v>
       </c>
       <c r="D168" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="E168" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F168" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="G168" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="H168" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="I168" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J168">
         <v>10000</v>
@@ -12047,22 +11687,22 @@
         <v>215</v>
       </c>
       <c r="D169" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="E169" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="F169" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="G169" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="H169" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="I169" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="J169">
         <v>2772</v>
@@ -12079,22 +11719,22 @@
         <v>223</v>
       </c>
       <c r="D170" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E170" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="F170" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="G170" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="H170" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="I170" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J170">
         <v>9650</v>
@@ -12114,19 +11754,19 @@
         <v>228</v>
       </c>
       <c r="E171" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F171" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G171" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="H171" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="I171" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="J171">
         <v>8050</v>
@@ -12143,22 +11783,22 @@
         <v>223</v>
       </c>
       <c r="D172" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E172" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G172" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="H172" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="I172" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J172">
         <v>400</v>
@@ -12175,22 +11815,22 @@
         <v>215</v>
       </c>
       <c r="D173" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="E173" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G173" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="H173" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="I173" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J173">
         <v>800</v>
@@ -12207,22 +11847,22 @@
         <v>215</v>
       </c>
       <c r="D174" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="E174" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G174" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="H174" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="I174" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J174">
         <v>900</v>
@@ -12239,22 +11879,22 @@
         <v>215</v>
       </c>
       <c r="D175" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="E175" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G175" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="H175" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="I175" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="J175">
         <v>1200</v>
@@ -12274,19 +11914,19 @@
         <v>229</v>
       </c>
       <c r="E176" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G176" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="H176" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="I176" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="J176">
         <v>400</v>
@@ -12303,22 +11943,22 @@
         <v>218</v>
       </c>
       <c r="D177" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E177" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G177" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="H177" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="I177" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="J177">
         <v>30</v>
@@ -12335,22 +11975,19 @@
         <v>218</v>
       </c>
       <c r="D178" t="s">
-        <v>298</v>
-      </c>
-      <c r="E178" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="F178" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="G178" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="H178" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="I178" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -12367,22 +12004,16 @@
         <v>215</v>
       </c>
       <c r="D179" t="s">
-        <v>242</v>
-      </c>
-      <c r="E179" t="s">
-        <v>302</v>
+        <v>238</v>
       </c>
       <c r="F179" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="G179" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="H179" t="s">
-        <v>594</v>
-      </c>
-      <c r="I179" t="s">
-        <v>302</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -12409,13 +12040,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12430,7 +12061,7 @@
         <v>0.6123595505617978</v>
       </c>
       <c r="D2" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -12445,7 +12076,7 @@
         <v>0.2696629213483146</v>
       </c>
       <c r="D3" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12460,7 +12091,7 @@
         <v>0.06179775280898876</v>
       </c>
       <c r="D4" t="s">
-        <v>607</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12475,7 +12106,7 @@
         <v>0.05617977528089887</v>
       </c>
       <c r="D5" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -12496,13 +12127,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12517,7 +12148,7 @@
         <v>0.05617977528089887</v>
       </c>
       <c r="D2" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -12532,7 +12163,7 @@
         <v>0.06179775280898876</v>
       </c>
       <c r="D3" t="s">
-        <v>607</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12547,7 +12178,7 @@
         <v>0.2696629213483146</v>
       </c>
       <c r="D4" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12562,7 +12193,7 @@
         <v>0.6123595505617978</v>
       </c>
       <c r="D5" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -12572,7 +12203,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12589,13 +12220,13 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12610,12 +12241,12 @@
         <v>0.5449438202247191</v>
       </c>
       <c r="D2" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Interventional/Clinical Trial%22%5D%7D%5D", "Clinical Trial")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Interventional/Clinical Trial%22%5D%7D%5D", "Interventional/Clinical Trial")</f>
         <v>0</v>
       </c>
       <c r="B3">
@@ -12625,27 +12256,27 @@
         <v>0.1067415730337079</v>
       </c>
       <c r="D3" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Interventional/Clinical Trial%22%5D%7D%5D", "Interventional/Clinical Trial")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Device Validation Study%22%5D%7D%5D", "Device Validation Study")</f>
         <v>0</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1067415730337079</v>
+        <v>0.08426966292134831</v>
       </c>
       <c r="D4" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Device Validation Study%22%5D%7D%5D", "Device Validation Study")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Cross-Sectional%22%5D%7D%5D", "Cross-Sectional")</f>
         <v>0</v>
       </c>
       <c r="B5">
@@ -12655,102 +12286,102 @@
         <v>0.08426966292134831</v>
       </c>
       <c r="D5" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Cross-Sectional%22%5D%7D%5D", "Cross-Sectional")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Case-Control%22%5D%7D%5D", "Case-Control")</f>
         <v>0</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3">
-        <v>0.08426966292134831</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="D6" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Case-Control%22%5D%7D%5D", "Case-Control")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Device Verification Study%22%5D%7D%5D", "Device Verification Study")</f>
         <v>0</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3">
-        <v>0.06741573033707865</v>
+        <v>0.03932584269662921</v>
       </c>
       <c r="D7" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Device Verification Study%22%5D%7D%5D", "Device Verification Study")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Mixed Methods%22%5D%7D%5D", "Mixed Methods")</f>
         <v>0</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3">
-        <v>0.03932584269662921</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="D8" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Mixed Methods%22%5D%7D%5D", "Mixed Methods")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Observational%22%5D%7D%5D", "Observational")</f>
         <v>0</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
-        <v>0.02808988764044944</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="D9" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Observational%22%5D%7D%5D", "Observational")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Time-Series%22%5D%7D%5D", "Time-Series")</f>
         <v>0</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>0.02247191011235955</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="D10" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Time-Series%22%5D%7D%5D", "Time-Series")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Qualitative%22%5D%7D%5D", "Qualitative")</f>
         <v>0</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>0.01123595505617977</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="D11" t="s">
-        <v>617</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Qualitative%22%5D%7D%5D", "Qualitative")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Open Cohort%22%5D%7D%5D", "Open Cohort")</f>
         <v>0</v>
       </c>
       <c r="B12">
@@ -12760,21 +12391,6 @@
         <v>0.005617977528089887</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Open Cohort%22%5D%7D%5D", "Open Cohort")</f>
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.005617977528089887</v>
-      </c>
-      <c r="D13" t="s">
         <v>165</v>
       </c>
     </row>
@@ -12796,108 +12412,108 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Time-Series%22%5D%7D%5D", "Time-Series")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Qualitative%22%5D%7D%5D", "Qualitative")</f>
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.01123595505617977</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="D2" t="s">
-        <v>617</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Observational%22%5D%7D%5D", "Observational")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Time-Series%22%5D%7D%5D", "Time-Series")</f>
         <v>0</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0.02247191011235955</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="D3" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Mixed Methods%22%5D%7D%5D", "Mixed Methods")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Observational%22%5D%7D%5D", "Observational")</f>
         <v>0</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>0.02808988764044944</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="D4" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Device Verification Study%22%5D%7D%5D", "Device Verification Study")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Mixed Methods%22%5D%7D%5D", "Mixed Methods")</f>
         <v>0</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>0.03932584269662921</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="D5" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Case-Control%22%5D%7D%5D", "Case-Control")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Device Verification Study%22%5D%7D%5D", "Device Verification Study")</f>
         <v>0</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>0.06741573033707865</v>
+        <v>0.03932584269662921</v>
       </c>
       <c r="D6" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Cross-Sectional%22%5D%7D%5D", "Cross-Sectional")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Case-Control%22%5D%7D%5D", "Case-Control")</f>
         <v>0</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0.08426966292134831</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="D7" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Device Validation Study%22%5D%7D%5D", "Device Validation Study")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Cross-Sectional%22%5D%7D%5D", "Cross-Sectional")</f>
         <v>0</v>
       </c>
       <c r="B8">
@@ -12907,27 +12523,27 @@
         <v>0.08426966292134831</v>
       </c>
       <c r="D8" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Interventional/Clinical Trial%22%5D%7D%5D", "Interventional/Clinical Trial")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Device Validation Study%22%5D%7D%5D", "Device Validation Study")</f>
         <v>0</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>0.1067415730337079</v>
+        <v>0.08426966292134831</v>
       </c>
       <c r="D9" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Interventional/Clinical Trial%22%5D%7D%5D", "Clinical Trial")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Interventional/Clinical Trial%22%5D%7D%5D", "Interventional/Clinical Trial")</f>
         <v>0</v>
       </c>
       <c r="B10">
@@ -12937,7 +12553,7 @@
         <v>0.1067415730337079</v>
       </c>
       <c r="D10" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -12952,7 +12568,7 @@
         <v>0.5449438202247191</v>
       </c>
       <c r="D11" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -12962,7 +12578,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12979,18 +12595,18 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B2">
         <v>142</v>
@@ -12999,12 +12615,12 @@
         <v>0.797752808988764</v>
       </c>
       <c r="D2" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="B3">
         <v>78</v>
@@ -13013,110 +12629,110 @@
         <v>0.4382022471910113</v>
       </c>
       <c r="D3" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3">
-        <v>0.4044943820224719</v>
+        <v>0.3314606741573033</v>
       </c>
       <c r="D4" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>598</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3">
-        <v>0.3314606741573033</v>
+        <v>0.2921348314606741</v>
       </c>
       <c r="D5" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>619</v>
+        <v>245</v>
       </c>
       <c r="B6">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3">
-        <v>0.2921348314606741</v>
+        <v>0.1910112359550562</v>
       </c>
       <c r="D6" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>599</v>
       </c>
       <c r="B7">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1910112359550562</v>
+        <v>0.1179775280898876</v>
       </c>
       <c r="D7" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3">
-        <v>0.1179775280898876</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="D8" t="s">
-        <v>638</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3">
-        <v>0.0898876404494382</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="D9" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>622</v>
+        <v>250</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>0.05617977528089887</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="D10" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>253</v>
+        <v>602</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -13125,110 +12741,110 @@
         <v>0.0449438202247191</v>
       </c>
       <c r="D11" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3">
-        <v>0.0449438202247191</v>
+        <v>0.03932584269662921</v>
       </c>
       <c r="D12" t="s">
-        <v>642</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>624</v>
+        <v>260</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3">
-        <v>0.03932584269662921</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="D13" t="s">
-        <v>643</v>
+        <v>620</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="3">
-        <v>0.03370786516853932</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="D14" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3">
-        <v>0.02808988764044944</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="D15" t="s">
-        <v>645</v>
+        <v>622</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3">
-        <v>0.02247191011235955</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="D16" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>628</v>
+        <v>268</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
-        <v>0.01685393258426966</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="D17" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3">
-        <v>0.01123595505617977</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="D18" t="s">
-        <v>648</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -13237,12 +12853,12 @@
         <v>0.005617977528089887</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>630</v>
+        <v>608</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -13251,20 +12867,6 @@
         <v>0.005617977528089887</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>631</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.005617977528089887</v>
-      </c>
-      <c r="D21" t="s">
         <v>125</v>
       </c>
     </row>
@@ -13286,18 +12888,18 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>602</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -13306,110 +12908,110 @@
         <v>0.0449438202247191</v>
       </c>
       <c r="D2" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>622</v>
+        <v>250</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0.05617977528089887</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="D3" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>0.0898876404494382</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="D4" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>0.1179775280898876</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="D5" t="s">
-        <v>638</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>599</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>0.1910112359550562</v>
+        <v>0.1179775280898876</v>
       </c>
       <c r="D6" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>619</v>
+        <v>245</v>
       </c>
       <c r="B7">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>0.2921348314606741</v>
+        <v>0.1910112359550562</v>
       </c>
       <c r="D7" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>598</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C8">
-        <v>0.3314606741573033</v>
+        <v>0.2921348314606741</v>
       </c>
       <c r="D8" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C9">
-        <v>0.4044943820224719</v>
+        <v>0.3314606741573033</v>
       </c>
       <c r="D9" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="B10">
         <v>78</v>
@@ -13418,12 +13020,12 @@
         <v>0.4382022471910113</v>
       </c>
       <c r="D10" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B11">
         <v>142</v>
@@ -13432,7 +13034,7 @@
         <v>0.797752808988764</v>
       </c>
       <c r="D11" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>

--- a/reports/2024-05-30 - RADx Data Hub Content Report.xlsx
+++ b/reports/2024-05-30 - RADx Data Hub Content Report.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="727">
   <si>
     <t>This workbook collects statistics on studies stored in the RADx Data Hub and provides information on the number of studies corresponding to labels on the studies.</t>
   </si>
@@ -724,1119 +724,1155 @@
     <t>Behavioral; Questionnaires/Surveys</t>
   </si>
   <si>
+    <t>Immunological</t>
+  </si>
+  <si>
     <t>Physical Activity; Questionnaires/Surveys</t>
   </si>
   <si>
     <t>Clinical; Imaging</t>
   </si>
   <si>
-    <t>Clinical; Electronic Medical Records; Genomic; Genotyping; Questionnaires/Surveys; Supporting Documents</t>
+    <t>Clinical; Electronic Medical Records; Enviornmental (Physical); Genomic; Genotyping; Immunological; Questionnaires/Surveys; Supporting Documents</t>
   </si>
   <si>
     <t>Questionnaires/Surveys; Social</t>
   </si>
   <si>
+    <t>Enviornmental (Physical); Immunological</t>
+  </si>
+  <si>
+    <t>Clinical; Electronic Medical Records; Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Behavioral; Individual Phenotype; Physical Activity; Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Clinical; Electronic Medical Records; Enviornmental (Physical); Questionnaires/Surveys; Supporting Documents</t>
+  </si>
+  <si>
+    <t>Enviornmental (Physical); Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Clinical; Immunological</t>
+  </si>
+  <si>
+    <t>Immunological; Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Clinical; Electronic Medical Records; Family History; Imaging; Immunological; Individual Phenotype; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Clinical</t>
+  </si>
+  <si>
+    <t>Clinical; Electronic Medical Records; Family History; Genomic; Immunological; Individual Genotype; Individual Phenotype; Individual Sequencing; Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Electronic Medical Records; Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Behavioral; Electronic Medical Records; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Behavioral; Psychological; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Electronic Medical Records</t>
+  </si>
+  <si>
+    <t>Electronic Medical Records; Individual Phenotype</t>
+  </si>
+  <si>
+    <t>Clinical; Electronic Medical Records; Metabolomic; Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Behavioral; Clinical; Electronic Medical Records; Questionnaires/Surveys; Social; Supporting Documents</t>
+  </si>
+  <si>
+    <t>Clinical; Electronic Medical Records; Immunological; Metabolomic</t>
+  </si>
+  <si>
+    <t>Genomic</t>
+  </si>
+  <si>
+    <t>Clinical; Electronic Medical Records; Genomic; Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Behavioral; Clinical; Electronic Medical Records; Enviornmental (Physical); Psychological; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Behavioral; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Behavioral; Individual Phenotype; Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Behavioral; Immunological; Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Behavioral; Clinical; Cognitive; Family History; Psychological; Questionnaires/Surveys; Social; Supporting Documents</t>
+  </si>
+  <si>
+    <t>Clinical; Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Clinical; Electronic Medical Records; Metabolomic; Physical Activity</t>
+  </si>
+  <si>
+    <t>Clinical; Enviornmental (Physical); Genomic</t>
+  </si>
+  <si>
+    <t>Behavioral; Electronic Medical Records; Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Imaging</t>
+  </si>
+  <si>
+    <t>Behavioral; Psychological; Questionnaires/Surveys; Social; Supporting Documents</t>
+  </si>
+  <si>
+    <t>Enviornmental (Physical); Genomic</t>
+  </si>
+  <si>
+    <t>Behavioral; Clinical; Cognitive; Family History; Psychological; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Behavioral; Clinical; Electronic Medical Records; Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Psychological; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Behavioral; Clinical; Family History; Immunological; Psychological; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Clinical; Electronic Medical Records; Family History; Genomic; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Behavioral; Family History; Physical Activity; Psychological; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Genotyping</t>
+  </si>
+  <si>
+    <t>Clinical; Electronic Medical Records; Genomic; Imaging; Individual Sequencing; Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Clinical; Individual Sequencing</t>
+  </si>
+  <si>
+    <t>Clinical; Individual Phenotype; Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Clinical; Immunological; Psychological; Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Behavioral; Clinical; Electronic Medical Records; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Behavioral; Family History; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Behavioral; Clinical; Electronic Medical Records; Imaging; Psychological; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Behavioral; Cognitive; Enviornmental (Physical); Psychological; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Behavioral; Cognitive; Psychological; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Clinical; Electronic Medical Records; Enviornmental (Physical); Family History; Individual Phenotype; Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Behavioral; Cognitive; Enviornmental (Physical); Family History; Physical Activity; Psychological; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Immunological; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Electronic Medical Records; Immunological; Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Behavioral; Clinical; Enviornmental (Physical); Family History; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Electronic Medical Records; Enviornmental (Physical)</t>
+  </si>
+  <si>
+    <t>Behavioral; Clinical; Family History; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Behavioral; Clinical; Electronic Medical Records; Family History; Psychological; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Behavioral; Clinical; Individual Sequencing; Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Behavioral; Cognitive; Family History; Psychological; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Survey; Smartphone; Contact Tracing</t>
+  </si>
+  <si>
+    <t>Smartphone; Contact Tracing</t>
+  </si>
+  <si>
+    <t>Survey; Interview or Focus Group</t>
+  </si>
+  <si>
+    <t>Wearable</t>
+  </si>
+  <si>
+    <t>Wastewater Sampling</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>Wearable; Smartphone</t>
+  </si>
+  <si>
+    <t>Survey; Wearable</t>
+  </si>
+  <si>
+    <t>Interview or Focus Group; Molecular (Nucleic Acid/PCR) Testing Device; Wastewater Sampling</t>
+  </si>
+  <si>
+    <t>Unspecified COVID Testing Device</t>
+  </si>
+  <si>
+    <t>Molecular (Nucleic Acid/PCR) Testing Device</t>
+  </si>
+  <si>
+    <t>Antibody Testing / Other Adaptive Immune Response Test; Electrochemical Testing Device</t>
+  </si>
+  <si>
+    <t>Antigen Testing Device</t>
+  </si>
+  <si>
+    <t>Survey; Smartphone</t>
+  </si>
+  <si>
+    <t>Biobank Samples</t>
+  </si>
+  <si>
+    <t>Breath Analysis Device / Airborne Detection Device</t>
+  </si>
+  <si>
+    <t>Survey; Antigen Testing Device; Molecular (Nucleic Acid/PCR) Testing Device</t>
+  </si>
+  <si>
+    <t>Survey; Interview or Focus Group; Molecular (Nucleic Acid/PCR) Testing Device</t>
+  </si>
+  <si>
+    <t>Electrochemical Testing Device</t>
+  </si>
+  <si>
+    <t>Smartphone; Molecular (Nucleic Acid/PCR) Testing Device</t>
+  </si>
+  <si>
+    <t>Survey; Contact Tracing</t>
+  </si>
+  <si>
+    <t>Antigen Testing Device; Breath Analysis Device / Airborne Detection Device</t>
+  </si>
+  <si>
+    <t>Real-World Data</t>
+  </si>
+  <si>
+    <t>Survey; Interview or Focus Group; Antigen Testing Device</t>
+  </si>
+  <si>
+    <t>Chemosensory Testing Device</t>
+  </si>
+  <si>
+    <t>Survey; Molecular (Nucleic Acid/PCR) Testing Device</t>
+  </si>
+  <si>
+    <t>Survey; Interview or Focus Group; Antigen Testing Device; Molecular (Nucleic Acid/PCR) Testing Device</t>
+  </si>
+  <si>
+    <t>Survey; Contact Tracing; Antigen Testing Device</t>
+  </si>
+  <si>
+    <t>Wearable; Real-World Data</t>
+  </si>
+  <si>
+    <t>Survey; Antigen Testing Device</t>
+  </si>
+  <si>
+    <t>Survey; Smartphone; Molecular (Nucleic Acid/PCR) Testing Device</t>
+  </si>
+  <si>
+    <t>Survey; Smartphone; Antigen Testing Device</t>
+  </si>
+  <si>
+    <t>Smartphone; Antigen Testing Device</t>
+  </si>
+  <si>
+    <t>Survey; Interview or Focus Group; Molecular (Nucleic Acid/PCR) Testing Device; Antibody Testing / Other Adaptive Immune Response Test</t>
+  </si>
+  <si>
+    <t>Disease Registry</t>
+  </si>
+  <si>
+    <t>Smartphone; Antigen Testing Device; Molecular (Nucleic Acid/PCR) Testing Device</t>
+  </si>
+  <si>
+    <t>Survey; Wearable; Antigen Testing Device; Molecular (Nucleic Acid/PCR) Testing Device</t>
+  </si>
+  <si>
+    <t>Survey; Smartphone; Antigen Testing Device; Molecular (Nucleic Acid/PCR) Testing Device</t>
+  </si>
+  <si>
+    <t>Survey; Interview or Focus Group; Contact Tracing</t>
+  </si>
+  <si>
+    <t>Survey; Molecular (Nucleic Acid/PCR) Testing Device; Antibody Testing / Other Adaptive Immune Response Test</t>
+  </si>
+  <si>
+    <t>NCI</t>
+  </si>
+  <si>
+    <t>NIMH; NIMHD</t>
+  </si>
+  <si>
+    <t>NIDA</t>
+  </si>
+  <si>
+    <t>NHLBI</t>
+  </si>
+  <si>
+    <t>NINR</t>
+  </si>
+  <si>
+    <t>NIDCR</t>
+  </si>
+  <si>
+    <t>NLM</t>
+  </si>
+  <si>
+    <t>NCI; NIBIB</t>
+  </si>
+  <si>
+    <t>NCI; NHLBI; NIBIB</t>
+  </si>
+  <si>
+    <t>NIA; NIAAA</t>
+  </si>
+  <si>
+    <t>NCATS</t>
+  </si>
+  <si>
+    <t>NICHD</t>
+  </si>
+  <si>
+    <t>NIDDK</t>
+  </si>
+  <si>
+    <t>NIA; NIAID</t>
+  </si>
+  <si>
+    <t>NIMH</t>
+  </si>
+  <si>
+    <t>NIDCD</t>
+  </si>
+  <si>
+    <t>NIGMS</t>
+  </si>
+  <si>
+    <t>NIA; NIAID; NICHD; NIMH</t>
+  </si>
+  <si>
+    <t>NHLBI; NIBIB</t>
+  </si>
+  <si>
+    <t>NIBIB</t>
+  </si>
+  <si>
+    <t>NIA</t>
+  </si>
+  <si>
+    <t>NIEHS</t>
+  </si>
+  <si>
+    <t>NCCIH</t>
+  </si>
+  <si>
+    <t>NIA; NIAMS</t>
+  </si>
+  <si>
+    <t>NDA</t>
+  </si>
+  <si>
+    <t>NIGMS; NIMH</t>
+  </si>
+  <si>
+    <t>Digital Health Applications</t>
+  </si>
+  <si>
+    <t>COVID Hotspots; Digital Health Applications</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; COVID Hotspots; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Substance Use; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Point-of-Care (POC) Testing; Novel Biosensing and VOC; Virological Testing</t>
+  </si>
+  <si>
+    <t>Disease Surveillance; Multimodal Surveillance; Biosensor Technology; Digital Health Applications</t>
+  </si>
+  <si>
+    <t>Disease Surveillance; Virological Testing</t>
+  </si>
+  <si>
+    <t>Wastewater Surveillance; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Screening Testing; Wastewater Surveillance; Next Generation Sequencing (NGS)</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; Virological Testing; Digital Health Applications; Influenza</t>
+  </si>
+  <si>
+    <t>Virological Testing; Serological (Antibody) Testing; Biosensor Technology; Digital Health Applications</t>
+  </si>
+  <si>
+    <t>Biosensor Technology; Digital Health Applications</t>
+  </si>
+  <si>
+    <t>Biosensor Technology; Digital Health Applications; Influenza</t>
+  </si>
+  <si>
+    <t>Wastewater Surveillance; Next Generation Sequencing (NGS)</t>
+  </si>
+  <si>
+    <t>Virological Testing</t>
+  </si>
+  <si>
+    <t>Biosensor Technology</t>
+  </si>
+  <si>
+    <t>Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Social Determinants of Health; Children</t>
+  </si>
+  <si>
+    <t>Point-of-Care (POC) Testing; Virological Testing</t>
+  </si>
+  <si>
+    <t>Disease Surveillance; Multimodal Surveillance; Virological Testing</t>
+  </si>
+  <si>
+    <t>Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Virological Testing; Children</t>
+  </si>
+  <si>
+    <t>Novel Biosensing and VOC; Virological Testing</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Health Behaviors; Virological Testing; Serological (Antibody) Testing</t>
+  </si>
+  <si>
+    <t>Novel Biosensing and VOC; Multimodal Surveillance; Virological Testing</t>
+  </si>
+  <si>
+    <t>Multimodal Surveillance; Virological Testing</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Screening Testing; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Virological Testing; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Virological Testing; Vaccination Rate/Uptake; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Social Determinants of Health</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Health Behaviors; Virological Testing; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Social Determinants of Health</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Health Behaviors; Substance Use; Virological Testing; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Novel Biosensing and VOC; Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Children</t>
+  </si>
+  <si>
+    <t>Wastewater Surveillance; Variants</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Serological (Antibody) Testing; Social Determinants of Health</t>
+  </si>
+  <si>
+    <t>Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Children</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Vaccination Rate/Uptake; Social Determinants of Health</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Virological Testing; Mobile Unit Testing; Vaccination Rate/Uptake; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Mobile Unit Testing; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Screening Testing</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; COVID in School Settings; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Health Behaviors; Virological Testing</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Seroprevalence; Serological (Antibody) Testing; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Health Behaviors; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Point-of-Care (POC) Testing</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Mobile Unit Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Multimodal Surveillance</t>
+  </si>
+  <si>
+    <t>Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Diagnostic Testing; Social Determinants of Health</t>
+  </si>
+  <si>
+    <t>COVID in School Settings</t>
+  </si>
+  <si>
+    <t>Comorbidities; Substance Use; Mobile Unit Testing</t>
+  </si>
+  <si>
+    <t>Novel Biosensing and VOC</t>
+  </si>
+  <si>
+    <t>Novel Biosensing and VOC; Biosensor Technology</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Vaccination Rate/Uptake; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Substance Use; Social Determinants of Health</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Mental Health; Substance Use; Social Determinants of Health</t>
+  </si>
+  <si>
+    <t>Wastewater Surveillance; Virological Testing</t>
+  </si>
+  <si>
+    <t>Diagnostic Testing; Virological Testing</t>
+  </si>
+  <si>
+    <t>Virological Testing; Digital Health Applications</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; COVID in School Settings; Virological Testing</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Diagnostic Testing; Virological Testing</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Virological Testing; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Vaccination Rate/Uptake; Social Determinants of Health</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Disease Surveillance; Virological Testing; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Screening Testing; Social Determinants of Health</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; Substance Use; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; COVID Hotspots; COVID Testing Deserts; Virological Testing; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Point-of-Care (POC) Testing; Social Determinants of Health; Digital Health Applications</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; COVID Hotspots; COVID Testing Deserts; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Vaccination Rate/Uptake; Social Determinants of Health</t>
+  </si>
+  <si>
+    <t>Diagnostic Testing; Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Children</t>
+  </si>
+  <si>
+    <t>Virological Testing; Next Generation Sequencing (NGS)</t>
+  </si>
+  <si>
+    <t>Comorbidities; Vaccination Rate/Uptake</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; Mobile Unit Testing; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; Substance Use; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; COVID in School Settings; Diagnostic Testing; Virological Testing; Serological (Antibody) Testing; Mobile Unit Testing; Vaccination Rate/Uptake</t>
+  </si>
+  <si>
+    <t>Health Behaviors; Substance Use</t>
+  </si>
+  <si>
+    <t>COVID in School Settings; Diagnostic Testing; COVID Hotspots; Social Determinants of Health</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; Point-of-Care (POC) Testing; Mobile Unit Testing; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Diagnostic Testing; Social Determinants of Health; Influenza</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; COVID in School Settings; Disease Surveillance</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Diagnostic Testing; COVID Hotspots; Substance Use; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; Virological Testing; Serological (Antibody) Testing</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; COVID Testing Deserts; Mobile Unit Testing; Vaccination Rate/Uptake; Social Determinants of Health</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; Health Behaviors; Vaccination Rate/Uptake</t>
+  </si>
+  <si>
+    <t>COVID in School Settings; Screening Testing</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Diagnostic Testing</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Mental Health; Serological (Antibody) Testing</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Diagnostic Testing; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Point-of-Care (POC) Testing; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Vaccination Rate/Uptake</t>
+  </si>
+  <si>
+    <t>Virological Testing; Biosensor Technology</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Diagnostic Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; COVID in School Settings; Diagnostic Testing</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Diagnostic Testing; Substance Use; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Diagnostic Testing; Digital Health Applications; Influenza</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Diagnostic Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Long COVID</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Mental Health; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Virological Testing; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; COVID in School Settings; Wastewater Surveillance; Virological Testing</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Vaccination Rate/Uptake; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Seroprevalence; Virological Testing; Serological (Antibody) Testing; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>COVID in School Settings; Virological Testing</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; COVID Testing Deserts; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Virological Testing; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Social Determinants of Health</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; Screening Testing; Virological Testing; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; Health Behaviors; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Digital Health Applications</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Screening Testing; Social Determinants of Health</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Point-of-Care (POC) Testing; Substance Use; Mobile Unit Testing; Social Determinants of Health</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Wastewater Surveillance</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; COVID in School Settings; Mental Health; Virological Testing; Vaccination Rate/Uptake</t>
+  </si>
+  <si>
+    <t>Social Determinants of Health; Community Outreach Programs; Digital Health Applications</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Virological Testing; Vaccination Rate/Uptake</t>
+  </si>
+  <si>
+    <t>Health Behaviors; Biosensor Technology</t>
+  </si>
+  <si>
+    <t>COVID in School Settings; Social Determinants of Health</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; Serological (Antibody) Testing; Vaccination Rate/Uptake; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Virological Testing; Mobile Unit Testing; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; COVID in School Settings; Virological Testing; Vaccination Rate/Uptake; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Social Determinants of Health</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Disease Surveillance; Social Determinants of Health</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; Health Behaviors; Mobile Unit Testing; Vaccination Rate/Uptake; Community Outreach Programs; Influenza</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Diagnostic Testing; Comorbidities; Community Outreach Programs</t>
+  </si>
+  <si>
+    <t>Hispanic and Latino; Underserved/Vulnerable Population</t>
+  </si>
+  <si>
+    <t>Children; School Community Members; People Living with HIV/AIDs; Underserved/Vulnerable Population; Older Adults or Elderly; Adults</t>
+  </si>
+  <si>
+    <t>School Community Members; Intellectual and Developmental Disabilities; Dialysis Patients; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults</t>
+  </si>
+  <si>
+    <t>Underserved/Vulnerable Population</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>Native Hawaiian or other Pacific Islander; Underserved/Vulnerable Population</t>
+  </si>
+  <si>
+    <t>Older Adults or Elderly; Adults</t>
+  </si>
+  <si>
+    <t>Rural Communities</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Essential Workers; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Children; Underserved/Vulnerable Population</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Native Hawaiian or other Pacific Islander; Rural Communities; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; African American</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino</t>
+  </si>
+  <si>
+    <t>African American; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Hispanic and Latino; Incarcerated/Institutionalized (or Criminal Legal System Involvement); Rural Communities; Underserved/Vulnerable Population</t>
+  </si>
+  <si>
+    <t>African American</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>African American; Hispanic and Latino; Lower Socioeconomic Status (SES) Population; Adults</t>
+  </si>
+  <si>
+    <t>Rural Communities; Underserved/Vulnerable Population</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Underserved/Vulnerable Population</t>
+  </si>
+  <si>
+    <t>African American; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults</t>
+  </si>
+  <si>
+    <t>African American; Underserved/Vulnerable Population</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Children; Sexual and Gender Minorities; Adults</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Essential Workers; Rural Communities</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Immigrants; African American; Hispanic and Latino; Asian</t>
+  </si>
+  <si>
+    <t>African American; Hispanic and Latino; Dialysis Patients; Underserved/Vulnerable Population</t>
+  </si>
+  <si>
+    <t>People Living with HIV/AIDs; Sexual and Gender Minorities</t>
+  </si>
+  <si>
+    <t>Hispanic and Latino; Adults</t>
+  </si>
+  <si>
+    <t>Hispanic and Latino; Children; School Community Members</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; African American; Rural Communities; Underserved/Vulnerable Population</t>
+  </si>
+  <si>
+    <t>Immigrants; Homeless/Unhoused; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>African American; Children; Pregnant (or Nursing) Women; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; African American; People Living with HIV/AIDs; Underserved/Vulnerable Population</t>
+  </si>
+  <si>
+    <t>Children; School Community Members; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Native Hawaiian or other Pacific Islander</t>
+  </si>
+  <si>
+    <t>Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>African American; Children; School Community Members</t>
+  </si>
+  <si>
+    <t>Immigrants; Homeless/Unhoused; People Living with HIV/AIDs; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Homeless/Unhoused</t>
+  </si>
+  <si>
+    <t>Children; Underserved/Vulnerable Population; Adults</t>
+  </si>
+  <si>
+    <t>Hispanic and Latino</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Hispanic and Latino; Essential Workers; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Homeless/Unhoused; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Children; Intellectual and Developmental Disabilities</t>
+  </si>
+  <si>
+    <t>People Living with HIV/AIDs</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Hispanic and Latino; School Community Members; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>African American; Hispanic and Latino; Underserved/Vulnerable Population</t>
+  </si>
+  <si>
+    <t>Hispanic and Latino; Essential Workers; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults</t>
+  </si>
+  <si>
+    <t>African American; Hispanic and Latino; Children; School Community Members</t>
+  </si>
+  <si>
+    <t>Essential Workers; Homeless/Unhoused; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Rural Communities; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Hispanic and Latino; Rural Communities; Underserved/Vulnerable Population</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Hispanic and Latino; Children; School Community Members; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Children; School Community Members; Intellectual and Developmental Disabilities; Underserved/Vulnerable Population</t>
+  </si>
+  <si>
+    <t>Pregnant (or Nursing) Women</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Underserved/Vulnerable Population</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Hispanic and Latino; Underserved/Vulnerable Population</t>
+  </si>
+  <si>
+    <t>African American; Children; School Community Members; Intellectual and Developmental Disabilities; Underserved/Vulnerable Population</t>
+  </si>
+  <si>
+    <t>Essential Workers; Older Adults or Elderly; Adults</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Asian</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Immigrants; African American; Hispanic and Latino; Rural Communities; Underserved/Vulnerable Population</t>
+  </si>
+  <si>
+    <t>Children; School Community Members</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Rural Communities; Underserved/Vulnerable Population</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>African American; Hispanic and Latino; Essential Workers; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Rural Communities; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Incarcerated/Institutionalized (or Criminal Legal System Involvement); Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Dialysis Patients; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; African American; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Incarcerated/Institutionalized (or Criminal Legal System Involvement)</t>
+  </si>
+  <si>
+    <t>Hispanic and Latino; Children; School Community Members; Rural Communities</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Immigrants; Children; School Community Members</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; African American; Children; School Community Members; Intellectual and Developmental Disabilities; Underserved/Vulnerable Population</t>
+  </si>
+  <si>
+    <t>People Living with HIV/AIDs; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Hispanic and Latino; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Rural Communities; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Hispanic and Latino; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Adults</t>
+  </si>
+  <si>
+    <t>Native Hawaiian or other Pacific Islander; Asian; Children; School Community Members; Rural Communities; Older Adults or Elderly; Adults</t>
+  </si>
+  <si>
+    <t>Essential Workers</t>
+  </si>
+  <si>
+    <t>Homeless/Unhoused; Sexual and Gender Minorities; Rural Communities; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Asian; Essential Workers; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Children; School Community Members; Lower Socioeconomic Status (SES) Population</t>
+  </si>
+  <si>
+    <t>Underserved/Vulnerable Population; Adults</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; African American; Underserved/Vulnerable Population; Adults</t>
+  </si>
+  <si>
+    <t>251-500</t>
+  </si>
+  <si>
+    <t>1-250</t>
+  </si>
+  <si>
+    <t>2,001-5,000</t>
+  </si>
+  <si>
+    <t>501-1,000</t>
+  </si>
+  <si>
+    <t>&gt;5,000</t>
+  </si>
+  <si>
+    <t>No Participants</t>
+  </si>
+  <si>
+    <t>1,001-2,000</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>PHS IDs</t>
+  </si>
+  <si>
+    <t>phs002520; phs002521; phs002526; phs002567; phs002568; phs002575; phs002578; phs002581; phs002582; phs002584; phs002601; phs002608; phs002616; phs002618; phs002619; phs002633; phs002634; phs002643; phs002644; phs002645; phs002647; phs002648; phs002649; phs002651; phs002658; phs002660; phs002661; phs002662; phs002704; phs002707; phs002708; phs002713; phs002720; phs002740; phs002741; phs002742; phs002743; phs002745; phs002759; phs002760; phs002761; phs002763; phs002775; phs002776; phs002777; phs002786; phs002791; phs002799; phs002800; phs002821; phs002825; phs002868; phs002869; phs002870; phs002871; phs002872; phs002873; phs002874; phs002875; phs002878; phs002904; phs002905; phs002906; phs002917; phs002920; phs002946; phs002947; phs002948; phs003021; phs003029; phs003030; phs003031; phs003032; phs003033; phs003037; phs003049; phs003050; phs003051; phs003056; phs003057; phs003081; phs003082; phs003083; phs003123; phs003125; phs003126; phs003127; phs003128; phs003234; phs003359; phs003361; phs003362; phs003364; phs003365; phs003366; phs003368; phs003371; phs003373; phs003374; phs003375; phs003376; phs003377; phs003484; phs003504; phs003507; phs003514; phs003515; phs003544; phs003595</t>
+  </si>
+  <si>
+    <t>phs002522; phs002523; phs002524; phs002525; phs002527; phs002542; phs002543; phs002544; phs002546; phs002549; phs002550; phs002551; phs002553; phs002561; phs002563; phs002565; phs002569; phs002570; phs002572; phs002573; phs002583; phs002585; phs002588; phs002600; phs002602; phs002603; phs002604; phs002609; phs002631; phs002642; phs002657; phs002679; phs002685; phs002689; phs002699; phs002700; phs002702; phs002709; phs002729; phs002744; phs002747; phs002778; phs002781; phs002782; phs002924; phs002945; phs002964; phs003124</t>
+  </si>
+  <si>
+    <t>phs002682; phs002736; phs002737; phs002738; phs002739; phs003026; phs003027; phs003237; phs003238; phs003239; phs003360</t>
+  </si>
+  <si>
+    <t>phs002516; phs002519; phs002533; phs002534; phs002535; phs002537; phs002538; phs002539; phs002540; phs002628</t>
+  </si>
+  <si>
+    <t>phs002516; phs002519; phs002520; phs002523; phs002524; phs002525; phs002526; phs002533; phs002534; phs002535; phs002537; phs002538; phs002539; phs002540; phs002549; phs002551; phs002563; phs002567; phs002581; phs002584; phs002585; phs002588; phs002601; phs002603; phs002604; phs002619; phs002633; phs002642; phs002643; phs002648; phs002657; phs002658; phs002660; phs002661; phs002679; phs002685; phs002689; phs002704; phs002708; phs002713; phs002720; phs002729; phs002739; phs002740; phs002743; phs002745; phs002763; phs002775; phs002781; phs002782; phs002791; phs002799; phs002800; phs002821; phs002868; phs002870; phs002872; phs002875; phs002904; phs002905; phs002917; phs002920; phs002924; phs002964; phs003021; phs003026; phs003029; phs003030; phs003031; phs003032; phs003033; phs003037; phs003049; phs003056; phs003081; phs003082; phs003083; phs003123; phs003124; phs003125; phs003126; phs003127; phs003128; phs003237; phs003238; phs003239; phs003359; phs003360; phs003364; phs003366; phs003373; phs003374; phs003376; phs003484; phs003504; phs003507; phs003595</t>
+  </si>
+  <si>
+    <t>phs002575; phs002578; phs002618; phs002628; phs002634; phs002644; phs002741; phs002742; phs002760; phs002825; phs002869; phs002878; phs002946; phs002947; phs003051; phs003057; phs003234; phs003371; phs003514</t>
+  </si>
+  <si>
+    <t>phs002522; phs002542; phs002543; phs002544; phs002546; phs002553; phs002561; phs002565; phs002572; phs002600; phs002682; phs002709; phs002736; phs002737; phs002744</t>
+  </si>
+  <si>
+    <t>phs002616; phs002631; phs002649; phs002662; phs002707; phs002761; phs002777; phs002871; phs002873; phs002874; phs002945; phs003050; phs003362; phs003375; phs003377</t>
+  </si>
+  <si>
+    <t>phs002569; phs002573; phs002609; phs002699; phs002747; phs002759; phs002776; phs002778; phs002786; phs002906; phs002948; phs003365</t>
+  </si>
+  <si>
+    <t>phs002550; phs002570; phs002583; phs002602; phs002700; phs002702; phs002738</t>
+  </si>
+  <si>
+    <t>phs002568; phs002582; phs002608; phs002647; phs003361</t>
+  </si>
+  <si>
+    <t>phs002527; phs003368; phs003515; phs003544</t>
+  </si>
+  <si>
+    <t>phs002521; phs002645</t>
+  </si>
+  <si>
+    <t>Behavioral</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>Psychological</t>
+  </si>
+  <si>
+    <t>Family History</t>
+  </si>
+  <si>
     <t>Enviornmental (Physical)</t>
   </si>
   <si>
-    <t>Clinical; Electronic Medical Records; Questionnaires/Surveys</t>
-  </si>
-  <si>
-    <t>Behavioral; Individual Phenotype; Physical Activity; Questionnaires/Surveys</t>
-  </si>
-  <si>
-    <t>Clinical; Electronic Medical Records; Questionnaires/Surveys; Supporting Documents</t>
-  </si>
-  <si>
-    <t>Questionnaires/Surveys</t>
-  </si>
-  <si>
-    <t>Clinical</t>
-  </si>
-  <si>
-    <t>Clinical; Electronic Medical Records; Family History; Imaging; Individual Phenotype; Questionnaires/Surveys; Social</t>
-  </si>
-  <si>
-    <t>Clinical; Electronic Medical Records; Family History; Genomic; Individual Genotype; Individual Phenotype; Individual Sequencing; Questionnaires/Surveys</t>
-  </si>
-  <si>
-    <t>Electronic Medical Records; Questionnaires/Surveys</t>
-  </si>
-  <si>
-    <t>Behavioral; Electronic Medical Records; Questionnaires/Surveys; Social</t>
-  </si>
-  <si>
-    <t>Behavioral; Psychological; Questionnaires/Surveys; Social</t>
-  </si>
-  <si>
-    <t>Electronic Medical Records</t>
-  </si>
-  <si>
-    <t>Electronic Medical Records; Individual Phenotype</t>
-  </si>
-  <si>
-    <t>Clinical; Electronic Medical Records; Metabolomic; Questionnaires/Surveys</t>
-  </si>
-  <si>
-    <t>Behavioral; Clinical; Electronic Medical Records; Questionnaires/Surveys; Social; Supporting Documents</t>
-  </si>
-  <si>
-    <t>Clinical; Electronic Medical Records; Metabolomic</t>
-  </si>
-  <si>
-    <t>Genomic</t>
-  </si>
-  <si>
-    <t>Clinical; Electronic Medical Records; Genomic; Questionnaires/Surveys</t>
-  </si>
-  <si>
-    <t>Behavioral; Clinical; Electronic Medical Records; Psychological; Questionnaires/Surveys; Social</t>
-  </si>
-  <si>
-    <t>Behavioral; Questionnaires/Surveys; Social</t>
-  </si>
-  <si>
-    <t>Behavioral; Individual Phenotype; Questionnaires/Surveys</t>
-  </si>
-  <si>
-    <t>Behavioral; Clinical; Cognitive; Family History; Psychological; Questionnaires/Surveys; Social; Supporting Documents</t>
-  </si>
-  <si>
-    <t>Clinical; Questionnaires/Surveys</t>
-  </si>
-  <si>
-    <t>Clinical; Electronic Medical Records; Metabolomic; Physical Activity</t>
-  </si>
-  <si>
-    <t>Clinical; Genomic</t>
-  </si>
-  <si>
-    <t>Behavioral; Electronic Medical Records; Questionnaires/Surveys</t>
-  </si>
-  <si>
-    <t>Imaging</t>
-  </si>
-  <si>
-    <t>Behavioral; Psychological; Questionnaires/Surveys; Social; Supporting Documents</t>
-  </si>
-  <si>
-    <t>Behavioral; Clinical; Cognitive; Family History; Psychological; Questionnaires/Surveys; Social</t>
-  </si>
-  <si>
-    <t>Behavioral; Clinical; Electronic Medical Records; Questionnaires/Surveys</t>
-  </si>
-  <si>
-    <t>Psychological; Questionnaires/Surveys; Social</t>
-  </si>
-  <si>
-    <t>Behavioral; Clinical; Family History; Immulogical; Psychological; Questionnaires/Surveys; Social</t>
-  </si>
-  <si>
-    <t>Clinical; Electronic Medical Records; Family History; Genomic; Questionnaires/Surveys; Social</t>
-  </si>
-  <si>
-    <t>Behavioral; Family History; Physical Activity; Psychological; Questionnaires/Surveys; Social</t>
-  </si>
-  <si>
-    <t>Genotyping</t>
-  </si>
-  <si>
-    <t>Clinical; Electronic Medical Records; Genomic; Imaging; Individual Sequencing; Questionnaires/Surveys</t>
-  </si>
-  <si>
-    <t>Clinical; Individual Sequencing</t>
-  </si>
-  <si>
-    <t>Clinical; Individual Phenotype; Questionnaires/Surveys</t>
-  </si>
-  <si>
-    <t>Clinical; Psychological; Questionnaires/Surveys</t>
-  </si>
-  <si>
-    <t>Behavioral; Clinical; Electronic Medical Records; Questionnaires/Surveys; Social</t>
-  </si>
-  <si>
-    <t>Behavioral; Family History; Questionnaires/Surveys; Social</t>
-  </si>
-  <si>
-    <t>Behavioral; Clinical; Electronic Medical Records; Imaging; Psychological; Questionnaires/Surveys; Social</t>
-  </si>
-  <si>
-    <t>Behavioral; Cognitive; Psychological; Questionnaires/Surveys; Social</t>
-  </si>
-  <si>
-    <t>Clinical; Electronic Medical Records; Family History; Individual Phenotype; Questionnaires/Surveys</t>
-  </si>
-  <si>
-    <t>Behavioral; Cognitive; Family History; Physical Activity; Psychological; Questionnaires/Surveys; Social</t>
-  </si>
-  <si>
-    <t>Behavioral; Clinical; Family History; Questionnaires/Surveys; Social</t>
-  </si>
-  <si>
-    <t>Behavioral; Clinical; Electronic Medical Records; Family History; Psychological; Questionnaires/Surveys; Social</t>
-  </si>
-  <si>
-    <t>Behavioral; Clinical; Individual Sequencing; Questionnaires/Surveys</t>
-  </si>
-  <si>
-    <t>Behavioral; Cognitive; Family History; Psychological; Questionnaires/Surveys; Social</t>
-  </si>
-  <si>
-    <t>Survey; Smartphone; Contact Tracing</t>
-  </si>
-  <si>
-    <t>Smartphone; Contact Tracing</t>
-  </si>
-  <si>
-    <t>Survey; Interview or Focus Group</t>
-  </si>
-  <si>
-    <t>Wearable</t>
-  </si>
-  <si>
-    <t>Wastewater Sampling</t>
-  </si>
-  <si>
-    <t>Survey</t>
-  </si>
-  <si>
-    <t>Smartphone</t>
-  </si>
-  <si>
-    <t>Wearable; Smartphone</t>
-  </si>
-  <si>
-    <t>Survey; Wearable</t>
-  </si>
-  <si>
-    <t>Interview or Focus Group; Molecular (Nucleic Acid/PCR) Testing Device; Wastewater Sampling</t>
-  </si>
-  <si>
-    <t>Unspecified COVID Testing Device</t>
-  </si>
-  <si>
-    <t>Molecular (Nucleic Acid/PCR) Testing Device</t>
-  </si>
-  <si>
-    <t>Antibody Testing / Other Adaptive Immune Response Test; Electrochemical Testing Device</t>
-  </si>
-  <si>
-    <t>Antigen Testing Device</t>
-  </si>
-  <si>
-    <t>Survey; Smartphone</t>
-  </si>
-  <si>
-    <t>Biobank Samples</t>
-  </si>
-  <si>
-    <t>Breath Analysis Device / Airborne Detection Device</t>
-  </si>
-  <si>
-    <t>Survey; Antigen Testing Device; Molecular (Nucleic Acid/PCR) Testing Device</t>
-  </si>
-  <si>
-    <t>Survey; Interview or Focus Group; Molecular (Nucleic Acid/PCR) Testing Device</t>
-  </si>
-  <si>
-    <t>Electrochemical Testing Device</t>
-  </si>
-  <si>
-    <t>Smartphone; Molecular (Nucleic Acid/PCR) Testing Device</t>
-  </si>
-  <si>
-    <t>Survey; Contact Tracing</t>
-  </si>
-  <si>
-    <t>Antigen Testing Device; Breath Analysis Device / Airborne Detection Device</t>
-  </si>
-  <si>
-    <t>Real-World Data</t>
-  </si>
-  <si>
-    <t>Survey; Interview or Focus Group; Antigen Testing Device</t>
-  </si>
-  <si>
-    <t>Chemosensory Testing Device</t>
-  </si>
-  <si>
-    <t>Survey; Molecular (Nucleic Acid/PCR) Testing Device</t>
-  </si>
-  <si>
-    <t>Survey; Interview or Focus Group; Antigen Testing Device; Molecular (Nucleic Acid/PCR) Testing Device</t>
-  </si>
-  <si>
-    <t>Survey; Contact Tracing; Antigen Testing Device</t>
-  </si>
-  <si>
-    <t>Wearable; Real-World Data</t>
-  </si>
-  <si>
-    <t>Survey; Antigen Testing Device</t>
-  </si>
-  <si>
-    <t>Survey; Smartphone; Molecular (Nucleic Acid/PCR) Testing Device</t>
-  </si>
-  <si>
-    <t>Survey; Smartphone; Antigen Testing Device</t>
-  </si>
-  <si>
-    <t>Smartphone; Antigen Testing Device</t>
-  </si>
-  <si>
-    <t>Survey; Interview or Focus Group; Molecular (Nucleic Acid/PCR) Testing Device; Antibody Testing / Other Adaptive Immune Response Test</t>
-  </si>
-  <si>
-    <t>Disease Registry</t>
-  </si>
-  <si>
-    <t>Smartphone; Antigen Testing Device; Molecular (Nucleic Acid/PCR) Testing Device</t>
-  </si>
-  <si>
-    <t>Survey; Wearable; Antigen Testing Device; Molecular (Nucleic Acid/PCR) Testing Device</t>
-  </si>
-  <si>
-    <t>Survey; Smartphone; Antigen Testing Device; Molecular (Nucleic Acid/PCR) Testing Device</t>
-  </si>
-  <si>
-    <t>Survey; Interview or Focus Group; Contact Tracing</t>
-  </si>
-  <si>
-    <t>Survey; Molecular (Nucleic Acid/PCR) Testing Device; Antibody Testing / Other Adaptive Immune Response Test</t>
-  </si>
-  <si>
-    <t>NCI</t>
-  </si>
-  <si>
-    <t>NIMH; NIMHD</t>
-  </si>
-  <si>
-    <t>NIDA</t>
-  </si>
-  <si>
-    <t>NHLBI</t>
-  </si>
-  <si>
-    <t>NINR</t>
-  </si>
-  <si>
-    <t>NIDCR</t>
-  </si>
-  <si>
-    <t>NLM</t>
-  </si>
-  <si>
-    <t>NCI; NIBIB</t>
-  </si>
-  <si>
-    <t>NCI; NHLBI; NIBIB</t>
-  </si>
-  <si>
-    <t>NIA; NIAAA</t>
-  </si>
-  <si>
-    <t>NCATS</t>
-  </si>
-  <si>
-    <t>NICHD</t>
-  </si>
-  <si>
-    <t>NIDDK</t>
-  </si>
-  <si>
-    <t>NIA; NIAID</t>
-  </si>
-  <si>
-    <t>NIMH</t>
-  </si>
-  <si>
-    <t>NIDCD</t>
-  </si>
-  <si>
-    <t>NIGMS</t>
-  </si>
-  <si>
-    <t>NIA; NIAID; NICHD; NIMH</t>
-  </si>
-  <si>
-    <t>NHLBI; NIBIB</t>
-  </si>
-  <si>
-    <t>NIBIB</t>
-  </si>
-  <si>
-    <t>NIA</t>
-  </si>
-  <si>
-    <t>NIEHS</t>
-  </si>
-  <si>
-    <t>NCCIH</t>
-  </si>
-  <si>
-    <t>NIA; NIAMS</t>
-  </si>
-  <si>
-    <t>NDA</t>
-  </si>
-  <si>
-    <t>NIGMS; NIMH</t>
-  </si>
-  <si>
-    <t>Digital Health Applications</t>
-  </si>
-  <si>
-    <t>COVID Hotspots; Digital Health Applications</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; COVID Hotspots; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Substance Use; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Point-of-Care (POC) Testing; Novel Biosensing and VOC; Virological Testing</t>
-  </si>
-  <si>
-    <t>Disease Surveillance; Multimodal Surveillance; Biosensor Technology; Digital Health Applications</t>
-  </si>
-  <si>
-    <t>Disease Surveillance; Virological Testing</t>
-  </si>
-  <si>
-    <t>Wastewater Surveillance; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Screening Testing; Wastewater Surveillance; Next Generation Sequencing (NGS)</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; Virological Testing; Digital Health Applications; Influenza</t>
-  </si>
-  <si>
-    <t>Virological Testing; Serological (Antibody) Testing; Biosensor Technology; Digital Health Applications</t>
-  </si>
-  <si>
-    <t>Biosensor Technology; Digital Health Applications</t>
-  </si>
-  <si>
-    <t>Biosensor Technology; Digital Health Applications; Influenza</t>
-  </si>
-  <si>
-    <t>Wastewater Surveillance; Next Generation Sequencing (NGS)</t>
-  </si>
-  <si>
-    <t>Virological Testing</t>
-  </si>
-  <si>
-    <t>Biosensor Technology</t>
-  </si>
-  <si>
-    <t>Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Social Determinants of Health; Children</t>
-  </si>
-  <si>
-    <t>Point-of-Care (POC) Testing; Virological Testing</t>
-  </si>
-  <si>
-    <t>Disease Surveillance; Multimodal Surveillance; Virological Testing</t>
-  </si>
-  <si>
-    <t>Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Virological Testing; Children</t>
-  </si>
-  <si>
-    <t>Novel Biosensing and VOC; Virological Testing</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Health Behaviors; Virological Testing; Serological (Antibody) Testing</t>
-  </si>
-  <si>
-    <t>Novel Biosensing and VOC; Multimodal Surveillance; Virological Testing</t>
-  </si>
-  <si>
-    <t>Multimodal Surveillance; Virological Testing</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Screening Testing; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Virological Testing; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Virological Testing; Vaccination Rate/Uptake; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Social Determinants of Health</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Health Behaviors; Virological Testing; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Social Determinants of Health</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Health Behaviors; Substance Use; Virological Testing; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Novel Biosensing and VOC; Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Children</t>
-  </si>
-  <si>
-    <t>Wastewater Surveillance; Variants</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Serological (Antibody) Testing; Social Determinants of Health</t>
-  </si>
-  <si>
-    <t>Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Children</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Vaccination Rate/Uptake; Social Determinants of Health</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Virological Testing; Mobile Unit Testing; Vaccination Rate/Uptake; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Mobile Unit Testing; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Screening Testing</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; COVID in School Settings; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Health Behaviors; Virological Testing</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Seroprevalence; Serological (Antibody) Testing; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Health Behaviors; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Point-of-Care (POC) Testing</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Mobile Unit Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Multimodal Surveillance</t>
-  </si>
-  <si>
-    <t>Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Diagnostic Testing; Social Determinants of Health</t>
-  </si>
-  <si>
-    <t>COVID in School Settings</t>
-  </si>
-  <si>
-    <t>Comorbidities; Substance Use; Mobile Unit Testing</t>
-  </si>
-  <si>
-    <t>Novel Biosensing and VOC</t>
-  </si>
-  <si>
-    <t>Novel Biosensing and VOC; Biosensor Technology</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Vaccination Rate/Uptake; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Substance Use; Social Determinants of Health</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Mental Health; Substance Use; Social Determinants of Health</t>
-  </si>
-  <si>
-    <t>Wastewater Surveillance; Virological Testing</t>
-  </si>
-  <si>
-    <t>Diagnostic Testing; Virological Testing</t>
-  </si>
-  <si>
-    <t>Virological Testing; Digital Health Applications</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; COVID in School Settings; Virological Testing</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; Virological Testing</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Virological Testing; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Vaccination Rate/Uptake; Social Determinants of Health</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Disease Surveillance; Virological Testing; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Screening Testing; Social Determinants of Health</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; Substance Use; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; COVID Hotspots; COVID Testing Deserts; Virological Testing; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Point-of-Care (POC) Testing; Social Determinants of Health; Digital Health Applications</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; COVID Hotspots; COVID Testing Deserts; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Vaccination Rate/Uptake; Social Determinants of Health</t>
-  </si>
-  <si>
-    <t>Diagnostic Testing; Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Children</t>
-  </si>
-  <si>
-    <t>Virological Testing; Next Generation Sequencing (NGS)</t>
-  </si>
-  <si>
-    <t>Comorbidities; Vaccination Rate/Uptake</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; Mobile Unit Testing; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; Substance Use; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; COVID in School Settings; Diagnostic Testing; Virological Testing; Serological (Antibody) Testing; Mobile Unit Testing; Vaccination Rate/Uptake</t>
-  </si>
-  <si>
-    <t>Health Behaviors; Substance Use</t>
-  </si>
-  <si>
-    <t>COVID in School Settings; Diagnostic Testing; COVID Hotspots; Social Determinants of Health</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; Point-of-Care (POC) Testing; Mobile Unit Testing; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; Social Determinants of Health; Influenza</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; COVID in School Settings; Disease Surveillance</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; COVID Hotspots; Substance Use; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; Virological Testing; Serological (Antibody) Testing</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; COVID Testing Deserts; Mobile Unit Testing; Vaccination Rate/Uptake; Social Determinants of Health</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; Health Behaviors; Vaccination Rate/Uptake</t>
-  </si>
-  <si>
-    <t>COVID in School Settings; Screening Testing</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Diagnostic Testing</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Mental Health; Serological (Antibody) Testing</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Point-of-Care (POC) Testing; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Vaccination Rate/Uptake</t>
-  </si>
-  <si>
-    <t>Virological Testing; Biosensor Technology</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; COVID in School Settings; Diagnostic Testing</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; Substance Use; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Diagnostic Testing; Digital Health Applications; Influenza</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Long COVID</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Mental Health; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Virological Testing; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; COVID in School Settings; Wastewater Surveillance; Virological Testing</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Vaccination Rate/Uptake; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Seroprevalence; Virological Testing; Serological (Antibody) Testing; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>COVID in School Settings; Virological Testing</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; COVID Testing Deserts; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Virological Testing; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Social Determinants of Health</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; Screening Testing; Virological Testing; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; Health Behaviors; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Digital Health Applications</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Screening Testing; Social Determinants of Health</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Point-of-Care (POC) Testing; Substance Use; Mobile Unit Testing; Social Determinants of Health</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Wastewater Surveillance</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; COVID in School Settings; Mental Health; Virological Testing; Vaccination Rate/Uptake</t>
-  </si>
-  <si>
-    <t>Social Determinants of Health; Community Outreach Programs; Digital Health Applications</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Virological Testing; Vaccination Rate/Uptake</t>
-  </si>
-  <si>
-    <t>Health Behaviors; Biosensor Technology</t>
-  </si>
-  <si>
-    <t>COVID in School Settings; Social Determinants of Health</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; Serological (Antibody) Testing; Vaccination Rate/Uptake; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Virological Testing; Mobile Unit Testing; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; COVID in School Settings; Virological Testing; Vaccination Rate/Uptake; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Social Determinants of Health</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Disease Surveillance; Social Determinants of Health</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; Health Behaviors; Mobile Unit Testing; Vaccination Rate/Uptake; Community Outreach Programs; Influenza</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; Comorbidities; Community Outreach Programs</t>
-  </si>
-  <si>
-    <t>Hispanic and Latino; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Children; School Community Members; People Living with HIV/AIDs; Underserved/Vulnerable Population; Older Adults or Elderly; Adults</t>
-  </si>
-  <si>
-    <t>School Community Members; Intellectual and Developmental Disabilities; Dialysis Patients; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults</t>
-  </si>
-  <si>
-    <t>Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Adults</t>
-  </si>
-  <si>
-    <t>Native Hawaiian or other Pacific Islander; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Older Adults or Elderly; Adults</t>
-  </si>
-  <si>
-    <t>Rural Communities</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Essential Workers; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Children; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Native Hawaiian or other Pacific Islander; Rural Communities; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; African American</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino</t>
-  </si>
-  <si>
-    <t>African American; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Hispanic and Latino; Incarcerated/Institutionalized (or Criminal Legal System Involvement); Rural Communities; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>African American</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>African American; Hispanic and Latino; Lower Socioeconomic Status (SES) Population; Adults</t>
-  </si>
-  <si>
-    <t>Rural Communities; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>African American; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults</t>
-  </si>
-  <si>
-    <t>African American; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Children; Sexual and Gender Minorities; Adults</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Essential Workers; Rural Communities</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Immigrants; African American; Hispanic and Latino; Asian</t>
-  </si>
-  <si>
-    <t>African American; Hispanic and Latino; Dialysis Patients; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>People Living with HIV/AIDs; Sexual and Gender Minorities</t>
-  </si>
-  <si>
-    <t>Hispanic and Latino; Adults</t>
-  </si>
-  <si>
-    <t>Hispanic and Latino; Children; School Community Members</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; African American; Rural Communities; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Immigrants; Homeless/Unhoused; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>African American; Children; Pregnant (or Nursing) Women; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; African American; People Living with HIV/AIDs; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Children; School Community Members; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Native Hawaiian or other Pacific Islander</t>
-  </si>
-  <si>
-    <t>Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>African American; Children; School Community Members</t>
-  </si>
-  <si>
-    <t>Immigrants; Homeless/Unhoused; People Living with HIV/AIDs; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Homeless/Unhoused</t>
-  </si>
-  <si>
-    <t>Children; Underserved/Vulnerable Population; Adults</t>
-  </si>
-  <si>
-    <t>Hispanic and Latino</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>Hispanic and Latino; Essential Workers; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Homeless/Unhoused; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Children; Intellectual and Developmental Disabilities</t>
-  </si>
-  <si>
-    <t>People Living with HIV/AIDs</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Hispanic and Latino; School Community Members; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>African American; Hispanic and Latino; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Hispanic and Latino; Essential Workers; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults</t>
-  </si>
-  <si>
-    <t>African American; Hispanic and Latino; Children; School Community Members</t>
-  </si>
-  <si>
-    <t>Essential Workers; Homeless/Unhoused; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Rural Communities; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Hispanic and Latino; Rural Communities; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Hispanic and Latino; Children; School Community Members; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Children; School Community Members; Intellectual and Developmental Disabilities; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Pregnant (or Nursing) Women</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Hispanic and Latino; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>African American; Children; School Community Members; Intellectual and Developmental Disabilities; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Essential Workers; Older Adults or Elderly; Adults</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Asian</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Immigrants; African American; Hispanic and Latino; Rural Communities; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Children; School Community Members</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Rural Communities; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>African American; Hispanic and Latino; Essential Workers; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Rural Communities; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Incarcerated/Institutionalized (or Criminal Legal System Involvement); Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Dialysis Patients; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; African American; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Incarcerated/Institutionalized (or Criminal Legal System Involvement)</t>
-  </si>
-  <si>
-    <t>Hispanic and Latino; Children; School Community Members; Rural Communities</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Immigrants; Children; School Community Members</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; African American; Children; School Community Members; Intellectual and Developmental Disabilities; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>People Living with HIV/AIDs; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Hispanic and Latino; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Rural Communities; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Hispanic and Latino; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Adults</t>
-  </si>
-  <si>
-    <t>Native Hawaiian or other Pacific Islander; Asian; Children; School Community Members; Rural Communities; Older Adults or Elderly; Adults</t>
-  </si>
-  <si>
-    <t>Essential Workers</t>
-  </si>
-  <si>
-    <t>Homeless/Unhoused; Sexual and Gender Minorities; Rural Communities; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Asian; Essential Workers; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Children; School Community Members; Lower Socioeconomic Status (SES) Population</t>
-  </si>
-  <si>
-    <t>Underserved/Vulnerable Population; Adults</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; African American; Underserved/Vulnerable Population; Adults</t>
-  </si>
-  <si>
-    <t>251-500</t>
-  </si>
-  <si>
-    <t>1-250</t>
-  </si>
-  <si>
-    <t>2,001-5,000</t>
-  </si>
-  <si>
-    <t>501-1,000</t>
-  </si>
-  <si>
-    <t>&gt;5,000</t>
-  </si>
-  <si>
-    <t>No Participants</t>
-  </si>
-  <si>
-    <t>1,001-2,000</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <t>PHS IDs</t>
-  </si>
-  <si>
-    <t>phs002520; phs002521; phs002526; phs002567; phs002568; phs002575; phs002578; phs002581; phs002582; phs002584; phs002601; phs002608; phs002616; phs002618; phs002619; phs002633; phs002634; phs002643; phs002644; phs002645; phs002647; phs002648; phs002649; phs002651; phs002658; phs002660; phs002661; phs002662; phs002704; phs002707; phs002708; phs002713; phs002720; phs002740; phs002741; phs002742; phs002743; phs002745; phs002759; phs002760; phs002761; phs002763; phs002775; phs002776; phs002777; phs002786; phs002791; phs002799; phs002800; phs002821; phs002825; phs002868; phs002869; phs002870; phs002871; phs002872; phs002873; phs002874; phs002875; phs002878; phs002904; phs002905; phs002906; phs002917; phs002920; phs002946; phs002947; phs002948; phs003021; phs003029; phs003030; phs003031; phs003032; phs003033; phs003037; phs003049; phs003050; phs003051; phs003056; phs003057; phs003081; phs003082; phs003083; phs003123; phs003125; phs003126; phs003127; phs003128; phs003234; phs003359; phs003361; phs003362; phs003364; phs003365; phs003366; phs003368; phs003371; phs003373; phs003374; phs003375; phs003376; phs003377; phs003484; phs003504; phs003507; phs003514; phs003515; phs003544; phs003595</t>
-  </si>
-  <si>
-    <t>phs002522; phs002523; phs002524; phs002525; phs002527; phs002542; phs002543; phs002544; phs002546; phs002549; phs002550; phs002551; phs002553; phs002561; phs002563; phs002565; phs002569; phs002570; phs002572; phs002573; phs002583; phs002585; phs002588; phs002600; phs002602; phs002603; phs002604; phs002609; phs002631; phs002642; phs002657; phs002679; phs002685; phs002689; phs002699; phs002700; phs002702; phs002709; phs002729; phs002744; phs002747; phs002778; phs002781; phs002782; phs002924; phs002945; phs002964; phs003124</t>
-  </si>
-  <si>
-    <t>phs002682; phs002736; phs002737; phs002738; phs002739; phs003026; phs003027; phs003237; phs003238; phs003239; phs003360</t>
-  </si>
-  <si>
-    <t>phs002516; phs002519; phs002533; phs002534; phs002535; phs002537; phs002538; phs002539; phs002540; phs002628</t>
-  </si>
-  <si>
-    <t>phs002516; phs002519; phs002520; phs002523; phs002524; phs002525; phs002526; phs002533; phs002534; phs002535; phs002537; phs002538; phs002539; phs002540; phs002549; phs002551; phs002563; phs002567; phs002581; phs002584; phs002585; phs002588; phs002601; phs002603; phs002604; phs002619; phs002633; phs002642; phs002643; phs002648; phs002657; phs002658; phs002660; phs002661; phs002679; phs002685; phs002689; phs002704; phs002708; phs002713; phs002720; phs002729; phs002739; phs002740; phs002743; phs002745; phs002763; phs002775; phs002781; phs002782; phs002791; phs002799; phs002800; phs002821; phs002868; phs002870; phs002872; phs002875; phs002904; phs002905; phs002917; phs002920; phs002924; phs002964; phs003021; phs003026; phs003029; phs003030; phs003031; phs003032; phs003033; phs003037; phs003049; phs003056; phs003081; phs003082; phs003083; phs003123; phs003124; phs003125; phs003126; phs003127; phs003128; phs003237; phs003238; phs003239; phs003359; phs003360; phs003364; phs003366; phs003373; phs003374; phs003376; phs003484; phs003504; phs003507; phs003595</t>
-  </si>
-  <si>
-    <t>phs002575; phs002578; phs002618; phs002628; phs002634; phs002644; phs002741; phs002742; phs002760; phs002825; phs002869; phs002878; phs002946; phs002947; phs003051; phs003057; phs003234; phs003371; phs003514</t>
-  </si>
-  <si>
-    <t>phs002522; phs002542; phs002543; phs002544; phs002546; phs002553; phs002561; phs002565; phs002572; phs002600; phs002682; phs002709; phs002736; phs002737; phs002744</t>
-  </si>
-  <si>
-    <t>phs002616; phs002631; phs002649; phs002662; phs002707; phs002761; phs002777; phs002871; phs002873; phs002874; phs002945; phs003050; phs003362; phs003375; phs003377</t>
-  </si>
-  <si>
-    <t>phs002569; phs002573; phs002609; phs002699; phs002747; phs002759; phs002776; phs002778; phs002786; phs002906; phs002948; phs003365</t>
-  </si>
-  <si>
-    <t>phs002550; phs002570; phs002583; phs002602; phs002700; phs002702; phs002738</t>
-  </si>
-  <si>
-    <t>phs002568; phs002582; phs002608; phs002647; phs003361</t>
-  </si>
-  <si>
-    <t>phs002527; phs003368; phs003515; phs003544</t>
-  </si>
-  <si>
-    <t>phs002521; phs002645</t>
-  </si>
-  <si>
-    <t>Behavioral</t>
-  </si>
-  <si>
-    <t>Social</t>
-  </si>
-  <si>
-    <t>Psychological</t>
-  </si>
-  <si>
-    <t>Family History</t>
-  </si>
-  <si>
     <t>Individual Phenotype</t>
   </si>
   <si>
@@ -1858,9 +1894,6 @@
     <t>Individual Genotype</t>
   </si>
   <si>
-    <t>Immulogical</t>
-  </si>
-  <si>
     <t>phs002516; phs002519; phs002520; phs002521; phs002523; phs002525; phs002526; phs002534; phs002535; phs002537; phs002538; phs002539; phs002540; phs002542; phs002546; phs002549; phs002551; phs002567; phs002568; phs002569; phs002575; phs002578; phs002581; phs002582; phs002584; phs002600; phs002601; phs002608; phs002609; phs002616; phs002618; phs002619; phs002631; phs002633; phs002634; phs002642; phs002643; phs002644; phs002645; phs002647; phs002648; phs002649; phs002651; phs002658; phs002660; phs002661; phs002662; phs002682; phs002699; phs002704; phs002707; phs002708; phs002713; phs002720; phs002736; phs002737; phs002738; phs002739; phs002740; phs002741; phs002742; phs002743; phs002745; phs002759; phs002760; phs002761; phs002763; phs002775; phs002776; phs002777; phs002781; phs002786; phs002791; phs002799; phs002800; phs002821; phs002825; phs002868; phs002869; phs002870; phs002871; phs002872; phs002873; phs002874; phs002875; phs002878; phs002904; phs002905; phs002906; phs002917; phs002920; phs002945; phs002946; phs002947; phs002948; phs002964; phs003021; phs003026; phs003027; phs003029; phs003030; phs003031; phs003032; phs003033; phs003037; phs003049; phs003050; phs003051; phs003056; phs003057; phs003081; phs003082; phs003083; phs003123; phs003125; phs003126; phs003127; phs003128; phs003234; phs003237; phs003238; phs003239; phs003359; phs003360; phs003362; phs003364; phs003365; phs003366; phs003368; phs003371; phs003373; phs003374; phs003375; phs003376; phs003377; phs003484; phs003504; phs003507; phs003514; phs003515; phs003544; phs003595</t>
   </si>
   <si>
@@ -1876,10 +1909,16 @@
     <t>phs002525; phs002535; phs002540; phs002549; phs002569; phs002575; phs002581; phs002585; phs002588; phs002600; phs002601; phs002603; phs002609; phs002616; phs002628; phs002644; phs002657; phs002699; phs002741; phs002747; phs002763; phs002775; phs002781; phs002869; phs002872; phs002905; phs002920; phs002945; phs002964; phs003021; phs003037; phs003083; phs003361; phs003374</t>
   </si>
   <si>
+    <t>phs002522; phs002525; phs002527; phs002543; phs002544; phs002546; phs002549; phs002550; phs002561; phs002563; phs002565; phs002569; phs002570; phs002572; phs002573; phs002583; phs002602; phs002603; phs002633; phs002700; phs002702; phs002745; phs002800; phs003033; phs003037</t>
+  </si>
+  <si>
     <t>phs002519; phs002582; phs002616; phs002634; phs002647; phs002713; phs002740; phs002743; phs002745; phs002761; phs002777; phs002800; phs002821; phs002905; phs002906; phs002917; phs002946; phs003029; phs003374; phs003504; phs003544</t>
   </si>
   <si>
     <t>phs002549; phs002569; phs002634; phs002740; phs002745; phs002763; phs002777; phs002874; phs002875; phs002945; phs003029; phs003128; phs003373; phs003374; phs003504; phs003544</t>
+  </si>
+  <si>
+    <t>phs002525; phs002527; phs002540; phs002542; phs002616; phs002679; phs002729; phs002906; phs002945; phs003029; phs003128; phs003361</t>
   </si>
   <si>
     <t>phs002537; phs002538; phs002539; phs002549; phs002569; phs002588; phs002631; phs002747; phs002791; phs002945</t>
@@ -2550,19 +2589,19 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Cognitive</c:v>
+                  <c:v>Individual Phenotype</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Genomic</c:v>
+                  <c:v>Enviornmental (Physical)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Individual Phenotype</c:v>
+                  <c:v>Family History</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Family History</c:v>
+                  <c:v>Psychological</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Psychological</c:v>
+                  <c:v>Immunological</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Electronic Medical Records</c:v>
@@ -2589,19 +2628,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>34</c:v>
@@ -4097,13 +4136,13 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4118,7 +4157,7 @@
         <v>0.6853932584269663</v>
       </c>
       <c r="D2" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4133,7 +4172,7 @@
         <v>0.2808988764044944</v>
       </c>
       <c r="D3" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4148,7 +4187,7 @@
         <v>0.2078651685393259</v>
       </c>
       <c r="D4" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4163,7 +4202,7 @@
         <v>0.1910112359550562</v>
       </c>
       <c r="D5" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4178,7 +4217,7 @@
         <v>0.0898876404494382</v>
       </c>
       <c r="D6" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4193,7 +4232,7 @@
         <v>0.05056179775280899</v>
       </c>
       <c r="D7" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4208,7 +4247,7 @@
         <v>0.03932584269662921</v>
       </c>
       <c r="D8" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4223,7 +4262,7 @@
         <v>0.03370786516853932</v>
       </c>
       <c r="D9" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4238,7 +4277,7 @@
         <v>0.03370786516853932</v>
       </c>
       <c r="D10" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4253,7 +4292,7 @@
         <v>0.02247191011235955</v>
       </c>
       <c r="D11" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4268,7 +4307,7 @@
         <v>0.01685393258426966</v>
       </c>
       <c r="D12" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4283,7 +4322,7 @@
         <v>0.01123595505617977</v>
       </c>
       <c r="D13" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4298,7 +4337,7 @@
         <v>0.01123595505617977</v>
       </c>
       <c r="D14" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4313,7 +4352,7 @@
         <v>0.01123595505617977</v>
       </c>
       <c r="D15" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4364,13 +4403,13 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4385,7 +4424,7 @@
         <v>0.02247191011235955</v>
       </c>
       <c r="D2" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4400,7 +4439,7 @@
         <v>0.03370786516853932</v>
       </c>
       <c r="D3" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4415,7 +4454,7 @@
         <v>0.03370786516853932</v>
       </c>
       <c r="D4" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4430,7 +4469,7 @@
         <v>0.03932584269662921</v>
       </c>
       <c r="D5" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4445,7 +4484,7 @@
         <v>0.05056179775280899</v>
       </c>
       <c r="D6" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4460,7 +4499,7 @@
         <v>0.0898876404494382</v>
       </c>
       <c r="D7" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4475,7 +4514,7 @@
         <v>0.1910112359550562</v>
       </c>
       <c r="D8" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4490,7 +4529,7 @@
         <v>0.2078651685393259</v>
       </c>
       <c r="D9" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4505,7 +4544,7 @@
         <v>0.2808988764044944</v>
       </c>
       <c r="D10" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4520,7 +4559,7 @@
         <v>0.6853932584269663</v>
       </c>
       <c r="D11" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -4547,13 +4586,13 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4568,7 +4607,7 @@
         <v>0.1685393258426966</v>
       </c>
       <c r="D2" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4583,7 +4622,7 @@
         <v>0.151685393258427</v>
       </c>
       <c r="D3" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4598,7 +4637,7 @@
         <v>0.151685393258427</v>
       </c>
       <c r="D4" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4613,7 +4652,7 @@
         <v>0.1179775280898876</v>
       </c>
       <c r="D5" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4628,7 +4667,7 @@
         <v>0.09550561797752809</v>
       </c>
       <c r="D6" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4643,7 +4682,7 @@
         <v>0.09550561797752809</v>
       </c>
       <c r="D7" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4658,7 +4697,7 @@
         <v>0.0898876404494382</v>
       </c>
       <c r="D8" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4673,7 +4712,7 @@
         <v>0.08426966292134831</v>
       </c>
       <c r="D9" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4688,7 +4727,7 @@
         <v>0.07865168539325842</v>
       </c>
       <c r="D10" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4703,7 +4742,7 @@
         <v>0.0449438202247191</v>
       </c>
       <c r="D11" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4718,7 +4757,7 @@
         <v>0.03932584269662921</v>
       </c>
       <c r="D12" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4733,7 +4772,7 @@
         <v>0.03370786516853932</v>
       </c>
       <c r="D13" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4748,7 +4787,7 @@
         <v>0.03370786516853932</v>
       </c>
       <c r="D14" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4763,7 +4802,7 @@
         <v>0.02808988764044944</v>
       </c>
       <c r="D15" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4778,7 +4817,7 @@
         <v>0.02808988764044944</v>
       </c>
       <c r="D16" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4793,7 +4832,7 @@
         <v>0.01685393258426966</v>
       </c>
       <c r="D17" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4808,7 +4847,7 @@
         <v>0.01685393258426966</v>
       </c>
       <c r="D18" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4823,7 +4862,7 @@
         <v>0.01123595505617977</v>
       </c>
       <c r="D19" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4889,13 +4928,13 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4910,7 +4949,7 @@
         <v>0.0449438202247191</v>
       </c>
       <c r="D2" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4925,7 +4964,7 @@
         <v>0.07865168539325842</v>
       </c>
       <c r="D3" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4940,7 +4979,7 @@
         <v>0.08426966292134831</v>
       </c>
       <c r="D4" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4955,7 +4994,7 @@
         <v>0.0898876404494382</v>
       </c>
       <c r="D5" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4970,7 +5009,7 @@
         <v>0.09550561797752809</v>
       </c>
       <c r="D6" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4985,7 +5024,7 @@
         <v>0.09550561797752809</v>
       </c>
       <c r="D7" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5000,7 +5039,7 @@
         <v>0.1179775280898876</v>
       </c>
       <c r="D8" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5015,7 +5054,7 @@
         <v>0.151685393258427</v>
       </c>
       <c r="D9" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5030,7 +5069,7 @@
         <v>0.151685393258427</v>
       </c>
       <c r="D10" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5045,7 +5084,7 @@
         <v>0.1685393258426966</v>
       </c>
       <c r="D11" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -5072,13 +5111,13 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5093,7 +5132,7 @@
         <v>0.4550561797752809</v>
       </c>
       <c r="D2" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5108,7 +5147,7 @@
         <v>0.3651685393258427</v>
       </c>
       <c r="D3" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5123,7 +5162,7 @@
         <v>0.3370786516853932</v>
       </c>
       <c r="D4" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5138,7 +5177,7 @@
         <v>0.3202247191011236</v>
       </c>
       <c r="D5" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5153,7 +5192,7 @@
         <v>0.2022471910112359</v>
       </c>
       <c r="D6" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5168,7 +5207,7 @@
         <v>0.1910112359550562</v>
       </c>
       <c r="D7" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5183,7 +5222,7 @@
         <v>0.1067415730337079</v>
       </c>
       <c r="D8" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5198,7 +5237,7 @@
         <v>0.09550561797752809</v>
       </c>
       <c r="D9" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5213,7 +5252,7 @@
         <v>0.09550561797752809</v>
       </c>
       <c r="D10" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5228,7 +5267,7 @@
         <v>0.0898876404494382</v>
       </c>
       <c r="D11" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5243,7 +5282,7 @@
         <v>0.06741573033707865</v>
       </c>
       <c r="D12" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5258,7 +5297,7 @@
         <v>0.06741573033707865</v>
       </c>
       <c r="D13" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5273,7 +5312,7 @@
         <v>0.06741573033707865</v>
       </c>
       <c r="D14" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5288,7 +5327,7 @@
         <v>0.06179775280898876</v>
       </c>
       <c r="D15" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5303,7 +5342,7 @@
         <v>0.06179775280898876</v>
       </c>
       <c r="D16" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5318,7 +5357,7 @@
         <v>0.05056179775280899</v>
       </c>
       <c r="D17" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5333,7 +5372,7 @@
         <v>0.05056179775280899</v>
       </c>
       <c r="D18" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5348,7 +5387,7 @@
         <v>0.0449438202247191</v>
       </c>
       <c r="D19" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5363,7 +5402,7 @@
         <v>0.03932584269662921</v>
       </c>
       <c r="D20" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5378,7 +5417,7 @@
         <v>0.03370786516853932</v>
       </c>
       <c r="D21" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5393,7 +5432,7 @@
         <v>0.03370786516853932</v>
       </c>
       <c r="D22" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5408,7 +5447,7 @@
         <v>0.03370786516853932</v>
       </c>
       <c r="D23" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5423,7 +5462,7 @@
         <v>0.03370786516853932</v>
       </c>
       <c r="D24" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5438,7 +5477,7 @@
         <v>0.03370786516853932</v>
       </c>
       <c r="D25" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5453,7 +5492,7 @@
         <v>0.02808988764044944</v>
       </c>
       <c r="D26" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5468,7 +5507,7 @@
         <v>0.02808988764044944</v>
       </c>
       <c r="D27" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5483,7 +5522,7 @@
         <v>0.02247191011235955</v>
       </c>
       <c r="D28" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5498,7 +5537,7 @@
         <v>0.02247191011235955</v>
       </c>
       <c r="D29" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5513,7 +5552,7 @@
         <v>0.01685393258426966</v>
       </c>
       <c r="D30" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5528,7 +5567,7 @@
         <v>0.01123595505617977</v>
       </c>
       <c r="D31" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5543,7 +5582,7 @@
         <v>0.01123595505617977</v>
       </c>
       <c r="D32" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5579,13 +5618,13 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5600,7 +5639,7 @@
         <v>0.0898876404494382</v>
       </c>
       <c r="D2" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5615,7 +5654,7 @@
         <v>0.09550561797752809</v>
       </c>
       <c r="D3" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5630,7 +5669,7 @@
         <v>0.09550561797752809</v>
       </c>
       <c r="D4" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5645,7 +5684,7 @@
         <v>0.1067415730337079</v>
       </c>
       <c r="D5" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5660,7 +5699,7 @@
         <v>0.1910112359550562</v>
       </c>
       <c r="D6" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5675,7 +5714,7 @@
         <v>0.2022471910112359</v>
       </c>
       <c r="D7" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5690,7 +5729,7 @@
         <v>0.3202247191011236</v>
       </c>
       <c r="D8" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5705,7 +5744,7 @@
         <v>0.3370786516853932</v>
       </c>
       <c r="D9" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5720,7 +5759,7 @@
         <v>0.3651685393258427</v>
       </c>
       <c r="D10" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5735,7 +5774,7 @@
         <v>0.4550561797752809</v>
       </c>
       <c r="D11" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -5762,13 +5801,13 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5783,7 +5822,7 @@
         <v>0.2191011235955056</v>
       </c>
       <c r="D2" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5798,7 +5837,7 @@
         <v>0.1573033707865168</v>
       </c>
       <c r="D3" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5813,7 +5852,7 @@
         <v>0.1573033707865168</v>
       </c>
       <c r="D4" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5828,7 +5867,7 @@
         <v>0.151685393258427</v>
       </c>
       <c r="D5" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5843,7 +5882,7 @@
         <v>0.1235955056179775</v>
       </c>
       <c r="D6" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5858,7 +5897,7 @@
         <v>0.1179775280898876</v>
       </c>
       <c r="D7" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5873,7 +5912,7 @@
         <v>0.06741573033707865</v>
       </c>
       <c r="D8" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -5894,13 +5933,13 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5915,7 +5954,7 @@
         <v>0.06741573033707865</v>
       </c>
       <c r="D2" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5930,7 +5969,7 @@
         <v>0.1179775280898876</v>
       </c>
       <c r="D3" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5945,7 +5984,7 @@
         <v>0.1235955056179775</v>
       </c>
       <c r="D4" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5960,7 +5999,7 @@
         <v>0.151685393258427</v>
       </c>
       <c r="D5" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5975,7 +6014,7 @@
         <v>0.1573033707865168</v>
       </c>
       <c r="D6" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5990,7 +6029,7 @@
         <v>0.1573033707865168</v>
       </c>
       <c r="D7" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6005,7 +6044,7 @@
         <v>0.2191011235955056</v>
       </c>
       <c r="D8" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -6032,13 +6071,13 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6053,7 +6092,7 @@
         <v>0.3651685393258427</v>
       </c>
       <c r="D2" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6068,7 +6107,7 @@
         <v>0.2359550561797753</v>
       </c>
       <c r="D3" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6083,7 +6122,7 @@
         <v>0.2191011235955056</v>
       </c>
       <c r="D4" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6098,7 +6137,7 @@
         <v>0.1966292134831461</v>
       </c>
       <c r="D5" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6113,7 +6152,7 @@
         <v>0.1910112359550562</v>
       </c>
       <c r="D6" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6128,7 +6167,7 @@
         <v>0.1629213483146068</v>
       </c>
       <c r="D7" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6143,7 +6182,7 @@
         <v>0.1123595505617977</v>
       </c>
       <c r="D8" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6158,7 +6197,7 @@
         <v>0.101123595505618</v>
       </c>
       <c r="D9" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6173,7 +6212,7 @@
         <v>0.101123595505618</v>
       </c>
       <c r="D10" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6188,7 +6227,7 @@
         <v>0.06179775280898876</v>
       </c>
       <c r="D11" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6203,7 +6242,7 @@
         <v>0.05617977528089887</v>
       </c>
       <c r="D12" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6218,7 +6257,7 @@
         <v>0.03932584269662921</v>
       </c>
       <c r="D13" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6233,7 +6272,7 @@
         <v>0.03370786516853932</v>
       </c>
       <c r="D14" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6248,7 +6287,7 @@
         <v>0.02808988764044944</v>
       </c>
       <c r="D15" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6263,7 +6302,7 @@
         <v>0.02808988764044944</v>
       </c>
       <c r="D16" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6278,7 +6317,7 @@
         <v>0.02808988764044944</v>
       </c>
       <c r="D17" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6293,7 +6332,7 @@
         <v>0.02808988764044944</v>
       </c>
       <c r="D18" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6308,7 +6347,7 @@
         <v>0.02808988764044944</v>
       </c>
       <c r="D19" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6323,7 +6362,7 @@
         <v>0.01685393258426966</v>
       </c>
       <c r="D20" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6338,7 +6377,7 @@
         <v>0.01685393258426966</v>
       </c>
       <c r="D21" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6353,7 +6392,7 @@
         <v>0.01123595505617977</v>
       </c>
       <c r="D22" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
     </row>
   </sheetData>
@@ -6374,13 +6413,13 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6395,7 +6434,7 @@
         <v>0.06179775280898876</v>
       </c>
       <c r="D2" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6410,7 +6449,7 @@
         <v>0.101123595505618</v>
       </c>
       <c r="D3" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6425,7 +6464,7 @@
         <v>0.101123595505618</v>
       </c>
       <c r="D4" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6440,7 +6479,7 @@
         <v>0.1123595505617977</v>
       </c>
       <c r="D5" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6455,7 +6494,7 @@
         <v>0.1629213483146068</v>
       </c>
       <c r="D6" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6470,7 +6509,7 @@
         <v>0.1910112359550562</v>
       </c>
       <c r="D7" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6485,7 +6524,7 @@
         <v>0.1966292134831461</v>
       </c>
       <c r="D8" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6500,7 +6539,7 @@
         <v>0.2191011235955056</v>
       </c>
       <c r="D9" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6515,7 +6554,7 @@
         <v>0.2359550561797753</v>
       </c>
       <c r="D10" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6530,7 +6569,7 @@
         <v>0.3651685393258427</v>
       </c>
       <c r="D11" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -6613,16 +6652,16 @@
         <v>226</v>
       </c>
       <c r="E2" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="F2" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="G2" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="I2" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J2">
         <v>300</v>
@@ -6642,16 +6681,16 @@
         <v>227</v>
       </c>
       <c r="E3" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="F3" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="G3" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="I3" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J3">
         <v>40</v>
@@ -6671,19 +6710,19 @@
         <v>228</v>
       </c>
       <c r="E4" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G4" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="H4" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="I4" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J4">
         <v>132</v>
@@ -6703,19 +6742,19 @@
         <v>229</v>
       </c>
       <c r="E5" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F5" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G5" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="H5" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="I5" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="J5">
         <v>4000</v>
@@ -6731,14 +6770,17 @@
       <c r="C6" t="s">
         <v>217</v>
       </c>
+      <c r="D6" t="s">
+        <v>230</v>
+      </c>
       <c r="F6" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G6" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="I6" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J6">
         <v>20</v>
@@ -6755,22 +6797,22 @@
         <v>215</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="F7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="G7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="H7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="I7" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="J7">
         <v>3700</v>
@@ -6787,22 +6829,22 @@
         <v>215</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E8" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="F8" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="G8" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="H8" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="I8" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J8">
         <v>800</v>
@@ -6819,22 +6861,22 @@
         <v>215</v>
       </c>
       <c r="D9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E9" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="F9" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G9" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="H9" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="I9" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J9">
         <v>30000</v>
@@ -6851,22 +6893,22 @@
         <v>215</v>
       </c>
       <c r="D10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E10" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F10" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G10" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="H10" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="I10" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J10">
         <v>7000</v>
@@ -6883,19 +6925,19 @@
         <v>218</v>
       </c>
       <c r="D11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E11" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="F11" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="G11" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="I11" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6912,16 +6954,16 @@
         <v>215</v>
       </c>
       <c r="E12" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="F12" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="G12" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="I12" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -6938,22 +6980,22 @@
         <v>215</v>
       </c>
       <c r="D13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E13" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F13" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="G13" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="H13" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="I13" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -6970,22 +7012,22 @@
         <v>215</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E14" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="F14" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="G14" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="H14" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="I14" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J14">
         <v>23</v>
@@ -7002,19 +7044,19 @@
         <v>215</v>
       </c>
       <c r="D15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E15" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F15" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="G15" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="I15" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J15">
         <v>95</v>
@@ -7031,19 +7073,19 @@
         <v>215</v>
       </c>
       <c r="D16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E16" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="F16" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="G16" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="I16" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="J16">
         <v>3034</v>
@@ -7060,19 +7102,19 @@
         <v>215</v>
       </c>
       <c r="D17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E17" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F17" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="G17" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="I17" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="J17">
         <v>4312</v>
@@ -7089,19 +7131,19 @@
         <v>215</v>
       </c>
       <c r="D18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E18" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="F18" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="G18" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="I18" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J18">
         <v>627</v>
@@ -7118,22 +7160,22 @@
         <v>217</v>
       </c>
       <c r="D19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E19" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="F19" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G19" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="H19" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="I19" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J19">
         <v>24</v>
@@ -7149,17 +7191,20 @@
       <c r="C20" t="s">
         <v>217</v>
       </c>
+      <c r="D20" t="s">
+        <v>230</v>
+      </c>
       <c r="E20" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="F20" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="G20" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="I20" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -7176,19 +7221,19 @@
         <v>217</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E21" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="F21" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G21" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="I21" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -7205,19 +7250,19 @@
         <v>217</v>
       </c>
       <c r="D22" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E22" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F22" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="G22" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="I22" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -7234,22 +7279,22 @@
         <v>215</v>
       </c>
       <c r="D23" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E23" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="F23" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G23" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="H23" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="I23" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="J23">
         <v>1004</v>
@@ -7265,17 +7310,20 @@
       <c r="C24" t="s">
         <v>219</v>
       </c>
+      <c r="D24" t="s">
+        <v>230</v>
+      </c>
       <c r="E24" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="F24" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="G24" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="I24" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -7292,22 +7340,22 @@
         <v>215</v>
       </c>
       <c r="D25" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E25" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="F25" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G25" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="H25" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="I25" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="J25">
         <v>3864</v>
@@ -7324,22 +7372,22 @@
         <v>217</v>
       </c>
       <c r="D26" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E26" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="F26" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G26" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="H26" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="I26" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J26">
         <v>16445</v>
@@ -7355,11 +7403,14 @@
       <c r="C27" t="s">
         <v>217</v>
       </c>
+      <c r="D27" t="s">
+        <v>230</v>
+      </c>
       <c r="E27" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="I27" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J27">
         <v>800</v>
@@ -7375,17 +7426,20 @@
       <c r="C28" t="s">
         <v>215</v>
       </c>
+      <c r="D28" t="s">
+        <v>230</v>
+      </c>
       <c r="E28" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="F28" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G28" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="I28" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J28">
         <v>900</v>
@@ -7401,17 +7455,20 @@
       <c r="C29" t="s">
         <v>217</v>
       </c>
+      <c r="D29" t="s">
+        <v>230</v>
+      </c>
       <c r="E29" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="F29" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="G29" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="I29" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="J29">
         <v>1200</v>
@@ -7428,22 +7485,22 @@
         <v>215</v>
       </c>
       <c r="D30" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E30" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="F30" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G30" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="H30" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="I30" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J30">
         <v>400</v>
@@ -7460,22 +7517,22 @@
         <v>220</v>
       </c>
       <c r="D31" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E31" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="F31" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="G31" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="H31" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="I31" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J31">
         <v>30</v>
@@ -7492,19 +7549,19 @@
         <v>221</v>
       </c>
       <c r="D32" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E32" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F32" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="H32" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="I32" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -7520,17 +7577,20 @@
       <c r="C33" t="s">
         <v>219</v>
       </c>
+      <c r="D33" t="s">
+        <v>230</v>
+      </c>
       <c r="E33" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="F33" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="G33" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="I33" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J33">
         <v>23</v>
@@ -7546,14 +7606,17 @@
       <c r="C34" t="s">
         <v>217</v>
       </c>
+      <c r="D34" t="s">
+        <v>230</v>
+      </c>
       <c r="F34" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="G34" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="I34" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -7569,17 +7632,20 @@
       <c r="C35" t="s">
         <v>221</v>
       </c>
+      <c r="D35" t="s">
+        <v>230</v>
+      </c>
       <c r="E35" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="F35" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="G35" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="I35" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J35">
         <v>95</v>
@@ -7596,22 +7662,22 @@
         <v>222</v>
       </c>
       <c r="D36" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E36" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F36" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G36" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="H36" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="I36" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J36">
         <v>83000</v>
@@ -7628,22 +7694,22 @@
         <v>222</v>
       </c>
       <c r="D37" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E37" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="F37" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="G37" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="H37" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="I37" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J37">
         <v>960</v>
@@ -7660,22 +7726,22 @@
         <v>215</v>
       </c>
       <c r="D38" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E38" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F38" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="G38" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="H38" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="I38" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="J38">
         <v>1050</v>
@@ -7692,22 +7758,22 @@
         <v>220</v>
       </c>
       <c r="D39" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E39" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F39" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="G39" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="H39" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="I39" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J39">
         <v>500</v>
@@ -7723,17 +7789,20 @@
       <c r="C40" t="s">
         <v>219</v>
       </c>
+      <c r="D40" t="s">
+        <v>230</v>
+      </c>
       <c r="E40" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="F40" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G40" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="I40" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J40">
         <v>500</v>
@@ -7753,19 +7822,19 @@
         <v>229</v>
       </c>
       <c r="E41" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F41" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G41" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="H41" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="I41" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J41">
         <v>11200</v>
@@ -7782,22 +7851,22 @@
         <v>215</v>
       </c>
       <c r="D42" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E42" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="F42" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G42" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="H42" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="I42" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J42">
         <v>7200</v>
@@ -7814,19 +7883,19 @@
         <v>215</v>
       </c>
       <c r="D43" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E43" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="F43" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G43" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="I43" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J43">
         <v>400</v>
@@ -7843,19 +7912,19 @@
         <v>217</v>
       </c>
       <c r="D44" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E44" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="F44" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G44" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="I44" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J44">
         <v>700</v>
@@ -7872,22 +7941,22 @@
         <v>215</v>
       </c>
       <c r="D45" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E45" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F45" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G45" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="H45" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="I45" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="J45">
         <v>2400</v>
@@ -7903,14 +7972,17 @@
       <c r="C46" t="s">
         <v>219</v>
       </c>
+      <c r="D46" t="s">
+        <v>230</v>
+      </c>
       <c r="F46" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G46" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="I46" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J46">
         <v>50</v>
@@ -7927,22 +7999,22 @@
         <v>215</v>
       </c>
       <c r="D47" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E47" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="F47" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G47" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="H47" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="I47" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J47">
         <v>150</v>
@@ -7959,19 +8031,19 @@
         <v>215</v>
       </c>
       <c r="D48" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E48" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="F48" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G48" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="I48" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J48">
         <v>100</v>
@@ -7991,19 +8063,19 @@
         <v>228</v>
       </c>
       <c r="E49" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F49" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G49" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="H49" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="I49" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="J49">
         <v>2050</v>
@@ -8020,22 +8092,22 @@
         <v>221</v>
       </c>
       <c r="D50" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E50" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="F50" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G50" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="H50" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="I50" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J50">
         <v>660</v>
@@ -8052,22 +8124,22 @@
         <v>223</v>
       </c>
       <c r="D51" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E51" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="F51" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G51" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="H51" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="I51" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J51">
         <v>500</v>
@@ -8084,22 +8156,22 @@
         <v>222</v>
       </c>
       <c r="D52" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E52" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F52" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="G52" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="H52" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="I52" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J52">
         <v>800</v>
@@ -8116,22 +8188,22 @@
         <v>215</v>
       </c>
       <c r="D53" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E53" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="F53" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G53" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="H53" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="I53" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="J53">
         <v>3000</v>
@@ -8148,19 +8220,19 @@
         <v>222</v>
       </c>
       <c r="D54" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E54" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F54" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="G54" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="I54" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J54">
         <v>1000</v>
@@ -8177,22 +8249,22 @@
         <v>223</v>
       </c>
       <c r="D55" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E55" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="F55" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="G55" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="H55" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="I55" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="J55">
         <v>2000</v>
@@ -8209,22 +8281,22 @@
         <v>215</v>
       </c>
       <c r="D56" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="E56" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="F56" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="G56" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="H56" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="I56" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="J56">
         <v>2000</v>
@@ -8241,19 +8313,19 @@
         <v>222</v>
       </c>
       <c r="D57" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E57" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="G57" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="H57" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="I57" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J57">
         <v>670</v>
@@ -8270,16 +8342,16 @@
         <v>215</v>
       </c>
       <c r="D58" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E58" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="F58" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="I58" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="J58">
         <v>2750</v>
@@ -8299,19 +8371,19 @@
         <v>229</v>
       </c>
       <c r="E59" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="F59" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G59" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="H59" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="I59" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="J59">
         <v>2000</v>
@@ -8328,22 +8400,22 @@
         <v>222</v>
       </c>
       <c r="D60" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E60" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F60" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G60" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="H60" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="I60" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J60">
         <v>6000</v>
@@ -8360,22 +8432,22 @@
         <v>216</v>
       </c>
       <c r="D61" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E61" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="F61" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="G61" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="H61" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="I61" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="J61">
         <v>5000</v>
@@ -8392,22 +8464,22 @@
         <v>220</v>
       </c>
       <c r="D62" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E62" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F62" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="G62" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="H62" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="I62" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="J62">
         <v>1250</v>
@@ -8424,22 +8496,22 @@
         <v>215</v>
       </c>
       <c r="D63" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E63" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="F63" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="G63" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="H63" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="I63" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J63">
         <v>227</v>
@@ -8459,19 +8531,19 @@
         <v>229</v>
       </c>
       <c r="E64" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="F64" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="G64" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="H64" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="I64" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J64">
         <v>15000</v>
@@ -8488,22 +8560,22 @@
         <v>224</v>
       </c>
       <c r="D65" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E65" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F65" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G65" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="H65" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="I65" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="J65">
         <v>3034</v>
@@ -8520,22 +8592,22 @@
         <v>215</v>
       </c>
       <c r="D66" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E66" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="F66" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="G66" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="H66" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="I66" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J66">
         <v>120</v>
@@ -8555,19 +8627,19 @@
         <v>226</v>
       </c>
       <c r="E67" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F67" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="G67" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="H67" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="I67" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="J67">
         <v>2000</v>
@@ -8587,19 +8659,19 @@
         <v>226</v>
       </c>
       <c r="E68" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F68" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G68" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="H68" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="I68" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="J68">
         <v>4312</v>
@@ -8619,19 +8691,19 @@
         <v>228</v>
       </c>
       <c r="E69" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F69" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G69" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="H69" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="I69" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J69">
         <v>627</v>
@@ -8648,19 +8720,19 @@
         <v>223</v>
       </c>
       <c r="D70" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E70" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="G70" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="H70" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="I70" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J70">
         <v>300</v>
@@ -8677,19 +8749,19 @@
         <v>215</v>
       </c>
       <c r="D71" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E71" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="F71" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G71" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="I71" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J71">
         <v>108</v>
@@ -8706,19 +8778,19 @@
         <v>217</v>
       </c>
       <c r="D72" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E72" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="F72" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="G72" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="I72" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J72">
         <v>488</v>
@@ -8735,13 +8807,13 @@
         <v>215</v>
       </c>
       <c r="E73" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="G73" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="I73" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J73">
         <v>10</v>
@@ -8758,13 +8830,13 @@
         <v>215</v>
       </c>
       <c r="E74" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="F74" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="I74" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J74">
         <v>60</v>
@@ -8781,16 +8853,16 @@
         <v>221</v>
       </c>
       <c r="D75" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E75" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="F75" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="I75" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J75">
         <v>16360</v>
@@ -8806,17 +8878,20 @@
       <c r="C76" t="s">
         <v>219</v>
       </c>
+      <c r="D76" t="s">
+        <v>230</v>
+      </c>
       <c r="E76" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="F76" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="G76" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="I76" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J76">
         <v>24</v>
@@ -8832,14 +8907,17 @@
       <c r="C77" t="s">
         <v>219</v>
       </c>
+      <c r="D77" t="s">
+        <v>230</v>
+      </c>
       <c r="F77" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="G77" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="I77" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -8856,22 +8934,22 @@
         <v>215</v>
       </c>
       <c r="D78" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E78" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F78" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="G78" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="H78" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="I78" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="J78">
         <v>2000</v>
@@ -8891,19 +8969,19 @@
         <v>228</v>
       </c>
       <c r="E79" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F79" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="G79" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="H79" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="I79" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="J79">
         <v>2025</v>
@@ -8920,22 +8998,22 @@
         <v>215</v>
       </c>
       <c r="D80" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E80" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F80" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="G80" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="H80" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="I80" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J80">
         <v>10000</v>
@@ -8952,16 +9030,16 @@
         <v>217</v>
       </c>
       <c r="D81" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E81" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="F81" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="I81" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J81">
         <v>100</v>
@@ -8978,22 +9056,22 @@
         <v>215</v>
       </c>
       <c r="D82" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E82" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F82" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="G82" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="H82" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="I82" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J82">
         <v>150</v>
@@ -9010,22 +9088,22 @@
         <v>215</v>
       </c>
       <c r="D83" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E83" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="F83" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G83" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="H83" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="I83" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J83">
         <v>250</v>
@@ -9042,19 +9120,19 @@
         <v>215</v>
       </c>
       <c r="D84" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="E84" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="F84" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G84" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="I84" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J84">
         <v>20</v>
@@ -9071,19 +9149,19 @@
         <v>217</v>
       </c>
       <c r="D85" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E85" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="F85" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="G85" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="I85" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J85">
         <v>341</v>
@@ -9100,19 +9178,19 @@
         <v>217</v>
       </c>
       <c r="D86" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E86" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="F86" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="G86" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="I86" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J86">
         <v>285</v>
@@ -9129,19 +9207,19 @@
         <v>219</v>
       </c>
       <c r="D87" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E87" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="F87" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="G87" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="I87" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J87">
         <v>187</v>
@@ -9161,16 +9239,16 @@
         <v>229</v>
       </c>
       <c r="E88" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="F88" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="G88" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="I88" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J88">
         <v>206</v>
@@ -9187,22 +9265,22 @@
         <v>215</v>
       </c>
       <c r="D89" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E89" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F89" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G89" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="H89" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="I89" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J89">
         <v>750</v>
@@ -9219,22 +9297,22 @@
         <v>222</v>
       </c>
       <c r="D90" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E90" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="F90" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G90" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="H90" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="I90" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J90">
         <v>650</v>
@@ -9254,19 +9332,19 @@
         <v>229</v>
       </c>
       <c r="E91" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="F91" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="G91" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="H91" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="I91" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="J91">
         <v>4800</v>
@@ -9283,22 +9361,22 @@
         <v>215</v>
       </c>
       <c r="D92" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E92" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F92" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="G92" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="H92" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="I92" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J92">
         <v>200</v>
@@ -9315,19 +9393,19 @@
         <v>217</v>
       </c>
       <c r="D93" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E93" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F93" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="G93" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="I93" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -9344,22 +9422,22 @@
         <v>215</v>
       </c>
       <c r="D94" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E94" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="F94" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G94" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="H94" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="I94" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="J94">
         <v>1800</v>
@@ -9376,19 +9454,19 @@
         <v>221</v>
       </c>
       <c r="D95" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E95" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="F95" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G95" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="I95" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J95">
         <v>760</v>
@@ -9405,22 +9483,22 @@
         <v>221</v>
       </c>
       <c r="D96" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E96" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F96" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G96" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="H96" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="I96" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="J96">
         <v>5000</v>
@@ -9440,19 +9518,19 @@
         <v>226</v>
       </c>
       <c r="E97" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="F97" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G97" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="H97" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="I97" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J97">
         <v>1000</v>
@@ -9472,19 +9550,19 @@
         <v>227</v>
       </c>
       <c r="E98" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F98" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G98" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="H98" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="I98" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J98">
         <v>980</v>
@@ -9501,22 +9579,22 @@
         <v>215</v>
       </c>
       <c r="D99" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E99" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="F99" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="G99" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="H99" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="I99" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J99">
         <v>7000</v>
@@ -9533,22 +9611,22 @@
         <v>215</v>
       </c>
       <c r="D100" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E100" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F100" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="G100" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="H100" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="I100" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J100">
         <v>100000</v>
@@ -9568,19 +9646,19 @@
         <v>229</v>
       </c>
       <c r="E101" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F101" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G101" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="H101" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="I101" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J101">
         <v>240</v>
@@ -9597,22 +9675,22 @@
         <v>223</v>
       </c>
       <c r="D102" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E102" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F102" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="G102" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="H102" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="I102" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J102">
         <v>500</v>
@@ -9629,19 +9707,19 @@
         <v>221</v>
       </c>
       <c r="D103" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E103" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="F103" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G103" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="I103" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J103">
         <v>200</v>
@@ -9658,22 +9736,22 @@
         <v>215</v>
       </c>
       <c r="D104" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E104" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="F104" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G104" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="H104" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="I104" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J104">
         <v>800</v>
@@ -9690,16 +9768,16 @@
         <v>215</v>
       </c>
       <c r="D105" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F105" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="G105" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="I105" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J105">
         <v>200</v>
@@ -9716,22 +9794,22 @@
         <v>221</v>
       </c>
       <c r="D106" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E106" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F106" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="G106" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="H106" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="I106" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="J106">
         <v>1235</v>
@@ -9748,22 +9826,22 @@
         <v>215</v>
       </c>
       <c r="D107" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E107" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F107" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="G107" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="H107" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="I107" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J107">
         <v>22000</v>
@@ -9780,22 +9858,22 @@
         <v>215</v>
       </c>
       <c r="D108" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E108" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="F108" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G108" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="H108" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="I108" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J108">
         <v>500</v>
@@ -9812,22 +9890,22 @@
         <v>215</v>
       </c>
       <c r="D109" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E109" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="F109" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G109" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="H109" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="I109" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J109">
         <v>450</v>
@@ -9847,19 +9925,19 @@
         <v>227</v>
       </c>
       <c r="E110" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F110" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G110" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="H110" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="I110" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J110">
         <v>400</v>
@@ -9876,22 +9954,22 @@
         <v>222</v>
       </c>
       <c r="D111" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E111" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="F111" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G111" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="H111" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="I111" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J111">
         <v>5600</v>
@@ -9908,22 +9986,22 @@
         <v>215</v>
       </c>
       <c r="D112" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E112" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F112" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G112" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="H112" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="I112" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="J112">
         <v>1400</v>
@@ -9940,22 +10018,22 @@
         <v>222</v>
       </c>
       <c r="D113" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E113" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F113" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="G113" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="H113" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="I113" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J113">
         <v>6000</v>
@@ -9972,22 +10050,22 @@
         <v>215</v>
       </c>
       <c r="D114" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E114" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F114" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G114" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H114" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="I114" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J114">
         <v>1000</v>
@@ -10007,19 +10085,19 @@
         <v>228</v>
       </c>
       <c r="E115" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="F115" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="G115" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="H115" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="I115" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J115">
         <v>35000</v>
@@ -10036,22 +10114,22 @@
         <v>215</v>
       </c>
       <c r="D116" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E116" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="F116" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="G116" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="H116" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="I116" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J116">
         <v>125000</v>
@@ -10068,22 +10146,22 @@
         <v>223</v>
       </c>
       <c r="D117" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E117" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F117" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="G117" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="H117" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="I117" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -10100,22 +10178,22 @@
         <v>223</v>
       </c>
       <c r="D118" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E118" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F118" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G118" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="H118" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="I118" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="J118">
         <v>2930</v>
@@ -10132,22 +10210,22 @@
         <v>215</v>
       </c>
       <c r="D119" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E119" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F119" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G119" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="H119" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="I119" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J119">
         <v>487</v>
@@ -10164,22 +10242,22 @@
         <v>222</v>
       </c>
       <c r="D120" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E120" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="F120" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G120" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="H120" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="I120" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J120">
         <v>9000</v>
@@ -10196,22 +10274,22 @@
         <v>215</v>
       </c>
       <c r="D121" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E121" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="F121" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G121" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="H121" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="I121" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="J121">
         <v>3000</v>
@@ -10228,22 +10306,22 @@
         <v>215</v>
       </c>
       <c r="D122" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E122" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F122" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G122" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="H122" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="I122" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J122">
         <v>420</v>
@@ -10260,22 +10338,22 @@
         <v>221</v>
       </c>
       <c r="D123" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E123" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F123" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G123" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="H123" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="I123" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J123">
         <v>810</v>
@@ -10292,22 +10370,22 @@
         <v>215</v>
       </c>
       <c r="D124" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E124" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F124" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G124" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="H124" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="I124" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J124">
         <v>300</v>
@@ -10324,22 +10402,22 @@
         <v>215</v>
       </c>
       <c r="D125" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E125" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F125" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="G125" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="H125" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="I125" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J125">
         <v>128</v>
@@ -10356,13 +10434,13 @@
         <v>215</v>
       </c>
       <c r="F126" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G126" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="I126" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J126">
         <v>50</v>
@@ -10379,22 +10457,22 @@
         <v>223</v>
       </c>
       <c r="D127" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E127" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="F127" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G127" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="H127" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="I127" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J127">
         <v>900</v>
@@ -10411,22 +10489,22 @@
         <v>222</v>
       </c>
       <c r="D128" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E128" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F128" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G128" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="H128" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="I128" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J128">
         <v>290</v>
@@ -10443,22 +10521,22 @@
         <v>222</v>
       </c>
       <c r="D129" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E129" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="F129" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G129" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="H129" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="I129" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J129">
         <v>350</v>
@@ -10475,22 +10553,22 @@
         <v>221</v>
       </c>
       <c r="D130" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E130" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F130" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G130" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="H130" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="I130" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J130">
         <v>7000</v>
@@ -10507,22 +10585,22 @@
         <v>215</v>
       </c>
       <c r="D131" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E131" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="F131" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="G131" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="H131" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="I131" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J131">
         <v>6000</v>
@@ -10539,22 +10617,22 @@
         <v>215</v>
       </c>
       <c r="D132" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E132" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F132" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G132" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="H132" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="I132" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="J132">
         <v>1400</v>
@@ -10574,13 +10652,13 @@
         <v>229</v>
       </c>
       <c r="E133" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="F133" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="I133" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J133">
         <v>200</v>
@@ -10600,16 +10678,16 @@
         <v>229</v>
       </c>
       <c r="E134" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="F134" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="G134" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="I134" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="J134">
         <v>1721</v>
@@ -10626,22 +10704,22 @@
         <v>215</v>
       </c>
       <c r="D135" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="E135" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F135" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G135" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="H135" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="I135" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="J135">
         <v>1090</v>
@@ -10658,22 +10736,22 @@
         <v>215</v>
       </c>
       <c r="D136" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E136" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F136" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G136" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="H136" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="I136" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="J136">
         <v>1200</v>
@@ -10690,22 +10768,22 @@
         <v>215</v>
       </c>
       <c r="D137" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E137" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F137" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G137" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="H137" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="I137" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="J137">
         <v>1800</v>
@@ -10725,19 +10803,19 @@
         <v>226</v>
       </c>
       <c r="E138" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F138" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="G138" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="H138" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="I138" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J138">
         <v>105</v>
@@ -10754,22 +10832,22 @@
         <v>215</v>
       </c>
       <c r="D139" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="E139" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F139" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="G139" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="H139" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="I139" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="J139">
         <v>1200</v>
@@ -10786,22 +10864,22 @@
         <v>215</v>
       </c>
       <c r="D140" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="E140" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F140" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G140" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="H140" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="I140" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="J140">
         <v>1004</v>
@@ -10818,22 +10896,22 @@
         <v>215</v>
       </c>
       <c r="D141" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E141" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="F141" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G141" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="H141" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="I141" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J141">
         <v>300</v>
@@ -10853,19 +10931,19 @@
         <v>228</v>
       </c>
       <c r="E142" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F142" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="G142" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="H142" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="I142" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="J142">
         <v>4900</v>
@@ -10885,19 +10963,19 @@
         <v>228</v>
       </c>
       <c r="E143" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F143" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G143" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="H143" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="I143" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J143">
         <v>448</v>
@@ -10914,22 +10992,22 @@
         <v>215</v>
       </c>
       <c r="D144" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E144" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F144" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G144" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="H144" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="I144" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="J144">
         <v>2400</v>
@@ -10946,22 +11024,22 @@
         <v>222</v>
       </c>
       <c r="D145" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F145" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="G145" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="H145" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="I145" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J145">
         <v>200</v>
@@ -10978,22 +11056,22 @@
         <v>215</v>
       </c>
       <c r="D146" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F146" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G146" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="H146" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="I146" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J146">
         <v>30</v>
@@ -11013,19 +11091,19 @@
         <v>229</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F147" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G147" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="H147" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="I147" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J147">
         <v>508</v>
@@ -11042,22 +11120,22 @@
         <v>215</v>
       </c>
       <c r="D148" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E148" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="F148" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="G148" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="H148" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="I148" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="J148">
         <v>2480</v>
@@ -11074,22 +11152,22 @@
         <v>215</v>
       </c>
       <c r="D149" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E149" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="F149" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G149" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="H149" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="I149" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J149">
         <v>500</v>
@@ -11106,16 +11184,16 @@
         <v>215</v>
       </c>
       <c r="D150" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F150" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G150" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="I150" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -11132,22 +11210,22 @@
         <v>215</v>
       </c>
       <c r="D151" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E151" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F151" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="G151" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="H151" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="I151" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J151">
         <v>98</v>
@@ -11164,22 +11242,22 @@
         <v>215</v>
       </c>
       <c r="D152" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E152" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F152" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G152" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="H152" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="I152" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J152">
         <v>40</v>
@@ -11196,22 +11274,22 @@
         <v>215</v>
       </c>
       <c r="D153" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E153" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G153" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="H153" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="I153" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J153">
         <v>900</v>
@@ -11228,22 +11306,22 @@
         <v>215</v>
       </c>
       <c r="D154" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="E154" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="F154" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G154" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="H154" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="I154" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J154">
         <v>800</v>
@@ -11263,19 +11341,19 @@
         <v>228</v>
       </c>
       <c r="E155" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F155" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G155" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="H155" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="I155" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J155">
         <v>800</v>
@@ -11295,13 +11373,13 @@
         <v>229</v>
       </c>
       <c r="E156" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="F156" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="I156" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J156">
         <v>7361</v>
@@ -11321,16 +11399,16 @@
         <v>229</v>
       </c>
       <c r="E157" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="F157" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="G157" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="I157" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="J157">
         <v>3864</v>
@@ -11350,13 +11428,13 @@
         <v>229</v>
       </c>
       <c r="E158" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="F158" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="I158" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J158">
         <v>619</v>
@@ -11373,22 +11451,22 @@
         <v>215</v>
       </c>
       <c r="D159" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E159" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F159" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G159" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="H159" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="I159" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J159">
         <v>6200</v>
@@ -11405,19 +11483,19 @@
         <v>215</v>
       </c>
       <c r="D160" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E160" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="F160" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="H160" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="I160" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J160">
         <v>300</v>
@@ -11434,22 +11512,22 @@
         <v>220</v>
       </c>
       <c r="D161" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="E161" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="F161" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G161" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="H161" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="I161" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J161">
         <v>16445</v>
@@ -11466,22 +11544,22 @@
         <v>223</v>
       </c>
       <c r="D162" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E162" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="F162" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G162" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="H162" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="I162" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J162">
         <v>390</v>
@@ -11498,22 +11576,22 @@
         <v>215</v>
       </c>
       <c r="D163" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="F163" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G163" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="H163" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="I163" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="J163">
         <v>1500</v>
@@ -11530,22 +11608,22 @@
         <v>221</v>
       </c>
       <c r="D164" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E164" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F164" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G164" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="H164" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="I164" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J164">
         <v>500</v>
@@ -11562,19 +11640,19 @@
         <v>215</v>
       </c>
       <c r="D165" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="G165" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="H165" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="I165" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J165">
         <v>20000</v>
@@ -11591,22 +11669,22 @@
         <v>218</v>
       </c>
       <c r="D166" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E166" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F166" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G166" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="H166" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="I166" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J166">
         <v>40000</v>
@@ -11623,22 +11701,22 @@
         <v>222</v>
       </c>
       <c r="D167" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E167" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F167" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="G167" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="H167" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="I167" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J167">
         <v>300</v>
@@ -11655,22 +11733,22 @@
         <v>215</v>
       </c>
       <c r="D168" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="E168" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F168" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="G168" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="H168" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="I168" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J168">
         <v>10000</v>
@@ -11687,22 +11765,22 @@
         <v>215</v>
       </c>
       <c r="D169" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="F169" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="G169" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="H169" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="I169" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="J169">
         <v>2772</v>
@@ -11719,22 +11797,22 @@
         <v>223</v>
       </c>
       <c r="D170" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="E170" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="F170" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="G170" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="H170" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="I170" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J170">
         <v>9650</v>
@@ -11754,19 +11832,19 @@
         <v>228</v>
       </c>
       <c r="E171" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="F171" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G171" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="H171" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="I171" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J171">
         <v>8050</v>
@@ -11783,22 +11861,22 @@
         <v>223</v>
       </c>
       <c r="D172" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E172" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F172" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G172" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="H172" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="I172" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J172">
         <v>400</v>
@@ -11815,22 +11893,22 @@
         <v>215</v>
       </c>
       <c r="D173" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E173" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="F173" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G173" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="H173" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="I173" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J173">
         <v>800</v>
@@ -11847,22 +11925,22 @@
         <v>215</v>
       </c>
       <c r="D174" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="E174" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F174" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G174" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="H174" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="I174" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="J174">
         <v>900</v>
@@ -11879,22 +11957,22 @@
         <v>215</v>
       </c>
       <c r="D175" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E175" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="F175" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G175" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="H175" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="I175" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="J175">
         <v>1200</v>
@@ -11914,19 +11992,19 @@
         <v>229</v>
       </c>
       <c r="E176" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="F176" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G176" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="H176" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="I176" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="J176">
         <v>400</v>
@@ -11943,22 +12021,22 @@
         <v>218</v>
       </c>
       <c r="D177" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E177" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F177" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G177" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="H177" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="I177" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="J177">
         <v>30</v>
@@ -11975,19 +12053,19 @@
         <v>218</v>
       </c>
       <c r="D178" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="F178" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="G178" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="H178" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="I178" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -12004,16 +12082,16 @@
         <v>215</v>
       </c>
       <c r="D179" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F179" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="G179" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="H179" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -12040,13 +12118,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12061,7 +12139,7 @@
         <v>0.6123595505617978</v>
       </c>
       <c r="D2" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -12076,7 +12154,7 @@
         <v>0.2696629213483146</v>
       </c>
       <c r="D3" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12091,7 +12169,7 @@
         <v>0.06179775280898876</v>
       </c>
       <c r="D4" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12106,7 +12184,7 @@
         <v>0.05617977528089887</v>
       </c>
       <c r="D5" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -12127,13 +12205,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12148,7 +12226,7 @@
         <v>0.05617977528089887</v>
       </c>
       <c r="D2" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -12163,7 +12241,7 @@
         <v>0.06179775280898876</v>
       </c>
       <c r="D3" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12178,7 +12256,7 @@
         <v>0.2696629213483146</v>
       </c>
       <c r="D4" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12193,7 +12271,7 @@
         <v>0.6123595505617978</v>
       </c>
       <c r="D5" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -12220,13 +12298,13 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12241,7 +12319,7 @@
         <v>0.5449438202247191</v>
       </c>
       <c r="D2" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -12256,7 +12334,7 @@
         <v>0.1067415730337079</v>
       </c>
       <c r="D3" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12271,7 +12349,7 @@
         <v>0.08426966292134831</v>
       </c>
       <c r="D4" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12286,7 +12364,7 @@
         <v>0.08426966292134831</v>
       </c>
       <c r="D5" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12301,7 +12379,7 @@
         <v>0.06741573033707865</v>
       </c>
       <c r="D6" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12316,7 +12394,7 @@
         <v>0.03932584269662921</v>
       </c>
       <c r="D7" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12331,7 +12409,7 @@
         <v>0.02808988764044944</v>
       </c>
       <c r="D8" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12346,7 +12424,7 @@
         <v>0.02247191011235955</v>
       </c>
       <c r="D9" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -12361,7 +12439,7 @@
         <v>0.01123595505617977</v>
       </c>
       <c r="D10" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -12412,13 +12490,13 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12448,7 +12526,7 @@
         <v>0.01123595505617977</v>
       </c>
       <c r="D3" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12463,7 +12541,7 @@
         <v>0.02247191011235955</v>
       </c>
       <c r="D4" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12478,7 +12556,7 @@
         <v>0.02808988764044944</v>
       </c>
       <c r="D5" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12493,7 +12571,7 @@
         <v>0.03932584269662921</v>
       </c>
       <c r="D6" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12508,7 +12586,7 @@
         <v>0.06741573033707865</v>
       </c>
       <c r="D7" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12523,7 +12601,7 @@
         <v>0.08426966292134831</v>
       </c>
       <c r="D8" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12538,7 +12616,7 @@
         <v>0.08426966292134831</v>
       </c>
       <c r="D9" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -12553,7 +12631,7 @@
         <v>0.1067415730337079</v>
       </c>
       <c r="D10" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -12568,7 +12646,7 @@
         <v>0.5449438202247191</v>
       </c>
       <c r="D11" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -12595,18 +12673,18 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B2">
         <v>142</v>
@@ -12615,12 +12693,12 @@
         <v>0.797752808988764</v>
       </c>
       <c r="D2" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="B3">
         <v>78</v>
@@ -12629,12 +12707,12 @@
         <v>0.4382022471910113</v>
       </c>
       <c r="D3" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B4">
         <v>59</v>
@@ -12643,12 +12721,12 @@
         <v>0.3314606741573033</v>
       </c>
       <c r="D4" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="B5">
         <v>52</v>
@@ -12657,12 +12735,12 @@
         <v>0.2921348314606741</v>
       </c>
       <c r="D5" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B6">
         <v>34</v>
@@ -12671,194 +12749,194 @@
         <v>0.1910112359550562</v>
       </c>
       <c r="D6" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>599</v>
+        <v>230</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1179775280898876</v>
+        <v>0.1404494382022472</v>
       </c>
       <c r="D7" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3">
-        <v>0.0898876404494382</v>
+        <v>0.1179775280898876</v>
       </c>
       <c r="D8" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3">
-        <v>0.05617977528089887</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="D9" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>612</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3">
-        <v>0.0449438202247191</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="D10" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3">
-        <v>0.0449438202247191</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="D11" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>603</v>
+        <v>254</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>0.03932584269662921</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="D12" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>260</v>
+        <v>614</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3">
-        <v>0.03370786516853932</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="D13" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3">
-        <v>0.02808988764044944</v>
+        <v>0.03932584269662921</v>
       </c>
       <c r="D14" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>605</v>
+        <v>265</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" s="3">
-        <v>0.02247191011235955</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="D15" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3">
-        <v>0.01685393258426966</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="D16" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>617</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3">
-        <v>0.01123595505617977</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="D17" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>234</v>
+        <v>618</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>0.005617977528089887</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>636</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>607</v>
+        <v>274</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
-        <v>0.005617977528089887</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>637</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -12867,7 +12945,7 @@
         <v>0.005617977528089887</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -12888,88 +12966,88 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>0.0449438202247191</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="D2" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>612</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.0449438202247191</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="D3" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>0.05617977528089887</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="D4" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>0.0898876404494382</v>
+        <v>0.1179775280898876</v>
       </c>
       <c r="D5" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>599</v>
+        <v>230</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>0.1179775280898876</v>
+        <v>0.1404494382022472</v>
       </c>
       <c r="D6" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B7">
         <v>34</v>
@@ -12978,12 +13056,12 @@
         <v>0.1910112359550562</v>
       </c>
       <c r="D7" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="B8">
         <v>52</v>
@@ -12992,12 +13070,12 @@
         <v>0.2921348314606741</v>
       </c>
       <c r="D8" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B9">
         <v>59</v>
@@ -13006,12 +13084,12 @@
         <v>0.3314606741573033</v>
       </c>
       <c r="D9" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="B10">
         <v>78</v>
@@ -13020,12 +13098,12 @@
         <v>0.4382022471910113</v>
       </c>
       <c r="D10" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B11">
         <v>142</v>
@@ -13034,7 +13112,7 @@
         <v>0.797752808988764</v>
       </c>
       <c r="D11" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
